--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6D5D51E0-64BE-4FA8-A405-A1019B3E8D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D3ACE042-ABED-4667-BAB9-1501573829FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="16520" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -78,20 +78,6 @@
     <t>r20.13</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.2 Advance Scenario&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-An Advance scenario represents the fluid situations that developed as the Division was driving through enemy territory and meeting only scattered groups of defenders. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-An Advance scenario follows the Sequence of Play as described in &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.3 Battle Scenario&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A Battle scenario represents an assault by the Division against prepared and well-defended positions. Resistance will be higher than for advance scenarios. Only limited amounts of territory will be gained. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Battle scenario follows the Sequence of Play as described in &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.13 Expected Enemy Resistance&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The resistance code for the day will affect the probabiliity of battle when a new area is entered on the Movement Board and the number of enemy units activated on the Battle Board. 
@@ -110,21 +96,6 @@
 If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on teh calender, and go on to the next day.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.4 CounterAttack Scenario&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A Counterattack scenario represents the Division on defense against an enemy counterattack. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Because the enemy is coming at you, the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; changes. The Sequence of Play is modified as follows after the Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; determines how much time has passed since sunrise:&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r40.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Preparations&lt;LineBreak/&gt;
-2.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Movement&lt;LineBreak/&gt;
-3.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Battle</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.41 CounterAttack - Preparations&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For step &lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, you deploy automatically to Stopped/Hull Down state. Place a Hull Down marker on your tank. Steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through &lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; remain unchanged.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;Bold&gt;r20.1 Combat Calendar&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 For each day of the campaign, the Combat Calendar shows either the notation 'Refitting' or a three part scenario code such as 'A-2-L'. 
@@ -145,11 +116,34 @@
 When daylight runs out, the day is over. Go to the Evening DeBriefing. If a battle does occur, mark off 15 minutes and go to Battle &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r20.42 CounterAttack - Retreat from Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you retreat from the Battle Board, mark off 15 minutes and record the loss of one area. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Move your Task Force marker one area on the Movement Board in the direction of the Exit marker by the shortest route. If two or more areas are equally close, you may choose either one.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Go back to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.2 Advance Scenario&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An Advance scenario represents the fluid situations that developed as the Division was driving through enemy territory and meeting only scattered groups of defenders. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An Advance scenario follows the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.3 Battle Scenario&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A Battle scenario represents an assault by the Division against prepared and well-defended positions. Resistance will be higher than for advance scenarios. Only limited amounts of territory will be gained. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Battle scenario follows the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r20.43 CounterAttack - Battle&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Delete steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and &lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If no Ambush occurs, go to the Battle Round Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If an Ambush does occur, do not conduct Enemy Actions, but instead perform the following steps:
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- For your tank, go to Battle Round Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+-- For your tank, go to Battle Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; -&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
 -- Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Friendly Action Phase &lt;LineBreak/&gt;
 -- Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Random Events Phase&lt;LineBreak/&gt;
 -- Go to step 4.7: Battle Round Sequence
@@ -160,18 +154,24 @@
   <si>
     <t>&lt;Bold&gt;r20.42 CounterAttack - Clear Battle Board&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If battle (or even your Ambush) clears the board of enemy units, return to Time Check to determine how mnay hours pass before a battle becomes possible again. 
+If battle (or even your Ambush) clears the board of enemy units, return to Time Check to determine how many hours pass before a battle becomes possible again. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.42 CounterAttack - Retreat from Battle Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you retreat from the Battle Board, mark off 15 minutes and record the loss of one area. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Move your Task Force marker one area on the Movement Board in the direction of the Exit marker by the shortest route. If two or more areas are equally close, you may choose either one.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Go back to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+    <t>&lt;Bold&gt;r20.41 CounterAttack - Preparations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For step &lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, you deploy automatically to Hull Down state. Place a Hull Down marker on your tank. Steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through &lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; remain unchanged.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.4 CounterAttack Scenario&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A Counterattack scenario represents the Division on defense against an enemy counterattack. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Because the enemy is coming at you, the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; changes. The Sequence of Play is modified as follows after the Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; determines how much time has passed since sunrise:&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Preparations&lt;LineBreak/&gt;
+2.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Movement&lt;LineBreak/&gt;
+3.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Battle</t>
   </si>
 </sst>
 </file>
@@ -540,14 +540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="143.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="149.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
@@ -579,23 +579,23 @@
         <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
@@ -603,15 +603,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="214" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D3ACE042-ABED-4667-BAB9-1501573829FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6425ACD-C948-4792-927F-02EF79C9D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="16520" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>r20.1</t>
   </si>
@@ -172,6 +172,14 @@
 1.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Preparations&lt;LineBreak/&gt;
 2.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Movement&lt;LineBreak/&gt;
 3.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Battle</t>
+  </si>
+  <si>
+    <t>r1.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r1.1 Description&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;Bold&gt;PATTON'S BEST&lt;/Bold&gt; recreates the World War II campaing in nothern Europe through the eyes of a tank commander in George Patton's most famous unit, the 4th Armored Division. Patton's Best is designed as a solitaire game, with you acting as the commander of a Sherman tank. As the commander, you control the actions of your crew, and through them, fight and maneuver your tank. The actions of the enemy tanks and troops, as well as friendly forces  on your side, are randomly generated by various game aides and tables. Each scenario consists of a single engagement or a day  of movement and battle. However, the game realizes is full interest when played as a campaign which allows you to take part in every historical battle of the 4th Armored Division. You and your crew can witness and participate in the great drives across Europe, the battles for the Siegfried Line, the relief of Bastogne, and the crossing of the Rhine.</t>
   </si>
 </sst>
 </file>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -550,104 +558,109 @@
     <col min="2" max="2" width="149.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -752,10 +765,10 @@
       <c r="B47" s="1"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
+      <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -988,10 +1001,10 @@
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -1300,9 +1313,12 @@
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
     </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:B230">
-    <sortCondition ref="A55:A230"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:B231">
+    <sortCondition ref="A56:A231"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E6425ACD-C948-4792-927F-02EF79C9D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F0CFC1-AC5F-4C9C-ABBF-DD6992B238B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -89,24 +89,6 @@
 H = Heavy</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on teh calender, and go on to the next day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r20.1 Combat Calendar&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For each day of the campaign, the Combat Calendar shows either the notation 'Refitting' or a three part scenario code such as 'A-2-L'. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When Patton's Division is refitting, it is in reserve absorbing replacements and retraining &lt;InlineUIContainer&gt;&lt;Button Content='r27.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. The presence of a scenario code indicates: 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Type of scenario &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Probability of being in combat&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Expected enemy resistance. </t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.42 CounterAttack - Movement&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Delete step &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and all operations of step &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; except for Ammo Resupply. 
@@ -177,9 +159,27 @@
     <t>r1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;Bold&gt;r20.1 Combat Calendar&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each day of the campaign, the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; shows either the notation 'Refitting' or a three part scenario code such as 'A-2-L'. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When Patton's Division is refitting, it is in reserve absorbing replacements and retraining &lt;InlineUIContainer&gt;&lt;Button Content='r27.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. The presence of a scenario code indicates: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Type of scenario &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Probability of being in combat&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Expected enemy resistance. </t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r1.1 Description&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;Bold&gt;PATTON'S BEST&lt;/Bold&gt; recreates the World War II campaing in nothern Europe through the eyes of a tank commander in George Patton's most famous unit, the 4th Armored Division. Patton's Best is designed as a solitaire game, with you acting as the commander of a Sherman tank. As the commander, you control the actions of your crew, and through them, fight and maneuver your tank. The actions of the enemy tanks and troops, as well as friendly forces  on your side, are randomly generated by various game aides and tables. Each scenario consists of a single engagement or a day  of movement and battle. However, the game realizes is full interest when played as a campaign which allows you to take part in every historical battle of the 4th Armored Division. You and your crew can witness and participate in the great drives across Europe, the battles for the Siegfried Line, the relief of Bastogne, and the crossing of the Rhine.</t>
+&lt;Bold&gt;PATTON'S BEST&lt;/Bold&gt; recreates the World War II campaing in nothern Europe through the eyes of a tank commander in George Patton's most famous unit, the 4th Armored Division. Patton's Best is designed as a solitaire game, with you acting as the commander of a Sherman tank. As the commander, you control the actions of your crew, and through them, fight and maneuver your tank. The actions of the enemy tanks and troops, as well as friendly forces  on your side, are randomly generated by various game aides and tables. Each scenario consists of a single engagement or a day  of movement and battle. However, the game realizes its full interest when played as a campaign which allows you to take part in every historical battle of the 4th Armored Division. You and your crew can witness and participate in the great drives across Europe, the battles for the Siegfried Line, the relief of Bastogne, and the crossing of the Rhine.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is higher than the code number, you miss combat this day. Skip this day on the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, and go on to the next day.</t>
   </si>
 </sst>
 </file>
@@ -548,33 +548,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="149.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="149.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -582,12 +582,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
@@ -598,68 +598,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\PattonsBest\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F0CFC1-AC5F-4C9C-ABBF-DD6992B238B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C91A4F6-B78B-4BBA-B44B-450239FFEFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>r20.1</t>
   </si>
@@ -87,6 +87,13 @@
 L = Light&lt;LineBreak/&gt;
 M = Medium&lt;LineBreak/&gt;
 H = Heavy</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on teh calender, and go on to the next day.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r20.42 CounterAttack - Movement&lt;/Bold&gt;
@@ -170,16 +177,124 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r20.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Expected enemy resistance. </t>
   </si>
   <si>
+    <t>r2.11</t>
+  </si>
+  <si>
+    <t>r2.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r1.1 Game Boards&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Patton's Best is played on a game board which is divided into three screens: the Movement Board, the Battle Board, and the Tank Card (upper left corner). Additionally, there is a section of tables that can be displayed as needed. There is an After Action Report which tracks the day's events.</t>
+  </si>
+  <si>
+    <t>r2.12</t>
+  </si>
+  <si>
+    <t>r2.13</t>
+  </si>
+  <si>
+    <t>r2.4</t>
+  </si>
+  <si>
+    <t>r4.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r1.1 Movement Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The movement board is a depiction fo typical Europena coutnryside and is used to show the "big picture" for the day. The movement board is divided into white lines into areas:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A = Farm buildings and fields&lt;LineBreak/&gt;
+B = Fields&lt;LineBreak/&gt;
+C = Villiages&lt;LineBreak/&gt;
+D = Woods&lt;LineBreak/&gt;
+# = Starting or exiting areas
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Numbers shown around the edge of the movement board distinguish those areas that may be start or exit areas. Roads shown are of two types: improved highwas (gray black) and dirt country roads (brown).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='MapMovement' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.12 Battle Board&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The battle board is an abstract display used to resolve engagements with enemy forces. Your tank is placed in the center of this display and the action of an engagement revolves around it through the use of pieces representing enemy units and other informational markers. A detailed explanation is given in &lt;InlineUIContainer&gt;&lt;Button Content='r5.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Name='MapBattle'  Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.13 Tank Card&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The upper right image is the Tank Card. The game starts with the basic M4 Sherman tank, i.e., Tank Card #1. The Tank Card shows the tank model and other important information regarding the tank. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+There are 16 additional Sherman tank variations that you may command plus an optional card with the British Firefly Sherman variant. The use of the Tank Card is described in &lt;InlineUIContainer&gt;&lt;Button Content='r5.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                      &lt;InlineUIContainer&gt;&lt;Image Name='m001M4'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r.4.1</t>
+  </si>
+  <si>
+    <t>r.4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.1 Combat Calendar Check&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r4.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Examine the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; fro the next day of possible combat and roll 1 die roll. &lt;LineBreak/&gt;
+If the number rolled is greater than the number shown in the middel of the three part sceanrio code for the day (A-2-L is used for July 27, 1944), you avoid action and can check off the day as compleed. &lt;LineBreak/&gt;
+If the number is less than or equal to the probability code, you trigger a day of possible combat. Go to &lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the Morning Briefing. </t>
+  </si>
+  <si>
+    <t>r4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. On the remaining time is available for play this day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the time and ammo already expended by rolling 1D on teh Time Elapsed Table. This roll determines the number of hours already passed and the amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.2 Morning Briefing Using the After Action Report (AAR)&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- A new AAR is created with the new date and scenario code 
+-- If a new tank is required, consule the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; &lt;LineBreak/&gt;
+-- If not already done, give your new tank a name by clicking on the AAR&lt;LineBreak/&gt;
+-- If necessary, record the names and ratings of your tank crew. See &lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men&lt;LineBreak/&gt;
+-- The Weather table is used to determine weather&lt;LineBreak/&gt;
+-- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.4 After Action Report (AAR)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The events of each engagement or day of battle are recorded as they unfold on the After Action Report. On this report record, the names and ratings of your crew, the passage of time, the amount of ammo your tank is carrying, and victory points score during play. The Notes section space is used to record temporary information, such as being lead tank, incapacitation of crew members, etc.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Name='AfterActionReport'  Height='320' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r1.1 Description&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;Bold&gt;PATTON'S BEST&lt;/Bold&gt; recreates the World War II campaing in nothern Europe through the eyes of a tank commander in George Patton's most famous unit, the 4th Armored Division. Patton's Best is designed as a solitaire game, with you acting as the commander of a Sherman tank. As the commander, you control the actions of your crew, and through them, fight and maneuver your tank. The actions of the enemy tanks and troops, as well as friendly forces  on your side, are randomly generated by various game aides and tables. Each scenario consists of a single engagement or a day  of movement and battle. However, the game realizes its full interest when played as a campaign which allows you to take part in every historical battle of the 4th Armored Division. You and your crew can witness and participate in the great drives across Europe, the battles for the Siegfried Line, the relief of Bastogne, and the crossing of the Rhine.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the number rolled is higher than the code number, you miss combat this day. Skip this day on the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, and go on to the next day.</t>
+&lt;Bold&gt;PATTON'S BEST&lt;/Bold&gt; recreates the World War II campaing in nothern Europe through the eyes of a tank commander in George Patton's most famous unit, the 4th Armored Division. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Patton's Best is designed as a solitaire game, with you acting as the commander of a Sherman tank. As the commander, you control the actions of your crew, and through them, fight and maneuver your tank. The actions of the enemy tanks and troops, as well as friendly forces  on your side, are randomly generated by various game aides and tables. Each scenario consists of a single engagement or a day  of movement and battle. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+However, the game realizes its full interest when played as a campaign which allows you to take part in every historical battle of the 4th Armored Division. You and your crew can witness and participate in the great drives across Europe, the battles for the Siegfried Line, the relief of Bastogne, and the crossing of the Rhine. Further details here:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Game Boards&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; After Action Reports&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sequence of Play&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.0 Sequence of Play&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Combat Calendar Check &lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Morning Briefing &lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Consult the Time Tables&lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Prepare for Battle on Battle Board &lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Movement Sequence on Movement Board&lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle &lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Round Sequence&lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.8' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; When your Tank is Target&lt;LineBreak/&gt;
+-- &lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Evening Debriefing</t>
   </si>
 </sst>
 </file>
@@ -546,177 +661,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B231"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="149.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="2" max="2" width="149.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -768,7 +928,7 @@
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
@@ -795,7 +955,7 @@
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
@@ -1004,7 +1164,7 @@
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -1031,7 +1191,7 @@
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
@@ -1316,9 +1476,36 @@
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
     </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="1"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="1"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="1"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="1"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="1"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="1"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:B231">
-    <sortCondition ref="A56:A231"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:B240">
+    <sortCondition ref="A65:A240"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8C91A4F6-B78B-4BBA-B44B-450239FFEFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A900304-767D-4D67-B56F-1175148402E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -183,11 +183,6 @@
     <t>r2.1</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r1.1 Game Boards&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Patton's Best is played on a game board which is divided into three screens: the Movement Board, the Battle Board, and the Tank Card (upper left corner). Additionally, there is a section of tables that can be displayed as needed. There is an After Action Report which tracks the day's events.</t>
-  </si>
-  <si>
     <t>r2.12</t>
   </si>
   <si>
@@ -295,6 +290,11 @@
 -- &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Round Sequence&lt;LineBreak/&gt;
 -- &lt;InlineUIContainer&gt;&lt;Button Content='r4.8' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; When your Tank is Target&lt;LineBreak/&gt;
 -- &lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Evening Debriefing</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.1 Game Boards&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Patton's Best is played on a game board which is divided into three screens: the Movement Board, the Battle Board, and the Tank Card (upper left corner). Additionally, there is a section of tables that can be displayed as needed. There is an After Action Report which tracks the day's events.</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
@@ -694,63 +694,63 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A900304-767D-4D67-B56F-1175148402E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{06CEFDB0-AEF8-4C24-8C24-916A9B6D705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -78,40 +78,11 @@
     <t>r20.13</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.13 Expected Enemy Resistance&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The resistance code for the day will affect the probabiliity of battle when a new area is entered on the Movement Board and the number of enemy units activated on the Battle Board. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The expected enemy resistance will be needed when you consult the Resistance Table &lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and Activation Table &lt;InlineUIContainer&gt;&lt;Button Content='t003' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-L = Light&lt;LineBreak/&gt;
-M = Medium&lt;LineBreak/&gt;
-H = Heavy</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on teh calender, and go on to the next day.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.42 CounterAttack - Movement&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Delete step &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and all operations of step &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; except for Ammo Resupply. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Instead each 15 minutes, roll 1D on the Resistance Table &lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to determine if a battle occurs. If not, mark off 15 minutes and roll again. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When daylight runs out, the day is over. Go to the Evening DeBriefing. If a battle does occur, mark off 15 minutes and go to Battle &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.42 CounterAttack - Retreat from Battle Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you retreat from the Battle Board, mark off 15 minutes and record the loss of one area. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Move your Task Force marker one area on the Movement Board in the direction of the Exit marker by the shortest route. If two or more areas are equally close, you may choose either one.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Go back to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r20.2 Advance Scenario&lt;/Bold&gt;
@@ -141,28 +112,6 @@
 If you retreat from the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.42 CounterAttack - Clear Battle Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If battle (or even your Ambush) clears the board of enemy units, return to Time Check to determine how many hours pass before a battle becomes possible again. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.41 CounterAttack - Preparations&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For step &lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, you deploy automatically to Hull Down state. Place a Hull Down marker on your tank. Steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through &lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; remain unchanged.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.4 CounterAttack Scenario&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A Counterattack scenario represents the Division on defense against an enemy counterattack. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Because the enemy is coming at you, the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; changes. The Sequence of Play is modified as follows after the Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; determines how much time has passed since sunrise:&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Preparations&lt;LineBreak/&gt;
-2.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Movement&lt;LineBreak/&gt;
-3.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Battle</t>
-  </si>
-  <si>
     <t>r1.1</t>
   </si>
   <si>
@@ -195,21 +144,6 @@
     <t>r4.0</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r1.1 Movement Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The movement board is a depiction fo typical Europena coutnryside and is used to show the "big picture" for the day. The movement board is divided into white lines into areas:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A = Farm buildings and fields&lt;LineBreak/&gt;
-B = Fields&lt;LineBreak/&gt;
-C = Villiages&lt;LineBreak/&gt;
-D = Woods&lt;LineBreak/&gt;
-# = Starting or exiting areas
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Numbers shown around the edge of the movement board distinguish those areas that may be start or exit areas. Roads shown are of two types: improved highwas (gray black) and dirt country roads (brown).
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                              &lt;InlineUIContainer&gt;&lt;Image Name='MapMovement' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r2.12 Battle Board&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The battle board is an abstract display used to resolve engagements with enemy forces. Your tank is placed in the center of this display and the action of an engagement revolves around it through the use of pieces representing enemy units and other informational markers. A detailed explanation is given in &lt;InlineUIContainer&gt;&lt;Button Content='r5.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
@@ -226,44 +160,7 @@
                       &lt;InlineUIContainer&gt;&lt;Image Name='m001M4'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>r.4.1</t>
-  </si>
-  <si>
-    <t>r.4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.1 Combat Calendar Check&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r4.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Examine the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; fro the next day of possible combat and roll 1 die roll. &lt;LineBreak/&gt;
-If the number rolled is greater than the number shown in the middel of the three part sceanrio code for the day (A-2-L is used for July 27, 1944), you avoid action and can check off the day as compleed. &lt;LineBreak/&gt;
-If the number is less than or equal to the probability code, you trigger a day of possible combat. Go to &lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the Morning Briefing. </t>
-  </si>
-  <si>
     <t>r4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. On the remaining time is available for play this day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine the time and ammo already expended by rolling 1D on teh Time Elapsed Table. This roll determines the number of hours already passed and the amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.2 Morning Briefing Using the After Action Report (AAR)&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- A new AAR is created with the new date and scenario code 
--- If a new tank is required, consule the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; &lt;LineBreak/&gt;
--- If not already done, give your new tank a name by clicking on the AAR&lt;LineBreak/&gt;
--- If necessary, record the names and ratings of your tank crew. See &lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men&lt;LineBreak/&gt;
--- The Weather table is used to determine weather&lt;LineBreak/&gt;
--- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r2.4 After Action Report (AAR)&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The events of each engagement or day of battle are recorded as they unfold on the After Action Report. On this report record, the names and ratings of your crew, the passage of time, the amount of ammo your tank is carrying, and victory points score during play. The Notes section space is used to record temporary information, such as being lead tank, incapacitation of crew members, etc.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                     &lt;InlineUIContainer&gt;&lt;Image Name='AfterActionReport'  Height='320' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r1.1 Description&lt;/Bold&gt;
@@ -294,7 +191,126 @@
   <si>
     <t>&lt;Bold&gt;r2.1 Game Boards&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Patton's Best is played on a game board which is divided into three screens: the Movement Board, the Battle Board, and the Tank Card (upper left corner). Additionally, there is a section of tables that can be displayed as needed. There is an After Action Report which tracks the day's events.</t>
+Patton's Best is played on game boards which are divided into separate displays:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; the Movement Board&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; the Battle Board&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; the Tank Card (upper left corner)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; the After Action Report (AAR)&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;
+Additionally, there are tables that can be displayed as needed by clicking appropriate buttons, One important table is the Combat Calendar &lt;InlineUIContainer&gt;&lt;Button Content='r4.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r4.1</t>
+  </si>
+  <si>
+    <t>r4.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.2 Morning Briefing&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Perform these actions using After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- A new AAR is created with the new date and scenario code. 
+-- If a new tank is required, consult the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;
+-- If you want to change, give your new tank a name by clicking on the Tank Name.&lt;LineBreak/&gt;
+-- If you want to change, click on names of your crew members. You are the tank commander so change your name on that row. See &lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men&lt;LineBreak/&gt;
+-- The weather table is used to determine the weather for the day&lt;LineBreak/&gt;
+-- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. Only the remaining time is available for play this day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the time and ammo already expended by rolling 1D on the Time Elapsed Table. This roll determines the number of hours already passed and the amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.4 After Action Report (AAR)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The events of each engagement or day of battle are recorded as they unfold on the After Action Report. On this report record, the names and ratings of your crew, the passage of time, the amount of ammo your tank is carrying, and victory points score during play. The Notes section space is used to record temporary information, such as being lead tank, incapacitation of crew members, etc.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Name='AfterActionReport'  Height='320' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The AAR for the current day can be displayed clicking the menu item: &lt;Bold&gt;View | After Action Report...&lt;/Bold&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.4 Counterattack Scenario&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A Counterattack scenario represents the Division on defense against an enemy counterattack. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Because the enemy is coming at you, the Sequence of Play &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; changes. The Sequence of Play is modified as follows after the Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; determines how much time has passed since sunrise:&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Preparations&lt;LineBreak/&gt;
+2.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Movement&lt;LineBreak/&gt;
+3.) &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; --&gt; &lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for Battle</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.41 Counterattack - Preparations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For step &lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, you deploy automatically to Hull Down state. Place a Hull Down marker on your tank. Steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through &lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; remain unchanged.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.42 Counterattack - Movement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Delete step &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and all operations of step &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; except for Ammo Resupply. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Instead each 15 minutes, roll 1D on the Resistance Table &lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to determine if a battle occurs. If not, mark off 15 minutes and roll again. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When daylight runs out, the day is over. Go to the Evening DeBriefing. If a battle does occur, mark off 15 minutes and go to Battle &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.44 Counterattack - Clear Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If battle (or even your Ambush) clears the board of enemy units, return to Time Check to determine how many hours pass before a battle becomes possible again. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.45 Counterattack - Retreat from Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you retreat from the Battle Board, mark off 15 minutes and record the loss of one area. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Move your Task Force marker one area on the Movement Board in the direction of the Exit marker by the shortest route. If two or more areas are equally close, you may choose either one.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Go back to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.13 Expected Enemy Resistance&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The resistance code for the day will affect the probabiliity of battle when a new area is entered on the Movement Board 
+and the number of enemy units activated on the Battle Board. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The expected enemy resistance will be needed when you consult the Resistance Table 
+&lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and Activation Table 
+&lt;InlineUIContainer&gt;&lt;Button Content='t003' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+L = Light&lt;LineBreak/&gt;
+M = Medium&lt;LineBreak/&gt;
+H = Heavy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.1 Combat Calendar Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Performed at beginning of each day. Examine the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the chances of combat and roll 1 die roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is greater than the number shown in the middle of the three part scenario code for the day (A-2-L is used for July 27, 1944), you avoid action and can check off the day as completed. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number is less than or equal to the probability code, you trigger a day of possible combat. Go to &lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the Morning Briefing. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.11 Movement Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The movement board is a depiction fo typical Europena coutnryside and is used to show the "big picture" for the day. The movement board is divided into white lines into areas:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A = Farm buildings and fields&lt;LineBreak/&gt;
+B = Fields&lt;LineBreak/&gt;
+C = Villiages&lt;LineBreak/&gt;
+D = Woods&lt;LineBreak/&gt;
+# = Starting or exiting areas
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Numbers shown around the edge of the movement board distinguish those areas that may be start or exit areas. Roads shown are of two types: improved highwas (gray black) and dirt country roads (brown).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Name='MapMovement' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -663,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -675,82 +691,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -758,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -774,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
@@ -782,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -790,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
@@ -798,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
@@ -806,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -814,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -822,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
@@ -830,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
@@ -838,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
@@ -846,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{06CEFDB0-AEF8-4C24-8C24-916A9B6D705A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29D40DE5-6127-47CA-86F3-0E5FA6345499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>r20.1</t>
   </si>
@@ -311,6 +311,45 @@
 Numbers shown around the edge of the movement board distinguish those areas that may be start or exit areas. Roads shown are of two types: improved highwas (gray black) and dirt country roads (brown).
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                               &lt;InlineUIContainer&gt;&lt;Image Name='MapMovement' Height='200' Width='200'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r7.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.0 Crew Ratings&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each crew member is given a numerical rating of his skill at his position. The rating range from 1 (poorest) to 10 (best). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The higher the crew member's rating, the more successful he will be trying to spot enemy units, hit enemy units with his weapons, repair malfunctioning guns, etc. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The crew ratings are recorded on the After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ratings for New Men&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rating Improvements&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r7.1</t>
+  </si>
+  <si>
+    <t>r7.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.1 Ratings for New Men&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the rating for a new crew member by rolling 1D/2 rounded up. For example, a roll of five results in a rating of 3.  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolling for more than one new crewman, assign the rating after all have been rolled for. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if rolling for an entire crew, roll five ratings and then assign to men as you wish. It is suggested that the higher ratings be allocated in this order: Commander, Gunner, Driver, Loader, and Assistant Driver.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.2 Ratings Improvement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the end of the day of action, check for each surviving crew member to see if his rating improves. Roll 1D separately for each. If the number rolled is higher than the current rating, the rating is increased by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, your gunner has a rating of 5 and you roll a 9. The gunner's rating increases to 6.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Crew ratings cannot be greater than 10 and never decrease. Ratings cannot improve if you avoid action for the day per &lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ratings may also improve during refitting periods per &lt;InlineUIContainer&gt;&lt;Button Content='r27.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -677,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B240"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -769,110 +808,125 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="85.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
@@ -971,7 +1025,7 @@
       <c r="B57" s="1"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
@@ -980,7 +1034,7 @@
       <c r="B60" s="1"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
@@ -1207,7 +1261,7 @@
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1270,7 @@
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
@@ -1519,9 +1573,18 @@
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
     </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="1"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="1"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:B240">
-    <sortCondition ref="A65:A240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A68:B243">
+    <sortCondition ref="A68:A243"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5699D6B6-C586-43DF-8134-348D306654D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D3E8-2406-412A-8C51-02A761967B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>r20.1</t>
   </si>
@@ -191,14 +191,6 @@
   </si>
   <si>
     <t>r7.2</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r7.1 Ratings for New Men&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine the rating for a new crew member by rolling 1D/2 rounded up. For example, a roll of five results in a rating of 3.  
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolling for more than one new crewman, assign the rating after all have been rolled for. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For example, if rolling for an entire crew, roll five ratings and then assign to men as you wish. It is suggested that the higher ratings be allocated in this order: Commander, Gunner, Driver, Loader, and Assistant Driver.</t>
   </si>
   <si>
     <t>r19.0</t>
@@ -502,6 +494,86 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; remain unchanged.</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r20.42 Counterattack - Movement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Delete step &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and all operations of step &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; except for Ammo Resupply. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Instead each 15 minutes, roll 1D on the Resistance Table 
+&lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to determine if a battle occurs. If not, mark off 15 minutes and roll again. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When daylight runs out, the day is over. Go to the Evening DeBriefing. If a battle does occur, mark off 15 minutes and go to Battle 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a crew member takes a wound that uts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
+Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While occupying any other position except driver, the assistant driver's rating is havled (rounded down). This change takes one full round.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.2 Ratings Improvement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the end of the day of action, check for each surviving crew member to see if his rating improves. Roll 1D separately for each. If the number rolled is higher than the current rating, the rating is increased by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, your gunner has a rating of 5 and you roll a 9. The gunner's rating increases to 6.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Crew ratings cannot be greater than 10 and never decrease. Ratings cannot improve if you avoid action for the day per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ratings may also improve during refitting periods per &lt;InlineUIContainer&gt;&lt;Button Content='r27.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.0 Crew Casualties&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When playing, it is possible for the crewmen of your tank to be wounded or killed. Crew casualties can occur when you tank is knocked out 
+or when a crewman at an open hatch is hit by artillery/small arms fire. In both cases, the degree of injury is determined by the Wounds Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Inside the Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; With Open Hatches&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Replacing Crew Casualties&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.1 Inside the Tank&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Crewman with no hatch or with a closed hatch are inside the tank and can only be hurt by gunfire or a Panzerfaust attack which penetrates the tank's armor. 
+When an enemy attack successfully rolls To Kill your tank, it has been knocked out and your must check crew casualties.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Exploding Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Non-Exploding Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Bail Out&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Rescue&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.1 Ratings for New Men&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the rating for a new crew member by rolling 1D/2 rounded up. For example, a roll of five results in a rating of 3.  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolling for more than one new crewman, assign the rating after all rolls have been performed for all new men. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if rolling for an entire crew, roll five ratings and then assign to men as you wish. It is suggested that the higher ratings be allocated in this order: Commander, Gunner, Driver, Loader, and Assistant Driver.</t>
+  </si>
+  <si>
+    <t>r20.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
+there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;Combat Calendar&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advance Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; CounterAttack Scenario&lt;LineBreak/&gt;
+</t>
+  </si>
+  <si>
+    <t>r21.0</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r20.43 CounterAttack - Battle&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Delete steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
@@ -509,69 +581,50 @@
 If no Ambush occurs, go to the Battle Round Sequence 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If an Ambush does occur, do not conduct Enemy Actions, but instead perform the following steps:
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- For your tank, go to Battle Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; -&gt; 
+For your tank, go to Battle Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; -&gt; 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
--- Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Friendly Action Phase &lt;LineBreak/&gt;
--- Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Random Events Phase&lt;LineBreak/&gt;
--- Go to step 4.7: Battle Round Sequence
+Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Friendly Action Phase &lt;LineBreak/&gt;
+Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Random Events Phase&lt;LineBreak/&gt;
+Go to Battle Round Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If you clear the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; &lt;LineBreak/&gt;
 If you retreat from the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.42 Counterattack - Movement&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Delete step &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and all operations of step &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; except for Ammo Resupply. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Instead each 15 minutes, roll 1D on the Resistance Table 
-&lt;InlineUIContainer&gt;&lt;Button Content='t002' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to determine if a battle occurs. If not, mark off 15 minutes and roll again. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When daylight runs out, the day is over. Go to the Evening DeBriefing. If a battle does occur, mark off 15 minutes and go to Battle 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If a crew member takes a wound that uts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
-Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-While occupying any other position except driver, the assistant driver's rating is havled (rounded down). This change takes one full round.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r7.2 Ratings Improvement&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-At the end of the day of action, check for each surviving crew member to see if his rating improves. Roll 1D separately for each. If the number rolled is higher than the current rating, the rating is increased by one. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For example, your gunner has a rating of 5 and you roll a 9. The gunner's rating increases to 6.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Crew ratings cannot be greater than 10 and never decrease. Ratings cannot improve if you avoid action for the day per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Ratings may also improve during refitting periods per &lt;InlineUIContainer&gt;&lt;Button Content='r27.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.0 Crew Casualties&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When playing, it is possible for the crewmen of your tank to be wounded or killed. Crew casualties can occur when you tank is knocked out 
-or when a crewman at an open hatch is hit by artillery/small arms fire. In both cases, the degree of injury is determined by the Wounds Table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Inside the Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; With Open Hatches&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Replacing Crew Casualties&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.1 Inside the Tank&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Crewman with no hatch or with a closed hatch are inside the tank and can only be hurt by gunfire or a Panzerfaust attack which penetrates the tank's armor. 
-When an enemy attack successfully rolls To Kill your tank, it has been knocked out and your must check crew casualties.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Exploding Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Non-Exploding Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Bail Out&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Rescue&lt;LineBreak/&gt;</t>
+    <t>r21.1</t>
+  </si>
+  <si>
+    <t>r21.2</t>
+  </si>
+  <si>
+    <t>r21.3</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.1 Sunrise&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.2 Marking Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.3 Sunset&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The length of a day of battle is determined by the passage of time. On the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+is a section to mark time, where the hours 0500 through 1900 are each divided into four 15 minute blocks. The exception is 1900 because sunset will occur no later than 19:15.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Time Check Phase &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the sequence of play, the &lt;InlineUIContainer&gt;&lt;Button Content='Sunrise-Sunset' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the nours of sunrise and sunset. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Time is marked out according to rolls on this table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
   </si>
 </sst>
 </file>
@@ -944,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B157"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -958,18 +1011,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="235.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="146.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,7 +1030,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="188.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -993,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,23 +1054,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="107.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="125" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,15 +1078,15 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="122.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="161.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1041,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1110,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,7 +1118,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="135.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -1089,216 +1142,256 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="117.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="78.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="63.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="35" spans="1:2" ht="177.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="177.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="2" t="s">
+    <row r="40" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="150.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="157" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+    </row>
+    <row r="158" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A85:B260">
-    <sortCondition ref="A85:A260"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:B261">
+    <sortCondition ref="A86:A261"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D3E8-2406-412A-8C51-02A761967B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43364363-1CA6-4973-9534-F1485F5B6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -505,17 +505,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If a crew member takes a wound that uts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
-Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-While occupying any other position except driver, the assistant driver's rating is havled (rounded down). This change takes one full round.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r7.2 Ratings Improvement&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 At the end of the day of action, check for each surviving crew member to see if his rating improves. Roll 1D separately for each. If the number rolled is higher than the current rating, the rating is increased by one. 
@@ -625,6 +614,17 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a crew member takes a wound that puts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
+Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While occupying any other position except driver, the assistant driver's rating is halved (rounded down). This change takes one full round.</t>
   </si>
 </sst>
 </file>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="117.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1251,10 +1251,10 @@
     </row>
     <row r="31" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1355,34 +1355,34 @@
     </row>
     <row r="44" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43364363-1CA6-4973-9534-F1485F5B6D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{87311DA1-E277-48BE-A078-055D724F97EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -377,19 +377,6 @@
                  &lt;InlineUIContainer&gt;&lt;Image Name='MapBattle'  Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.2 Morning Briefing&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Perform these actions using After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- A new AAR is created with the new date and scenario code. 
--- If a new tank is required, consult the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;
--- If you want to change, give your new tank a name by clicking on the Tank Name.&lt;LineBreak/&gt;
--- If you want to change, click on names of your crew members. You are the tank commander so change your name on that row. See 
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men&lt;LineBreak/&gt;
--- The weather table is used to determine the weather for the day&lt;LineBreak/&gt;
--- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. Only the remaining time is available for play this day.
@@ -625,6 +612,19 @@
 The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 While occupying any other position except driver, the assistant driver's rating is halved (rounded down). This change takes one full round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.2 Morning Briefing&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Perform these actions using After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- A new AAR is created with the new date and scenario code. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- If a new tank is required, consult the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- As part of setup or when you have a new tank, you can change name by clicking on the Tank Name.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- As part of setup or when you have a new tank, see 
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men. Click on names of your crewmen if you want to change their names. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- The &lt;InlineUIContainer&gt;&lt;Button Content='Weather' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the weather for the day.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
   </si>
 </sst>
 </file>
@@ -999,17 +999,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="156.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="156.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="235.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="146.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="188.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="89.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="107.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>54</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="125" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="122.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="161.69999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1105,23 +1105,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="165.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="135.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>29</v>
       </c>
@@ -1129,63 +1129,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="142.69999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="117.55" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="78.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="78.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="57.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -1193,15 +1193,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -1209,31 +1209,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="135.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="63.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1249,23 +1249,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="142.69999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -1278,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="177.3" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>2</v>
       </c>
@@ -1310,23 +1310,23 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,10 +1334,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>9</v>
       </c>
@@ -1353,42 +1353,42 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
     </row>
-    <row r="158" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:B261">
     <sortCondition ref="A86:A261"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\PattonsBest\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{87311DA1-E277-48BE-A078-055D724F97EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EDDB64-1805-4233-9B06-E44F50C5A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>r20.1</t>
   </si>
@@ -147,15 +147,6 @@
 L = Light&lt;LineBreak/&gt;
 M = Medium&lt;LineBreak/&gt;
 H = Heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.1 Combat Calendar Check&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Performed at beginning of each day. Examine the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the chances of combat and roll 1 die roll. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the number rolled is greater than the number shown in the middle of the three part scenario code for the day (A-2-L is used for July 27, 1944), you avoid action and can check off the day as completed. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the number is less than or equal to the probability code, you trigger a day of possible combat. Go to &lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the Morning Briefing. </t>
   </si>
   <si>
     <t>&lt;Bold&gt;r2.11 Movement Board&lt;/Bold&gt;
@@ -625,6 +616,111 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men. Click on names of your crewmen if you want to change their names. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 -- The &lt;InlineUIContainer&gt;&lt;Button Content='Weather' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the weather for the day.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
 -- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>r16.0</t>
+  </si>
+  <si>
+    <t>r16.0a</t>
+  </si>
+  <si>
+    <t>r16.1</t>
+  </si>
+  <si>
+    <t>r16.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.1 Ammo Types&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- &lt;Bold&gt;Armor Piercing (AP):&lt;/Bold&gt; AP rounds were designed to maximize muzzle velocity to achieve penetration of enemy armor vehicles and then explode inside.&lt;LineBreak/&gt;
+-- &lt;Bold&gt;High Explosives (HE):&lt;/Bold&gt; HE rounds maximized the amount of explosive contained to destroy and neutralize unarmored targets with blast and shrapnel.&lt;LineBreak/&gt;
+-- &lt;Bold&gt;White Phosphorous (WP):&lt;/Bold&gt; WP (nick-named willy peter) ignited phosphorous upon detonation. They were used to put smoke on an enemy position to restrict their ability to see.&lt;LineBreak/&gt;
+-- &lt;Bold&gt;Hexachlorothane Base Initiating (HBCI):&lt;/Bold&gt; HCBI rounds were chemical smoke used to obsure friendly positions where the fire of WP rounds would be dangerous.&lt;LineBreak/&gt;
+-- &lt;Bold&gt;High Velocity Armor AP (HVAP):&lt;/Bold&gt; AHVAP rounds were a special &amp;quot;hot&amp;quot; round with a rigid core and increased muzzle velocity. 
+They were offically issued only to tank destroyer units, but all 76 gun crews scrounged a couple for use in an emergency against German tanks.</t>
+  </si>
+  <si>
+    <t>r16.21</t>
+  </si>
+  <si>
+    <t>r16.22</t>
+  </si>
+  <si>
+    <t>r16.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.1 Combat Calendar Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Performed at beginning of each day. Examine the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the chances of combat and roll 1 die roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is greater than the number shown in the middle of the three part scenario code for the day (A-2-L is used for July 27, 1944), you avoid action and can check off the day as completed. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number is less than or equal to the probability code, you trigger a day of possible combat. Go to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the Morning Briefing. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.2 Loading Ammo&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ammo Amounts&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Extra Ammo &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ammo Ready Rack</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.0 Ammunition (Ammo)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded into your tank at the beginning of each scenerio as part of morning briefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each model and variant of the Sherman tank has a limit on its normal load and ammo, both for its man gun and MGs as shown on it Tank Card 
+.  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.0a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Details&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Ammo Types&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Loading Ammo</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.0a Ammo Details&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Both the 75 and 76L fired AP and HE rounds. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Additionally, the 75 can fire two types of smoke rounds: WP and HCBI.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Additionally, the 76L can fire HVAP ammo.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- All tanks carried .50 calibre ammo for AAMG and .30 calibre ammo for the bow and co-axial MG. MG ammo was stored in boxes of 250 bullets per box.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- The normal load for a Sherman tank included six smoke grenades and 14 smoke bombs for the 2" smoke mortar.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- In earlier models, ammo was stored in sponson boxes in the hull sides. In later models, ammo was stored in the floor and between the drivers in boxes flooded with a solution of glycol to retard fires (i.e., wet stowage).&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Extra main gun and MG ammo could be stuffed into the tank if desired, but at the cost of increased crew discomfort and danger. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='Brew Up' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  and Tank 
+&lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.21 Ammo Amounts&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded during the Morning Briefing phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+how much of each ammo type is carried. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table for the amount of each type is available.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.23 Ammo Ready Rack&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the Tank Card, mark the number and types of rounds loaded into your ready rack with the Rounds Left markers. Reloading from the ready rack during battle increases the chance of achieving 
+&lt;InlineUIContainer&gt;&lt;Button Content='Rate of Fire' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+additional attacks. Each Sherman variant has a ready rack that cannot be exceeded.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='ReadyRack'  Height='270' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.22  Extra Ammo &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D on the Extra 
+&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine if you are required to carry extra ammo. If not required, you may voluntarily carry up to 30 additional main gun rounds and 10 additional MG boxes.
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;Extra ammo can result in more danger to the crew. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='Brew Up' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  and Tank 
+&lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
   </si>
 </sst>
 </file>
@@ -997,40 +1093,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="156.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="216.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="300.10000000000002" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" ht="146.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -1038,360 +1134,416 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="120.1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="149.94999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="59.95" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="125.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="122.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="28" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="142.69999999999999" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="78.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="57.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="119.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="142.69999999999999" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="40" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="B51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="54" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-    </row>
-    <row r="158" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+    </row>
+    <row r="165" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:B261">
-    <sortCondition ref="A86:A261"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A93:B268">
+    <sortCondition ref="A93:A268"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EDDB64-1805-4233-9B06-E44F50C5A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0635A9D0-41F0-4C3D-9055-027C7C5730C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -368,14 +368,6 @@
                  &lt;InlineUIContainer&gt;&lt;Image Name='MapBattle'  Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. Only the remaining time is available for play this day.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine the time and ammo already expended by rolling 1D on the Time Elapsed Table. This roll determines the number of hours already passed and the 
-amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r19.11 Exploding Tank&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;First determine if the tank explodes by consulting the Tank 
 &lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. All crewmen of an exploding tank are killed</t>
@@ -692,18 +684,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r16.21 Ammo Amounts&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Ammo is loaded during the Morning Briefing phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-how much of each ammo type is carried. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table for the amount of each type is available.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r16.23 Ammo Ready Rack&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 On the Tank Card, mark the number and types of rounds loaded into your ready rack with the Rounds Left markers. Reloading from the ready rack during battle increases the chance of achieving 
@@ -721,6 +701,26 @@
  &lt;LineBreak/&gt;&lt;LineBreak/&gt;Extra ammo can result in more danger to the crew. See 
 &lt;InlineUIContainer&gt;&lt;Button Content='Brew Up' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  and Tank 
 &lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.21 Ammo Limits&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded during the Morning Briefing phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+how much of each ammo type is carried. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table for the amount of each type is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. Only the remaining time is available for play this day.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine the time and ammo already expended by rolling 1D on the Time Elapsed Table. This roll determines the number of hours already passed and the 
+amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
   </si>
 </sst>
 </file>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -1238,63 +1238,63 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1403,10 +1403,10 @@
     </row>
     <row r="38" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,34 +1507,34 @@
     </row>
     <row r="51" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0635A9D0-41F0-4C3D-9055-027C7C5730C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{197C9A08-DABF-48FB-ADCC-153C91C32B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>r20.1</t>
   </si>
@@ -721,6 +721,34 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Determine the time and ammo already expended by rolling 1D on the Time Elapsed Table. This roll determines the number of hours already passed and the 
 amount of ammo already expected before the scenario begins. The AAR shows the elapsed time and the ammo used up. </t>
+  </si>
+  <si>
+    <t>r4.4</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.4 Prepare for Battle&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Deployment &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank &amp;amp; Turrent Orientation&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Loader Spot&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Place &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Place Use Control Markers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Current Weather</t>
+  </si>
+  <si>
+    <t>r4.41</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.41 Deployment&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine your tank&amp;apos;s deployment from the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Deployment' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Table.
+ Your tank is marked as moving or hull down by having a counter placed on the Battle Board. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you tank is the lead tank, it is recorded on Notes section of the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1217,333 +1245,349 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="28" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="32" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="35" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="44" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="49" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="53" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-    </row>
-    <row r="165" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+    </row>
+    <row r="167" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A93:B268">
-    <sortCondition ref="A93:A268"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B270">
+    <sortCondition ref="A95:A270"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{197C9A08-DABF-48FB-ADCC-153C91C32B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F5D257-5A29-4BF9-ACFC-3BAB504A6F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -285,16 +285,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Evening Debriefing</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r3.0 Game Tables&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tables can be viewed by select the &lt;Bold&gt;Help | Show Tables..."&lt;/Bold&gt; menu.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The game tables are used by rolling one or two ten-sided dice and reading the results generated by the table. 
-Throughout the game, the notation 1D  means roll one die and 2D means rolling two die. The notation 1D/2 means roll one die and dividing the number by half.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolled together, the colored die is the tens digit and the white die is the ones digit. A roll of '00' represents 100. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many tables include additioinal factors that modify the randomly generated number of the dice roll. For example, when rolling on the 
-&lt;InlineUIContainer&gt;&lt;Button Content=' Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, 
-if the repairing crewman has a rating of 5, the roll modifier to repair is -5. </t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r2.4 After Action Report (AAR)&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The events of each engagement or day of battle are recorded as they unfold on the After Action Report. On this report record, the names and ratings of your crew, the passage of time, 
@@ -749,6 +739,16 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If you tank is the lead tank, it is recorded on Notes section of the After Action Report (AAR) 
 &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r3.0 Game Tables&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tables can be viewed by selecting the &lt;Bold&gt;Help | Show Tables...&lt;/Bold&gt; menu.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The game tables are used by rolling one or two ten-sided dice and reading the results generated by the table. 
+Throughout the game, the notation 1D  means roll one die and 2D means rolling two die. The notation 1D/2 means roll one die and dividing the number by half.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolled together, the colored die is the tens digit and the white die is the ones digit. A roll of '00' represents 100. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many tables include additioinal factors that modify the randomly generated number of the dice roll. For example, when rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, 
+if the repairing crewman has a rating of 5, the roll modifier to repair is -5. </t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="149.94999999999999" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="59.95" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="125.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="122.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1242,23 +1242,23 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -1282,63 +1282,63 @@
         <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
     </row>
     <row r="40" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1530,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,34 +1551,34 @@
     </row>
     <row r="53" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F5D257-5A29-4BF9-ACFC-3BAB504A6F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B419E65-536B-45A8-BF50-33E317C1E05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>r20.1</t>
   </si>
@@ -716,18 +716,6 @@
     <t>r4.4</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.4 Prepare for Battle&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Deployment &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Load&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank &amp;amp; Turrent Orientation&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Loader Spot&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Place &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Place Use Control Markers&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.47' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Current Weather</t>
-  </si>
-  <si>
     <t>r4.41</t>
   </si>
   <si>
@@ -749,6 +737,69 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;Many tables include additioinal factors that modify the randomly generated number of the dice roll. For example, when rolling on the 
 &lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, 
 if the repairing crewman has a rating of 5, the roll modifier to repair is -5. </t>
+  </si>
+  <si>
+    <t>r4.42</t>
+  </si>
+  <si>
+    <t>r4.43</t>
+  </si>
+  <si>
+    <t>r4.44</t>
+  </si>
+  <si>
+    <t>r4.45</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.42 Hatches&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place Open Hatch Makers with it on the tank card for any crewmember you do not want buttoned up.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c15OpenHatch'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.43 Gun Load&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark the type of round you want loaded into the main gun before any action begins by placing the Gun Load Marker on the Tank Card in the correct ammo type box.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.4 Prepare for Battle&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Deployment &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank &amp;amp; Turrent Orientation&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Spot&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Final Preparations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.46  Final Preparations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place US Control Markers in Sectors 1, 2, and 3 on the Battle Board. The current weather is marked with the correct markers in the top left of the Battle Board.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c28UsControl'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.44 Tank &amp;amp; Turrent Orientation&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place the Sherman tank counter for the tank model you are using in the center of the Battle Board. If you want the turret to face a different sector than the tank itself, place a Turret marker on the tank counter accordingly.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c16Turret'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.45  Mark Loader Spot&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the loader is buttoned up or does not have a hatch, mark the sector he will be searching by placing the Loader Spot marker just outside the long range zone of a sector. If the commander is also buttoned up and does not have a vision cupola, place the Commander Spot marker similiarly for the sector hew will be searching. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+            &lt;InlineUIContainer&gt;&lt;Image Name='c18LoaderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c19CommanderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r4.46</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="120.1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="149.94999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1232,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="59.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1210,7 +1261,7 @@
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
@@ -1245,349 +1296,389 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="23" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="30" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="31" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="32" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="33" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="46" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="47" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="48" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="49" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="50" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="51" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="52" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="53" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="54" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="55" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="56" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="57" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="58" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="59" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="60" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="61" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-    </row>
-    <row r="167" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+    </row>
+    <row r="172" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A95:B270">
-    <sortCondition ref="A95:A270"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:B275">
+    <sortCondition ref="A100:A275"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B419E65-536B-45A8-BF50-33E317C1E05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB5EFE7-0F8E-4C3F-ADBF-A02E2CFC4ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>r20.1</t>
   </si>
@@ -800,6 +800,205 @@
   </si>
   <si>
     <t>r4.46</t>
+  </si>
+  <si>
+    <t>r17.0</t>
+  </si>
+  <si>
+    <t>r17.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.0 Spotting&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Spotting is the attempt by your members to see and identify enemy units on the Battle Board. The placement of activated enemy units on the board does not mean that you see them. You know they are there perhaps because you have heard them or by radio reports. Until a crewman spots the unit, you do not see them and cannot shoot at it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units on the Battle Board can be either:  1.) Unspotted,  2.) Spotted but not identified,  3.) Spotted and identified, &amp;amp;  4.) Hidden&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Spotting is attmpted during the Spotting Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the Battle Round Sequence by referring to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Spotting' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Procedure&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Restrictions &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hidden Units &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Units</t>
+  </si>
+  <si>
+    <t>r17.11</t>
+  </si>
+  <si>
+    <t>r17.12</t>
+  </si>
+  <si>
+    <t>r17.13</t>
+  </si>
+  <si>
+    <t>r17.14</t>
+  </si>
+  <si>
+    <t>r17.15</t>
+  </si>
+  <si>
+    <t>r17.2</t>
+  </si>
+  <si>
+    <t>r17.21</t>
+  </si>
+  <si>
+    <t>r17.22</t>
+  </si>
+  <si>
+    <t>r17.23</t>
+  </si>
+  <si>
+    <t>r17.24</t>
+  </si>
+  <si>
+    <t>r17.25</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.12 Spotting Results&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the roll is equal to half or less than half of the crewman's rating (rounded down), he has also identified the unit. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Apperance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to detemine the specifc type of previously unidentified enemy tanks, SPs, and AT guns.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.13 Spotting Modifiers&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+There are a number of factors that can modify the spotting die roll as listed in the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Spotting' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. Small, large, and very large targets are identifed with S, L, and VL on the counters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r17.11 Spotting Roll&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each crewman attempting to spot a enemy unit, roll 1D. If the roll is less than or equal to the crewman's rating, he has spotted the unit. Mark the unit with a Spotted marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c32Spotted'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r17.14 Automatic Spotting Failure&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A spotting attempt roll of 9 or 10 before any modifications always means the unit is hidden from view in its current position andn spotting is impossible by any other crewman this round. Mark any hidden unit with a Hidden Marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You may not attempt to spot a hidden unit. A spotted unit cannot become hidden unless either it or your tank moves in following rounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.15 Spotting Continuation&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An enemy unit that is neither spotted nor hidden remains unspotted and can be looked  for next round. Unspotted units have no marker.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.2 Spotting Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Whether a crew member may attempt to spot and where he may look depends on whether he is buttoned up or not, where he is facing, and what action he is peforming.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sector Restrictions&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches Restrictions &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Weather Restrictions &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Restrictions</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.21 Sector Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The sectors in which each crewman may attempt to spot are noted on the Tank Card 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Each crewman may attempt to spot every unit in the sector he can see. For example, the commander can spot into all sectors on an open hatch and thus may attempt to spot every enemy unit on the Battle Board.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.22 Crew Action Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Performing certain crew actions may prevent a crewman from attempting to spot. Crew actions that allow spotting to continue have a spotting symbole on their marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A crewman is considred to be performing an action until the next opportunity to change the Crew Action marker. For example, if the loader was ordered to repair the co-axial MG and has done so, he is assumed to be involved in that action throught the Spotting Phase and cannot attempt to spot.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.23 Hatches Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Crewmen with closed hatches (other than the gunner) that have broken periscopes may not spot. The gunner may spot if either his sight or periscope is unbroken.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.24 Weather Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During falling snow and fog weather, spotting is only possible at close range.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.25 Smoke Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Spotting rolls are +1 for each Smoke marker on your tank, in the zone with the unit you are attempting to spot, or in any zones between.</t>
+  </si>
+  <si>
+    <t>r17.3</t>
+  </si>
+  <si>
+    <t>r17.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r17.3 Hidden Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Hidden enemy units cannot be spotted, cannot be fired on, and cannot fire at you. This chagnes when your tank moves or the hidden unit moves during the Eney Action Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If either event occurs, remove the Hidden marker. You may attempt to spot this unit during the next Spotting Phase.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+  </si>
+  <si>
+    <t>r17.41</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.4 Unidentified Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy trucks, PSW, SPW, LW, and MG units are always identified. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When a PSW/SPW is activiated, roll immediately on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to see which appears.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Tanks&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r17.42</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
+resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+As a tank commander, you know either a tank, SPG, or AT gun is present; but you do not know which type of each unit is there until you identify it during the Spotting Phase. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All unidentified units are:&lt;LineBreak/&gt;
+-- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
+-- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
+-- AT guns -&gt; Pak 43 (88LL)
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these is successfully identified, consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+ Table to determine what type of unit is actually present.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.1 Spotting Procedure&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Roll&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Results &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Modifiers &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Automatic Spotting Failure &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Continuation</t>
   </si>
 </sst>
 </file>
@@ -1172,19 +1371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="216.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="216.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="300.10000000000002" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="300.2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1200,7 +1399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="146.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1216,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="99.95" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1232,7 +1431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1240,7 +1439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -1248,7 +1447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="125.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1455,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="122.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -1264,7 +1463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="156.94999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1471,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1479,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="156.94999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1288,7 +1487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -1296,7 +1495,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="128.44999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>107</v>
       </c>
@@ -1304,7 +1503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>108</v>
       </c>
@@ -1312,7 +1511,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>111</v>
       </c>
@@ -1320,7 +1519,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>112</v>
       </c>
@@ -1328,7 +1527,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>113</v>
       </c>
@@ -1336,7 +1535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>114</v>
       </c>
@@ -1344,7 +1543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>121</v>
       </c>
@@ -1352,7 +1551,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="136.05000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1376,7 +1575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>91</v>
       </c>
@@ -1384,7 +1583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>92</v>
       </c>
@@ -1392,7 +1591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>93</v>
       </c>
@@ -1400,7 +1599,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -1408,7 +1607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>96</v>
       </c>
@@ -1416,7 +1615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1424,7 +1623,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>98</v>
       </c>
@@ -1432,253 +1631,389 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="117.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="136.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="50" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="78.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="52" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="119.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="54" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="159.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="55" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="181.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="58" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="57.1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="61" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="156.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="63" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="64" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="65" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="177.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="66" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="76.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="67" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="68" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="69" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="70" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="72" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="78.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="73" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="104.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="74" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="75" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-    </row>
-    <row r="172" ht="154.55000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+    </row>
+    <row r="189" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A100:B275">
-    <sortCondition ref="A100:A275"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A117:B292">
+    <sortCondition ref="A117:A292"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB5EFE7-0F8E-4C3F-ADBF-A02E2CFC4ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCE637F-52D0-486D-94A3-5265EC1DDA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -790,15 +790,6 @@
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c16Turret'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.45  Mark Loader Spot&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the loader is buttoned up or does not have a hatch, mark the sector he will be searching by placing the Loader Spot marker just outside the long range zone of a sector. If the commander is also buttoned up and does not have a vision cupola, place the Commander Spot marker similiarly for the sector hew will be searching. See 
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
-            &lt;InlineUIContainer&gt;&lt;Image Name='c18LoaderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
-      &lt;InlineUIContainer&gt;&lt;Image Name='c19CommanderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r4.46</t>
   </si>
   <si>
@@ -808,23 +799,6 @@
     <t>r17.1</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r17.0 Spotting&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Spotting is the attempt by your members to see and identify enemy units on the Battle Board. The placement of activated enemy units on the board does not mean that you see them. You know they are there perhaps because you have heard them or by radio reports. Until a crewman spots the unit, you do not see them and cannot shoot at it.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units on the Battle Board can be either:  1.) Unspotted,  2.) Spotted but not identified,  3.) Spotted and identified, &amp;amp;  4.) Hidden&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Spotting is attmpted during the Spotting Phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-of the Battle Round Sequence by referring to the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Spotting' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Procedure&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Restrictions &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hidden Units &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Units</t>
-  </si>
-  <si>
     <t>r17.11</t>
   </si>
   <si>
@@ -856,13 +830,6 @@
   </si>
   <si>
     <t>r17.25</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.12 Spotting Results&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the roll is equal to half or less than half of the crewman's rating (rounded down), he has also identified the unit. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Apperance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table to detemine the specifc type of previously unidentified enemy tanks, SPs, and AT guns.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r17.13 Spotting Modifiers&lt;/Bold&gt; 
@@ -877,15 +844,6 @@
 For each crewman attempting to spot a enemy unit, roll 1D. If the roll is less than or equal to the crewman's rating, he has spotted the unit. Mark the unit with a Spotted marker.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c32Spotted'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r17.14 Automatic Spotting Failure&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A spotting attempt roll of 9 or 10 before any modifications always means the unit is hidden from view in its current position andn spotting is impossible by any other crewman this round. Mark any hidden unit with a Hidden Marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You may not attempt to spot a hidden unit. A spotted unit cannot become hidden unless either it or your tank moves in following rounds.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
   </si>
   <si>
     <t>&lt;Bold&gt;r17.15 Spotting Continuation&lt;/Bold&gt; 
@@ -904,13 +862,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Restrictions</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r17.21 Sector Restrictions&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The sectors in which each crewman may attempt to spot are noted on the Tank Card 
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-Each crewman may attempt to spot every unit in the sector he can see. For example, the commander can spot into all sectors on an open hatch and thus may attempt to spot every enemy unit on the Battle Board.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r17.22 Crew Action Restrictions&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Performing certain crew actions may prevent a crewman from attempting to spot. Crew actions that allow spotting to continue have a spotting symbole on their marker.
@@ -992,13 +943,62 @@
  Table to determine what type of unit is actually present.</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r17.21 Sector Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The sectors in which each crewman may attempt to spot are noted on the Tank Card 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Each crewman may attempt to spot every unit in the sector he can see. For example, the commander can spot into all sectors on an open hatch and thus may attempt to spot every enemy unit on the Battle Board.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.0 Spotting&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Spotting is the attempt by your members to see and identify enemy units on the Battle Board. The placement of activated enemy units on the board does not mean that you see them. You know they are there perhaps because you have heard them or by radio reports. Until a crewman spots the unit, you do not see them and cannot shoot at it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units on the Battle Board can be either:  1.) Unspotted,  2.) Spotted but not identified,  3.) Spotted and identified, or 4.) Hidden.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Spotting is attempted during the Spotting Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the Battle Round Sequence by referring to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Spotting' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Procedure&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Restrictions &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hidden Units &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Units</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.12 Spotting Results&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the roll is equal to half or less than half of the crewman's rating (rounded down), he has also identified the unit. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to detemine the specifc type of previously unidentified enemy tanks, SPs, and AT guns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r17.14 Automatic Spotting Failure&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A spotting attempt roll of 9 or 10 before any modifications always means the unit is hidden from view in its current position and spotting is impossible by any other crewman this round. Mark any hidden unit with a Hidden Marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You may not attempt to spot a hidden unit. A spotted unit cannot become hidden unless either it or your tank moves in following rounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r17.1 Spotting Procedure&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Roll&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Results &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Modifiers &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Automatic Spotting Failure &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Continuation</t>
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.15' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Continuation</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.45  Mark Loader Spot&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the loader is buttoned up or does not have a hatch, mark the sector he will be searching by placing the Loader Spot marker just outside the long range zone of a sector. If the commander is also buttoned up and does not have a vision cupola, place the Commander Spot marker similiarly for the sector hew will be searching. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+                    &lt;InlineUIContainer&gt;&lt;Image Name='c18LoaderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c19CommanderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
     <col min="2" max="2" width="216.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="300.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1535,17 +1535,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>118</v>
@@ -1633,138 +1633,138 @@
     </row>
     <row r="32" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCE637F-52D0-486D-94A3-5265EC1DDA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{321D4EAC-70DE-4BC6-8D17-D8CE22D49477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>r20.1</t>
   </si>
@@ -999,6 +999,128 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; 
                     &lt;InlineUIContainer&gt;&lt;Image Name='c18LoaderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
       &lt;InlineUIContainer&gt;&lt;Image Name='c19CommanderSpot'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r4.5</t>
+  </si>
+  <si>
+    <t>r4.51</t>
+  </si>
+  <si>
+    <t>r4.52</t>
+  </si>
+  <si>
+    <t>r4.53</t>
+  </si>
+  <si>
+    <t>r4.54</t>
+  </si>
+  <si>
+    <t>r4.54.1</t>
+  </si>
+  <si>
+    <t>r4.54.2</t>
+  </si>
+  <si>
+    <t>r4.54.3</t>
+  </si>
+  <si>
+    <t>r4.54.4</t>
+  </si>
+  <si>
+    <t>r4.54.5</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54  Operations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Choose one of following options. Each option takes time per the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. The time is marked off on the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Continue performing operations one after another recording time used for each option chosen. When daylight runs out, the scenario ends. Go to Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Check Additional Area&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Artillery Support&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Air Strike&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Attempt Resupply&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Enter Adjacent Area</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.1  Check Additional Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Check any one additional adjacent area for estimated enemy strength by rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+Mark the expected resistance by placing Light, Medium, or Heavy marker on the area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Artillery Support arrives. If successful, place an Artillery Support marker on the area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Air Strike arrives. If successful, place an Air Strike marker on the area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.4  Attempt Resupply&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if resupply occurs. If successful, you may relead your tank with ammo. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.51  Mark Start Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Around the edge of the Movement Board, there are 10 areas number 1-10. Roll 1D to determine which of the ten is the start area for this scenario. Also, mark the area with a Start Area marker.
+Place the Task Force marker representing your friendly forces on that area.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                    &lt;InlineUIContainer&gt;&lt;Image Name='c33StartArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.52  Mark Exit Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table, roll 1D adn cross reference the number with the Start Area marker 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Mark the area with the Exit Area marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Check any one adjacent area to your task force for estimating enemy strength. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table after rolling die. Mark the area with a Light, Medium, or Heavy marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.5  Movement Sequence&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Movement Sequence is performed on the Movement Board using the following steps:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Start Area &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.52' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Exit Area&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Strength Check&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Operations</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1617,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="128.44999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>107</v>
       </c>
@@ -1503,7 +1625,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>108</v>
       </c>
@@ -1519,7 +1641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>112</v>
       </c>
@@ -1551,469 +1673,549 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="33" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="34" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="59" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="60" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="62" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="64" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="65" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="68" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="71" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="72" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="73" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="74" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="75" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="76" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="77" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="78" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="79" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="80" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="82" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="83" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="84" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-    </row>
-    <row r="189" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="199" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A117:B292">
-    <sortCondition ref="A117:A292"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:B302">
+    <sortCondition ref="A127:A302"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{321D4EAC-70DE-4BC6-8D17-D8CE22D49477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9260BE6-4FF6-4C1B-A637-FE80DD6B1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -1092,27 +1092,6 @@
       &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.52  Mark Exit Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table, roll 1D adn cross reference the number with the Start Area marker 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-Mark the area with the Exit Area marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Check any one adjacent area to your task force for estimating enemy strength. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table after rolling die. Mark the area with a Light, Medium, or Heavy marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-      &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
-      &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-      &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.5  Movement Sequence&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The Movement Sequence is performed on the Movement Board using the following steps:
@@ -1121,6 +1100,27 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.52' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Exit Area&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Strength Check&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.52  Mark Exit Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table, roll 1D and cross reference the number with the Start Area marker 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Mark the area with the Exit Area marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Check any one adjacent area to your task force for estimating enemy strength. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table after rolling die. Mark the area with a Light, Medium, or Heavy marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1678,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>158</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>159</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9260BE6-4FF6-4C1B-A637-FE80DD6B1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C0DA2C-91FA-47C1-A709-9F4C747E8690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -167,17 +167,6 @@
     <t>r7.0</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r7.0 Crew Ratings&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Each crew member is given a numerical rating of his skill at his position. The rating range from 1 (poorest) to 10 (best). 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The higher the crew member's rating, the more successful he will be trying to spot enemy units, hit enemy units with his weapons, repair malfunctioning guns, etc. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The crew ratings are recorded on the After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ratings for New Men&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rating Improvements&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>r7.1</t>
   </si>
   <si>
@@ -242,11 +231,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt; Wounded crewmen who are out for a number of weeks may rejoin your crew the day after their period of convalescence is over.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;For example, a man wounded on the 5th of the month and is out one week is eligible to rejoin your crew the morning of the 13th. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;If you do not bring back crewmen when they are eligible, they may never rejoin. Returning crewmen retain the crew ratings they had when wounded.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.32 Crewmen Replacement Time Penalty&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replacing crewmen takes 30 minutes of game time. Mark off this time on the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t>r1.0</t>
@@ -401,12 +385,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r19.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Replacing Crewmen Process &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r19.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crewmen Replacement Time Penalty&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r19.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crewmen Rejoining Crew</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.31 Replacing Crewmen Process&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replace incapacitated crew by writing name on the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll for the ratings of the new men as desribed in the Crew Ratings rule 
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r20.1 Combat Calendar&lt;/Bold&gt;
@@ -561,45 +539,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The length of a day of battle is determined by the passage of time. On the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-is a section to mark time, where the hours 0500 through 1900 are each divided into four 15 minute blocks. The exception is 1900 because sunset will occur no later than 19:15.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-During the Time Check Phase &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-of the sequence of play, the &lt;InlineUIContainer&gt;&lt;Button Content='Sunrise-Sunset' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the nours of sunrise and sunset. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Time is marked out according to rolls on this table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If a crew member takes a wound that puts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
-Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-While occupying any other position except driver, the assistant driver's rating is halved (rounded down). This change takes one full round.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.2 Morning Briefing&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Perform these actions using After Action Report (AAR) &lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- A new AAR is created with the new date and scenario code. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- If a new tank is required, consult the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- As part of setup or when you have a new tank, you can change name by clicking on the Tank Name.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- As part of setup or when you have a new tank, see 
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men. Click on names of your crewmen if you want to change their names. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- The &lt;InlineUIContainer&gt;&lt;Button Content='Weather' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the weather for the day.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
-  </si>
-  <si>
     <t>r16.0</t>
   </si>
   <si>
@@ -693,18 +632,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r16.21 Ammo Limits&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Ammo is loaded during the Morning Briefing phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-how much of each ammo type is carried. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table for the amount of each type is available.</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;Bold&gt;r4.3 Time Check Using the Time Tables&lt;/Bold&gt; &lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Determine the hours of sunrise and sunset for the current month. On the After Action Report (AAR), the time is blocked out accordingly. Only the remaining time is available for play this day.
@@ -717,16 +644,6 @@
   </si>
   <si>
     <t>r4.41</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.41 Deployment&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Determine your tank&amp;apos;s deployment from the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Deployment' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Table.
- Your tank is marked as moving or hull down by having a counter placed on the Battle Board. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you tank is the lead tank, it is recorded on Notes section of the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r3.0 Game Tables&lt;/Bold&gt; 
@@ -1031,26 +948,6 @@
     <t>r4.54.5</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.54  Operations&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Choose one of following options. Each option takes time per the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table. The time is marked off on the After Action Report (AAR) 
-&lt;InlineUIContainer&gt;&lt;Button Content='r2.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-Continue performing operations one after another recording time used for each option chosen. When daylight runs out, the scenario ends. Go to Evening Debriefing 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Check Additional Area&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Artillery Support&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Air Strike&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Attempt Resupply&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Enter Adjacent Area</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.54.1  Check Additional Area&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Check any one additional adjacent area for estimated enemy strength by rolling on the 
@@ -1121,6 +1018,125 @@
       &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r7.0 Crew Ratings&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each crew member is given a numerical rating of his skill at his position. The rating range from 1 (poorest) to 10 (best). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The higher the crew member's rating, the more successful he will be trying to spot enemy units, hit enemy units with his weapons, repair malfunctioning guns, etc. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The crew ratings are recorded on the After Action Report &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ratings for New Men&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rating Improvements&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.22 Serious Wounds&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a crew member takes a wound that puts him out of action for one week or more, he is incapacitated and immediately ceases performing any crew actions. 
+Note incapacitated crewmen in the notes section of the After Action Report (AAR) 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The assistant driver may move through the tank to replace any one incapacitated crewmen. An incapacitated driver is moved to the assistant driver's position, and incapacitated men in the turret are placed on the turret floor.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While occupying any other position except driver, the assistant driver's rating is halved (rounded down). This change takes one full round.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.31 Replacing Crewmen Process&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replace incapacitated crew by writing name on the After Action Report  
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll for the ratings of the new men as desribed in the Crew Ratings rule 
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.2 Morning Briefing&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Perform these actions using After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- A new AAR is created with the new date and scenario code. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- If a new tank is required, consult the Tank Replacement Table per &lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- As part of setup or when you have a new tank, you can change name by clicking on the Tank Name.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- As part of setup or when you have a new tank, see 
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for adding new men. Click on names of your crewmen if you want to change their names. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- The &lt;InlineUIContainer&gt;&lt;Button Content='Weather' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the weather for the day.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Load ammo per &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.41 Deployment&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine your tank&amp;apos;s deployment from the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Deployment' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Table.
+ Your tank is marked as moving or hull down by having a counter placed on the Battle Board. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you tank is the lead tank, it is recorded on Notes section of the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54  Operations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Choose one of following options. Each option takes time per the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. The time is marked off on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Continue performing operations one after another recording time used for each option chosen. When daylight runs out, the scenario ends. Go to Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Check Additional Area&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Artillery Support&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Call for Air Strike&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attempt Resupply&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enter Adjacent Area</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The length of a day of battle is determined by the passage of time. On the After Action Report  
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+is a section to mark time, where the hours 0500 through 1900 are each divided into four 15 minute blocks. The exception is 1900 because sunset will occur no later than 19:15.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Time Check Phase &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the sequence of play, the &lt;InlineUIContainer&gt;&lt;Button Content='Sunrise-Sunset' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the nours of sunrise and sunset. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Time is marked out according to rolls on this table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enter adjacent area by moving your Task Force marker into that area. 
+1.) Decide if you tank will use advancing fire per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) Consult &lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine if battle occurs. If no battle, convert the Resistance marker to US Control marker on the Movement board. If battle occurs, mark off 15 minutes, and go to 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3) Record victory points for area now under US Control on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If daylight remains, and not in Exit area, continue with
+&lt;InlineUIContainer&gt;&lt;Button Content='4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+If daylight remains, and in Exit area, continue with
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with new start area.
+If no daylight remains, the day is finished. Go to If daylight remains, and in Exit area, continue with Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.21 Ammo Limits&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded during the Morning Briefing phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+how much of each ammo type is carried. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table for the amount of each type is available.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.32 Crewmen Replacement Time Penalty&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replacing crewmen takes 30 minutes of game time. Mark off this time on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,18 +1523,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -1542,7 +1558,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1550,23 +1566,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,15 +1590,15 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="156.94999999999999" x14ac:dyDescent="0.25">
@@ -1590,7 +1606,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
@@ -1598,15 +1614,15 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="156.94999999999999" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,143 +1630,143 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,327 +1774,327 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2086,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2118,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -2150,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2158,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2179,34 +2195,34 @@
     </row>
     <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C0DA2C-91FA-47C1-A709-9F4C747E8690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2512C94-0FDE-4726-B161-4761FACA786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>r20.1</t>
   </si>
@@ -487,17 +487,6 @@
     <t>r20.0</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
-there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;Combat Calendar&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advance Scenario&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Scenario&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; CounterAttack Scenario&lt;LineBreak/&gt;
-</t>
-  </si>
-  <si>
     <t>r21.0</t>
   </si>
   <si>
@@ -525,18 +514,6 @@
   </si>
   <si>
     <t>r21.3</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r21.1 Sunrise&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r21.2 Marking Time&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r21.3 Sunset&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
     <t>r16.0</t>
@@ -956,22 +933,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Artillery Support arrives. If successful, place an Artillery Support marker on the area. Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Air Strike arrives. If successful, place an Air Strike marker on the area. Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.54.4  Attempt Resupply&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Consult the 
@@ -980,15 +941,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.51  Mark Start Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Around the edge of the Movement Board, there are 10 areas number 1-10. Roll 1D to determine which of the ten is the start area for this scenario. Also, mark the area with a Start Area marker.
-Place the Task Force marker representing your friendly forces on that area.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                    &lt;InlineUIContainer&gt;&lt;Image Name='c33StartArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
-      &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.5  Movement Sequence&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The Movement Sequence is performed on the Movement Board using the following steps:
@@ -997,16 +949,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.52' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Exit Area&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Strength Check&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.52  Mark Exit Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table, roll 1D and cross reference the number with the Start Area marker 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-Mark the area with the Exit Area marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
   </si>
   <si>
     <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
@@ -1088,24 +1030,27 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enter Adjacent Area</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The length of a day of battle is determined by the passage of time. On the After Action Report  
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-is a section to mark time, where the hours 0500 through 1900 are each divided into four 15 minute blocks. The exception is 1900 because sunset will occur no later than 19:15.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-During the Time Check Phase &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-of the sequence of play, the &lt;InlineUIContainer&gt;&lt;Button Content='Sunrise-Sunset' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the nours of sunrise and sunset. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Time is marked out according to rolls on this table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
+    <t>&lt;Bold&gt;r16.21 Ammo Limits&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded during the Morning Briefing phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+how much of each ammo type is carried. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table for the amount of each type is available.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.32 Crewmen Replacement Time Penalty&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replacing crewmen takes 30 minutes of game time. Mark off this time on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Enter adjacent area by moving your Task Force marker into that area. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
 1.) Decide if you tank will use advancing fire per 
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -1122,21 +1067,226 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r16.21 Ammo Limits&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Ammo is loaded during the Morning Briefing phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  phase showing on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-how much of each ammo type is carried. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Ammo' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table for the amount of each type is available.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r19.32 Crewmen Replacement Time Penalty&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Replacing crewmen takes 30 minutes of game time. Mark off this time on the After Action Report 
+    <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The length of a day of battle is determined by the passage of time. On the After Action Report  
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+is a section to mark time, where the hours 0500 through 1900 are each divided into four 15 minute blocks. The exception is 1900 because sunset will occur no later than 19:15.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Time Check Phase &lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the sequence of play, the &lt;InlineUIContainer&gt;&lt;Button Content='Sunrise-Sunset' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table is used to determine the hours of sunrise and sunset. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Time is marked out according to rolls on this table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunrise &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Time&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sunset</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.1 Sunrise&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A certain amount of time is assumed to have passed this day before the current scenario begins. This time is determined by rolling 1D/2 +1 = the number of hours past sunrise. For example, assume the month is September (sunrise at 5:30), and the die roll is seven. The scenario actually begins at 9:30 (5:30 + [7/2=3.5 rounded down to 3] +1) = 9.30. The time is marked out on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.2 Marking Time&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All operations performed on the Movement Board expend time as listed on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='r21.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+Once battle is triggered and you engage in combat on the Battle Board, the passage of time is represented by the random event "Time Passes." 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each battle round, there is 5% chance of this event occurring. When it does, one block of time is marked off.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r21.3 Sunset&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Play continues, shifting back and forth from the Battle Board to the Movement Board as necessary, as long as daylight (unmarked time boxes) remain. If you mark out the last time box while performing an operation on the Movement Board that does not trigger a battle, the day ends immediately. You go to the Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+phase of the sequence of play. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the last time box is marked out during combat on the Battle Board , continue the engagement until it is resolved. Assume enough daylight remains to allow all combat to complete. When the engagement finishes, go  to the Evening Debriefing phase.</t>
+  </si>
+  <si>
+    <t>r22.0</t>
+  </si>
+  <si>
+    <t>r22.1</t>
+  </si>
+  <si>
+    <t>r22.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.0 Advancing Fire&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Advancing Fire represents blind HE and MG fire at places likely to be concealing unknown enemy units. It may take place both when you tank first enters a new map area and during Battle Rounds.
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Entering a New Area &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; During Battle Rounds&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
+there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;Combat Calendar&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advance Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; CounterAttack Scenario&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r22.11</t>
+  </si>
+  <si>
+    <t>r22.12</t>
+  </si>
+  <si>
+    <t>r22.13</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.1 Advancing Fire - Entering a New Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When your tank force enters a new area on the Movement Board, you may have the task force conduct Advancing Fire. You make that choice during the Movement Sequence per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+You may place a number of Advancing Fire markers on the Battle Board. If battle then occurs in the area, the Advancing Fire may remove enemy units appearing in the zones with the markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Your tank itself takes no sepcific action as the Advancing Fire is considered the effort of the entire task force including your tank. However, ammo is expended by your tank whether a battle occurs or not. If battle does occur, following steps occur:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Ammo Use &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Markers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Resolution</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.11 Advancing Fire Ammo Use&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off 1D/2 (round down) HE rounds and .30 caliber MG ammo boxes regardless of whether the battle occurs or not. Mark off on the After Action Report 
 &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.2 Advancing Fire - Entering a New Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You may fire your tank's MGs into zones containing no spotted units as a type of Advancing Fire. Order correct crew action (for example, Fire Bow MG) and place the Advancing Fire marker for the MG (Bow MG Advance Fire) into the zone you want to fire. Place the marker after any tank movement or facing changes. This type of fire can KO enemy units which move into the zone and reduce the danger of Panzerfaust attacks per the
+&lt;InlineUIContainer&gt;&lt;Button Content='Panzerfaust' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attack Tables.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- During the Crew Action Phase, roll 2D:  (1-30 =  1 ammo box expected), (31-97 =  nothing), and (98-100 = MG malfunctions). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Each enemy truck or infantry type that enters the zone may be immediately fired on by your MG according to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+vs. Infantry Targets Table. Any kills are recorded as victory points on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Remove these Advancing Fire markers specific for your MGs at the beginning of the Orders Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the next round
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.13 Advancing Fire Resolution&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Advancing Fire is resolved in each Battle Board zone containing both an Advance Fire marker and enemy units during Battle Step 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each, roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table against each unit in the zone. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units kocked out are considered to be withdrawing and are not destroyed. No victory points are awarded. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Remove the Advancing Fire markers from the Battle Board after resolving.</t>
+  </si>
+  <si>
+    <t>r23.0</t>
+  </si>
+  <si>
+    <t>r23.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r23.0 Artillery Support and Air Strikes&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Artillery Support &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AirStrikes&lt;LineBreak/&gt;
+</t>
+  </si>
+  <si>
+    <t>r23.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.1 Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support can be called for during the Movement Sequence 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+This operation takes 15 minutes. Mark off the time and rol 1D as shown on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Use Table to see if the support arrives. It arrives on 1-7 roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If successful, place an Artillery Support marker in the area where the artillery landed. If at any time during this day you enter the marked area (before reaching the exit area), the artillery support will attack all enemy units appearing. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Additional artillery support may be called for, but no more than three support markers may be on the Movement Board at one time. You may voluntarily pick up an Artillery Support marker if you decide to attempt to place it elsewhere.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support takes effect in a newly entered area immediately after any appearing enemy units are placed on the Battle Board. Rsolve Arillery Support by rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table against each enemy unit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units destroyed by artillery support are immediately removed, and their victory points ar recorded under friendly forces of the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll again against each surviving enemy unit for each additional support marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.2 Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Air Strikes function very similarly to artillery support
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with a few exceptions. 
+They use more time (30 minutes). They are less likely to arrive (1D = 1-4). They are more effective against armor targets. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Also, air strikes may not be called for during overcast or falling snow weather. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While the 30 minutes spent calling for air strike is passing, youuu may perform one additional 15 minute operation (such as call for arilltery support or chek an additional area for resistance.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c40AirSupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.12 Advancing Fire Markers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place up to six Advance Fire markers anywhere on the Battle Board except in Sectors 1, 2, 3, and the long range sectors 6-8. You may place more than one in a zone. For every 3 friendly tank losses (roudned up), omit one Advance Fire marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c44AdvanceFire'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.51 Mark Start Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Around the edge of the Movement Board, there are 10 areas number 1-10. Roll 1D to determine which of the ten is the start area for this scenario. Also, mark the area with a Start Area marker.
+Place the Task Force marker representing your friendly forces on that area.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                    &lt;InlineUIContainer&gt;&lt;Image Name='c33StartArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.52 Mark Exit Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table, roll 1D and cross reference the number with the Start Area marker 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Mark the area with the Exit Area marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Artillery Support arrives 
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+If successful, place an Artillery Support marker on the area. Three Artillery Support markers are allowed and can be placed in the same area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Air Strike arrives
+ &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If successful, place an Air Strike marker on the area. Two Air Strike markers are allowed and can be placed in the same area. Additionally, while waiting for air strike, a 15 minute operation can be chosen to happen in parallel. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,7 +1703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="99.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1585,7 +1735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="125.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1598,10 +1748,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="156.94999999999999" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1609,12 +1759,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="114.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -1622,7 +1772,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1630,143 +1780,143 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1795,194 +1945,194 @@
     </row>
     <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,7 +2183,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="159.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>37</v>
       </c>
@@ -2054,7 +2204,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -2070,7 +2220,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2078,7 +2228,7 @@
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,15 +2239,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="156.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2271,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="177.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>12</v>
       </c>
@@ -2145,7 +2295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="203.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>4</v>
       </c>
@@ -2169,12 +2319,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="219.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,43 +2345,115 @@
     </row>
     <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-    </row>
-    <row r="199" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+    </row>
+    <row r="202" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:B302">
-    <sortCondition ref="A127:A302"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A130:B305">
+    <sortCondition ref="A130:A305"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2512C94-0FDE-4726-B161-4761FACA786A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EA40052-200A-4EB9-AEF7-6AC711529BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>r20.1</t>
   </si>
@@ -1115,13 +1115,6 @@
     <t>r22.2</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r22.0 Advancing Fire&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Advancing Fire represents blind HE and MG fire at places likely to be concealing unknown enemy units. It may take place both when you tank first enters a new map area and during Battle Rounds.
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Entering a New Area &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; During Battle Rounds&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
 there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
@@ -1141,23 +1134,136 @@
     <t>r22.13</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r22.11 Advancing Fire Ammo Use&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off 1D/2 (round down) HE rounds and .30 caliber MG ammo boxes regardless of whether the battle occurs or not. Mark off on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.13 Advancing Fire Resolution&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Advancing Fire is resolved in each Battle Board zone containing both an Advance Fire marker and enemy units during Battle Step 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each, roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table against each unit in the zone. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units kocked out are considered to be withdrawing and are not destroyed. No victory points are awarded. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Remove the Advancing Fire markers from the Battle Board after resolving.</t>
+  </si>
+  <si>
+    <t>r23.0</t>
+  </si>
+  <si>
+    <t>r23.1</t>
+  </si>
+  <si>
+    <t>r23.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.51 Mark Start Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Around the edge of the Movement Board, there are 10 areas number 1-10. Roll 1D to determine which of the ten is the start area for this scenario. Also, mark the area with a Start Area marker.
+Place the Task Force marker representing your friendly forces on that area.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                    &lt;InlineUIContainer&gt;&lt;Image Name='c33StartArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
+      &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.52 Mark Exit Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table, roll 1D and cross reference the number with the Start Area marker 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Mark the area with the Exit Area marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Artillery Support arrives 
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+If successful, place an Artillery Support marker on the area. Three Artillery Support markers are allowed and can be placed in the same area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Air Strike arrives
+ &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If successful, place an Air Strike marker on the area. Two Air Strike markers are allowed and can be placed in the same area. Additionally, while waiting for air strike, a 15 minute operation can be chosen to happen in parallel. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r23.11</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.1 Artillery Support Resolution&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support takes effect in a newly entered area immediately after any appearing enemy units are placed on the Battle Board. Resolve Arillery Support by rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table against each enemy unit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units destroyed by artillery support are immediately removed, and their victory points ar recorded under friendly forces of the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll again against each surviving enemy unit for each additional support marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.1 Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support can be called for during the Movement Sequence 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+This operation takes 15 minutes. Mark off the time and rol 1D as shown on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Use Table to see if the support arrives. It arrives on 1-7 roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If successful, place an Artillery Support marker in the area where the artillery landed. If at any time during this day you enter the marked area (before reaching the exit area), the artillery support will attack all enemy units appearing. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Additional artillery support may be called for, but no more than three support markers may be on the Movement Board at one time. You may voluntarily pick up an Artillery Support marker if you decide to attempt to place it elsewhere.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.0 Advancing Fire&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Advancing Fire represents blind HE and MG fire at places likely to be concealing unknown enemy units. It may take place both when you tank first enters a new map area and during Battle Rounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Entering a New Area &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; During Battle Rounds&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r22.1 Advancing Fire - Entering a New Area&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 When your tank force enters a new area on the Movement Board, you may have the task force conduct Advancing Fire. You make that choice during the Movement Sequence per 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
 You may place a number of Advancing Fire markers on the Battle Board. If battle then occurs in the area, the Advancing Fire may remove enemy units appearing in the zones with the markers. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Your tank itself takes no sepcific action as the Advancing Fire is considered the effort of the entire task force including your tank. However, ammo is expended by your tank whether a battle occurs or not. If battle does occur, following steps occur:
+Your tank itself takes no specific action as the Advancing Fire is considered the effort of the entire task force including your tank. However, ammo is expended by your tank whether a battle occurs or not. If battle does occur, following steps occur:
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Ammo Use &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Markers&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Resolution</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r22.11 Advancing Fire Ammo Use&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mark off 1D/2 (round down) HE rounds and .30 caliber MG ammo boxes regardless of whether the battle occurs or not. Mark off on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+    <t>&lt;Bold&gt;r22.12 Advancing Fire Markers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place up to six Advance Fire markers anywhere on the Battle Board except in Sectors 1, 2, 3, and the long range sectors 6-8. You may place more than one in a zone. For every 3 friendly tank losses (roudned up), omit one Advance Fire marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c44AdvanceFire'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.0 Artillery Support and Air Strikes&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Artillery Support &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AirStrikes&lt;LineBreak/&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r22.2 Advancing Fire - Entering a New Area&lt;/Bold&gt;
@@ -1165,7 +1271,10 @@
 You may fire your tank's MGs into zones containing no spotted units as a type of Advancing Fire. Order correct crew action (for example, Fire Bow MG) and place the Advancing Fire marker for the MG (Bow MG Advance Fire) into the zone you want to fire. Place the marker after any tank movement or facing changes. This type of fire can KO enemy units which move into the zone and reduce the danger of Panzerfaust attacks per the
 &lt;InlineUIContainer&gt;&lt;Button Content='Panzerfaust' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attack Tables.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- During the Crew Action Phase, roll 2D:  (1-30 =  1 ammo box expected), (31-97 =  nothing), and (98-100 = MG malfunctions). 
+-- During the Crew Action Phase, roll 2D:  &lt;LineBreak/&gt;
+    1-30 =  1 ammo box expected&lt;LineBreak/&gt;
+    31-97 =  nothing&lt;LineBreak/&gt;
+    98-100 = MG malfunctions 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 -- Each enemy truck or infantry type that enters the zone may be immediately fired on by your MG according to the 
 &lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
@@ -1175,118 +1284,20 @@
 -- Remove these Advancing Fire markers specific for your MGs at the beginning of the Orders Phase 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the next round
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r22.13 Advancing Fire Resolution&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Advancing Fire is resolved in each Battle Board zone containing both an Advance Fire marker and enemy units during Battle Step 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For each, roll on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table against each unit in the zone. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units kocked out are considered to be withdrawing and are not destroyed. No victory points are awarded. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Remove the Advancing Fire markers from the Battle Board after resolving.</t>
-  </si>
-  <si>
-    <t>r23.0</t>
-  </si>
-  <si>
-    <t>r23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r23.0 Artillery Support and Air Strikes&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Artillery Support &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AirStrikes&lt;LineBreak/&gt;
-</t>
-  </si>
-  <si>
-    <t>r23.2</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r23.1 Artillery Support&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Artillery support can be called for during the Movement Sequence 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-This operation takes 15 minutes. Mark off the time and rol 1D as shown on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Use Table to see if the support arrives. It arrives on 1-7 roll. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If successful, place an Artillery Support marker in the area where the artillery landed. If at any time during this day you enter the marked area (before reaching the exit area), the artillery support will attack all enemy units appearing. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Additional artillery support may be called for, but no more than three support markers may be on the Movement Board at one time. You may voluntarily pick up an Artillery Support marker if you decide to attempt to place it elsewhere.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Artillery support takes effect in a newly entered area immediately after any appearing enemy units are placed on the Battle Board. Rsolve Arillery Support by rolling on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table against each enemy unit.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units destroyed by artillery support are immediately removed, and their victory points ar recorded under friendly forces of the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll again against each surviving enemy unit for each additional support marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r23.2 Air Strike&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Air Strikes function very similarly to artillery support
+Air Strikes function very similarly to artillery support 
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with a few exceptions. 
 They use more time (30 minutes). They are less likely to arrive (1D = 1-4). They are more effective against armor targets. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Also, air strikes may not be called for during overcast or falling snow weather. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
-While the 30 minutes spent calling for air strike is passing, youuu may perform one additional 15 minute operation (such as call for arilltery support or chek an additional area for resistance.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c40AirSupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r22.12 Advancing Fire Markers&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Place up to six Advance Fire markers anywhere on the Battle Board except in Sectors 1, 2, 3, and the long range sectors 6-8. You may place more than one in a zone. For every 3 friendly tank losses (roudned up), omit one Advance Fire marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                                  &lt;InlineUIContainer&gt;&lt;Image Name='c44AdvanceFire'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.51 Mark Start Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Around the edge of the Movement Board, there are 10 areas number 1-10. Roll 1D to determine which of the ten is the start area for this scenario. Also, mark the area with a Start Area marker.
-Place the Task Force marker representing your friendly forces on that area.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                    &lt;InlineUIContainer&gt;&lt;Image Name='c33StartArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;           
-      &lt;InlineUIContainer&gt;&lt;Image Name='c35TaskForce'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.52 Mark Exit Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-On the &lt;InlineUIContainer&gt;&lt;Button Content='Exit Areas' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table, roll 1D and cross reference the number with the Start Area marker 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-Mark the area with the Exit Area marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Artillery Support arrives 
-&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-If successful, place an Artillery Support marker on the area. Three Artillery Support markers are allowed and can be placed in the same area. Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Air Strike arrives
- &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If successful, place an Air Strike marker on the area. Two Air Strike markers are allowed and can be placed in the same area. Additionally, while waiting for air strike, a 15 minute operation can be chosen to happen in parallel. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+While the 30 minutes spent calling for air strike is passing, you may perform one additional 15 minute operation (such as call for arilltery support or check an additional area for resistance).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c40AirStrike'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -1659,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,7 +1863,7 @@
         <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1860,7 +1871,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -1892,7 +1903,7 @@
         <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -1900,7 +1911,7 @@
         <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -2244,7 +2255,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2375,12 +2386,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -2388,72 +2399,80 @@
         <v>172</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="B96" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-    </row>
-    <row r="202" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="203" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A130:B305">
-    <sortCondition ref="A130:A305"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A131:B306">
+    <sortCondition ref="A131:A306"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EA40052-200A-4EB9-AEF7-6AC711529BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{766DF6DE-AD33-4C8E-8C78-05DA9AF101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -1047,26 +1047,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enter adjacent area by moving your Task Force marker into that area. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1.) Decide if you tank will use advancing fire per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-2.) Consult &lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table to determine if battle occurs. If no battle, convert the Resistance marker to US Control marker on the Movement board. If battle occurs, mark off 15 minutes, and go to 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-3) Record victory points for area now under US Control on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If daylight remains, and not in Exit area, continue with
-&lt;InlineUIContainer&gt;&lt;Button Content='4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-If daylight remains, and in Exit area, continue with
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with new start area.
-If no daylight remains, the day is finished. Go to If daylight remains, and in Exit area, continue with Evening Debriefing 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r21.0 Time&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The length of a day of battle is determined by the passage of time. On the After Action Report  
@@ -1298,6 +1278,32 @@
 While the 30 minutes spent calling for air strike is passing, you may perform one additional 15 minute operation (such as call for arilltery support or check an additional area for resistance).
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                         &lt;InlineUIContainer&gt;&lt;Image Name='c40AirStrike'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enter adjacent area by moving your Task Force marker into that area. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) Decide if you tank will use advancing fire per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) Consult &lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine if battle occurs. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+---If no battle, convert the Resistance marker to US Control marker on the Movement board. Record victory points for area now under US Control on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+---If daylight remains, and not in Exit area, continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+---If daylight remains, and in Exit area, continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with new start area.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+---If no daylight remains, go to Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3)  If battle occurs, mark off 15 minutes, and go to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
   </si>
 </sst>
 </file>
@@ -1672,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1869,7 @@
         <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1871,7 +1877,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -1903,7 +1909,7 @@
         <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -1911,7 +1917,7 @@
         <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1922,12 +1928,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,7 +2261,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2359,7 +2365,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -2367,7 +2373,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -2375,7 +2381,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -2383,87 +2389,87 @@
         <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{766DF6DE-AD33-4C8E-8C78-05DA9AF101B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDE0376-6CB5-4174-95EF-7F7E0307D1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -951,17 +951,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Operations</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Check any one adjacent area to your task force for estimating enemy strength. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table after rolling die. Mark the area with a Light, Medium, or Heavy marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-      &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-      &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-      &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r7.0 Crew Ratings&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Each crew member is given a numerical rating of his skill at his position. The rating range from 1 (poorest) to 10 (best). 
@@ -1304,6 +1293,17 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 3)  If battle occurs, mark off 15 minutes, and go to 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.53 Enemy Strength Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Check any one adjacent area to your task force for estimating enemy strength. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table after rolling die. Mark the area with a Light, Medium, or Heavy marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                     &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1789,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>145</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -1877,7 +1877,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>147</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -1917,7 +1917,7 @@
         <v>151</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>153</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1941,7 +1941,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,7 +1997,7 @@
         <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2221,7 +2221,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>44</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>78</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -2381,7 +2381,7 @@
         <v>79</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -2389,87 +2389,87 @@
         <v>80</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFDE0376-6CB5-4174-95EF-7F7E0307D1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DAAF56-7349-464E-BEBA-52BFA9032BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>r20.1</t>
   </si>
@@ -1304,6 +1304,170 @@
                      &lt;InlineUIContainer&gt;&lt;Image Name='c36Light'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c37Medium'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c38Heavy'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r4.9</t>
+  </si>
+  <si>
+    <t>r4.91</t>
+  </si>
+  <si>
+    <t>r4.92</t>
+  </si>
+  <si>
+    <t>r4.93</t>
+  </si>
+  <si>
+    <t>r4.94</t>
+  </si>
+  <si>
+    <t>r4.95</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.9  Evening Debrief&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.91' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rating Improvements&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.92' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Total Victory Points&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.93' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Promotions&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.94' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Decorations&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.95' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Day Ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.95  Day Ends&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This day is now complete. Go back to the Combat 
+&lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Restart next day with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>r25.0</t>
+  </si>
+  <si>
+    <t>r25.1</t>
+  </si>
+  <si>
+    <t>r25.2</t>
+  </si>
+  <si>
+    <t>r25.3</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r25.1 Promo Overview&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+As a fresh tank commander, you begin the Campaign Game with a rank of sergeant. However, as the campaign continues, it is possible to be promoted up through the following ranks: staff sergeant, 2nd lieutenant, 1st lieutenant, and captain. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Promotions depend on the cumulative total of total points scored by your tank(s) for knocking out enemy units. Victory points are not modified by the scenario type for puposes of promotion. Record only the points listed for each unit type on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r25.0 Promotions&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Overview &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Process&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Limits</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r25.2 Promo Limits&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You may be promoted only once per month, but victory points continue to accumulate. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, assume you have been promoted already in October, but score another 100 points in the month. At the end of your first day of combat in November, you would be promoted again. The rank is written on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r26.0</t>
+  </si>
+  <si>
+    <t>r26.1</t>
+  </si>
+  <si>
+    <t>r26.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r26.1 Decorations Procedure&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the end of each day of the campain, check the &lt;InlineUIContainer&gt;&lt;Button Content='Decorations' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to see if you have a chance for a medal. In order to be awarded a decoration, you must roll at least 200 (after modifications) or more with a 2D roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A decoration can only be reached by the addition of modifiers shown in the table. You may roll once per day. If your roll is high enough to qualify for more than one decoration, you may choose which to receive. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if you roll high enough fro both a Bronze Star and Silver Star, you may choose to receive either. You may only receive one decoration per day. It is possible to be decorated more than once with the same medal.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r26.0 Decorations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a sufficently large number of victory points are scored in a single day by both your tank and the accompanying friendl forces, you have a chance to be awarded a military decoration for valor. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The decorations that may be won are: &lt;LineBreak/&gt;
+-- Bronze Star (easiest to win)&lt;LineBreak/&gt;
+-- Silver Star&lt;LineBreak/&gt;
+-- Distinguished Service Cross&lt;LineBreak/&gt;
+-- Congressional Medal of Honor (most difficult)
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r26.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Procedure &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r26.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Additional Awards</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r25.2 Promo Process&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+After each day of combat, check for promotion during the Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.93' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+For each 100 victory points scored by your tank, you are promoted one rank. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, assume you are still a sergeant buy your tank has so far scored 93 points. If at the end of this day, your tank has knocked out 7 victory points worth of enemy units, you are promoted to the rank of staff sergeant. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Promotions occur per following:&lt;LineBreak/&gt;
+-- 100 = Staff Sergeant&lt;LineBreak/&gt;
+-- 200 = 2nd Lieutenant&lt;LineBreak/&gt;
+-- 300 = 1st Lieutenant&lt;LineBreak/&gt;
+-- 400 = Captain</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r26.2 Additional Awards&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+As a combat soldier in the European Theater of Operations during World War II, you can also receive the following medals:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Purple Heart &lt;LineBreak/&gt;
+-- European Campaign Medal&lt;LineBreak/&gt;
+-- WWII Victory Medal&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;
+- Purple Hearts are awarded for each wound recieved in combat. The European Campaign Medal is automatically awarded for playing the game. The WWII Victory Medal is automatically awarded after May of 1945.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.91  Rating Improvements&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll for rating improvements for each surviving crew member. Roll 1D for each crew member. If the number rolled is higher than the crew member's current rating, his rating is improved by one. If the number is less than or equal to his current rating, there is no change. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+for details about crew ratings.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.92  Total Victory Points&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Total victory points for both your tank and the friendly forces. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Record these on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Mutiply the totals by any scenario modifiers as shown on the AAR form. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the combined victory points from both your tank and friendly forces is positive, you have won the engagment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.93  Promotions&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine if you have been promoted according to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Record a new rank on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.94  Decorations&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll for possible decorations on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Decorations' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table per &lt;InlineUIContainer&gt;&lt;Button Content='r26.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Record any medals received on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,549 +2100,653 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="39" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="42" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="63" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="65" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="66" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="68" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="77" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="78" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="79" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="80" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="81" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="82" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="83" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="84" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="86" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="87" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="88" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="89" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="90" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="91" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="96" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="100" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="102" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-    </row>
-    <row r="203" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="208" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A131:B306">
-    <sortCondition ref="A131:A306"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A136:B311">
+    <sortCondition ref="A136:A311"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DAAF56-7349-464E-BEBA-52BFA9032BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0739DC55-1594-4584-8D8C-ACF942E9A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>r20.1</t>
   </si>
@@ -1468,6 +1468,63 @@
 Table per &lt;InlineUIContainer&gt;&lt;Button Content='r26.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
 Record any medals received on the After Action Report 
 &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>r6.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r6.0 How to Win&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In order to win an engagement or scenario, both you and your tank must survive. If you are killed or wounded sufficently to miss combat for any time, or if you tank is knocked out, you lose. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If both you and your tank survive, winning depends on your score of victory points. Vicotry in the campaign game is a special case.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r6.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Victory Points&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r6.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Victory&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r6.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Campaign Game Victory</t>
+  </si>
+  <si>
+    <t>r6.1</t>
+  </si>
+  <si>
+    <t>r6.2</t>
+  </si>
+  <si>
+    <t>r6.3</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r6.2 Victory&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When the engagement or scenario ends, multiply the victory points in the four categories by the multipliers shown on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Depending on whether the 4th Armored Division is advancing, engaged in a pitched battle, or defending against a counterattack; the gain or loss of territory and the destruction of enemy units will be more or less important.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the sum of the adjusted positive and negative points is positive, you win. If the sum is negative, you lose.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r6.1 Victory Points&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Victory points are scored for knocking out enemy units and capturing enemy territory. They are subtracted for loss of friendly forces and the loss of US controlled territory.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The points scored for each acheivement are shown on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ Each time a victory point action occurs, the value is added on the AAR. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When the scenario ends, total the victory points into four categories:&lt;LineBreak/&gt;
+-- Enemy units KO'd by your tank&lt;LineBreak/&gt;
+-- Enemy units KO'd by friendly forces&lt;LineBreak/&gt;
+-- Territory controlled or lost&lt;LineBreak/&gt;
+-- Friendly force losses (tanks and infantry squads)</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r6.3 Campaign Game Victory&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The campaign in the European theatre of operations ended in victory for the Allied armies, and the 4th Armored Division must be considered one of the big winners in view of their tremendous war record.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For you as a tank commander, campaign victory is measured at a more basic level. If you are killed, you lose. Instead of starting over, it is recommended that you assume the identify of your replacement and continue from there.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you survive the entire campaign regardless of wounds, you win!</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B208"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,605 +2205,637 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="43" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="45" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="52" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="66" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="69" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="70" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="72" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="74" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="75" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="81" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="82" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="83" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="84" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="85" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="86" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="87" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="88" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="89" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="90" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="91" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="92" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="93" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="94" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="95" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+    <row r="98" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+    <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="106" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="107" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="108" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="115" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-    </row>
-    <row r="208" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+    </row>
+    <row r="212" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A136:B311">
-    <sortCondition ref="A136:A311"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A140:B315">
+    <sortCondition ref="A140:A315"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0739DC55-1594-4584-8D8C-ACF942E9A986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1393351-B956-469D-BE2C-574049AF8E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>r20.1</t>
   </si>
@@ -659,17 +659,6 @@
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.4 Prepare for Battle&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Deployment &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Load&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank &amp;amp; Turrent Orientation&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Spot&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Final Preparations
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;Bold&gt;r4.46  Final Preparations&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Place US Control Markers in Sectors 1, 2, and 3 on the Battle Board. The current weather is marked with the correct markers in the top left of the Battle Board.
@@ -1525,6 +1514,182 @@
 For you as a tank commander, campaign victory is measured at a more basic level. If you are killed, you lose. Instead of starting over, it is recommended that you assume the identify of your replacement and continue from there.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If you survive the entire campaign regardless of wounds, you win!</t>
+  </si>
+  <si>
+    <t>r5.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.0 Using the Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Battle Board is divided into two parts. The main display is where the counters representing your tank and enemy units you encounter are placed. The Tank Card is used to monitor the condition of your tank and the actions of your crew. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A small space is also provided at the top left to mark the weather. Accross the top of the Battle Board is a flow chart of the battle round sequence.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Descriptions and Definitions&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank Card</t>
+  </si>
+  <si>
+    <t>r5.1</t>
+  </si>
+  <si>
+    <t>r5.11</t>
+  </si>
+  <si>
+    <t>r5.12</t>
+  </si>
+  <si>
+    <t>r5.13</t>
+  </si>
+  <si>
+    <t>r5.14</t>
+  </si>
+  <si>
+    <t>r5.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.12 Sectors&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The sectors are numbered at the bottom right: 1, 2, 3, 4-5 (1), 6-8 (2), and 9-10 (3). When an enemy unit is activated, roll 1D to determine which sector it appears. For a roll of 4+, put the unit in the sector corresponding to that number.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For a roll of 1-3, the enemy unit appears only in the corresponding sector if no US Control marker is in the sector. If a US Control marker is present, then the unit appears in the sector where the number is shown in paratheses. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if a 2 was rolled and Sector 2 was marked US Control, the unit would be placed in Sectors 6-8 instead. Conversely, if a 6 was rolled and Sector 6-8 is marked as US Control but Sector 2 is not, the unit would appear in Sector 2. If both paired sectors are US Controlled, the enemy unit does not appear.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The US Control markers represent the presence of friendly forces in your support. After an engagement begins, the number of US Controlled sectors may increase or decrease due to actions from your tank, Enemy Actions 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, or Random Events 
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.13 Enemy Movement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Certain Enemy Actions 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+call for enemy units to move in directions B (backward), R (Right), L (Left), and F (Forward). A unit moving backwards remains in the same sector but moves one zone away from the hub. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit already at long range moving backward is permanently out of play. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit already at close range moving forward jumps to close range in the sector on the other side of the hub directly opposite the sector it now occupies. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Units moving to the right or left remain at the same range but move one zone clockwise or counterclockwise, respectively.</t>
+  </si>
+  <si>
+    <t>r5.21</t>
+  </si>
+  <si>
+    <t>r5.22</t>
+  </si>
+  <si>
+    <t>r5.23</t>
+  </si>
+  <si>
+    <t>r5.24</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.1 Descriptions and Definitions&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Area&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sectors&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Movement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Your Tank Position</t>
+  </si>
+  <si>
+    <t>r5.25</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.4 Prepare for Battle&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Deployment &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hatches&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank &amp;amp; Turrent Orientation&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mark Spot&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Final Preparations</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.21 Open Hatches&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the overhead view of the tank, place an Open Hatch marker on hatches you want open. Remove markers to close hatches.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c15OpenHatch'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.22 Action Boxes&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Adjacent to the overhead view of the tank, each crew position has a labeled action box:&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ C = Commander&lt;LineBreak/&gt;
+ G = Gunner&lt;LineBreak/&gt;
+ L = Loader&lt;LineBreak/&gt;
+ D = Driver&lt;LineBreak/&gt;
+ A = Assistant Criver&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+To order a crewman to perform an action, place the desired Action marker in the crewman&amp;apos;s box per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+The driver and loader automatically perform the actions Stop and Load, respectively, unless ordered otherwise.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c59LChangeGunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c29AmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.11 Battle Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Battle Area is a distorted circle centered on a hexagonal hub. The counter representing your Sherman tank is placed in this hub and remains there throughout play, changing only the direction it is facing. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Radiating out from the hub are three rings, each corresponding to a range of distance: close range (out to 250 yards), medium range (out to 1000 yards), and long range (out to a mile). When enemy units are generated, they will be placed in the ring corresponding to the specified range. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The radiating rings are further divided into six sectors, each sector boundary originating at a corner of the hexagonal hub. Each sector thus has three zones, one for each range.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.2 Tank Card&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Tank Card lists the special characteristics of your tank and is used to monitor the actions of your crew, your gun load, and the state of the ready rack. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the top left corner is the tank number. In the top right corner is the list of characteristics. In the bottom right corner is a chart of spotting restrictions for the crew 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Open Hatches&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Boxes&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gun Loads&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ready Rack&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.25' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Horizontal Volute Spring Suspension (HVSS)</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.25 Horizontal Volute Spring Suspension (HVSS)&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Certain tanks may have HVSS. If the Tank Card shows the special characteristic &amp;quot;HVSS 1-#&amp;quot;, roll 1D. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is within the range shown, place the HVSS marker on the HVSS box to show the tank has HVSS.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Only check the HVSS the first day you operate the tank per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r27.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. No tank may have HVSS before November 1944.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c75Hvss'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.24 Ready Rack&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the ready rack section, place the Rounds Left markers to show what type of rounds are in the ready rack and how many of each per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Ready rack capacity cannot be exceeded.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c12RoundsLeft'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.14 Your Tank Position&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The position of your  tank counter in the hexagontal hub determines its facing. The hexside the tank is facing is the tank&amp;apos;s front; directly opposite the tanks&amp;apos;s rear. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The other four sides are the tank&amp;apos;s left and right front and rear sides. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The facing of your tank has several important implications throughout play, determining what zones your crew can see, what can be shot at by which guns, and where enemy shots are hitting your tank.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                      &lt;InlineUIContainer&gt;&lt;Image Name='MapBattleFacing'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -1897,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2021,12 +2186,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2034,10 +2199,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -2058,7 +2223,7 @@
         <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2066,776 +2231,872 @@
         <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="B73" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="89" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B89" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B92" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B82" s="2" t="s">
+    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B113" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="B116" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="3" t="s">
+    <row r="118" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B122" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B111" s="3" t="s">
+    <row r="125" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-    </row>
-    <row r="212" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+    </row>
+    <row r="224" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A140:B315">
-    <sortCondition ref="A140:A315"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:B327">
+    <sortCondition ref="A152:A327"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A1393351-B956-469D-BE2C-574049AF8E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CD8AB3-551D-46F7-ABEB-5A6244E23654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>r20.1</t>
   </si>
@@ -1690,6 +1690,87 @@
 The facing of your tank has several important implications throughout play, determining what zones your crew can see, what can be shot at by which guns, and where enemy shots are hitting your tank.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                       &lt;InlineUIContainer&gt;&lt;Image Name='MapBattleFacing'  Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r4.6</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.6  Battle on Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Battle Board is prepared for battle.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Placement of Advancing Fire &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.62' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Activation of Enemy Units&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.63' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Placement of Enemy Units&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Resolve Advancing Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.65' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ambush Check</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.61  Placement of Advancing Fire&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place Advancing Fire markes per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.62  Activation of Enemy Units&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Activation' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table for the number and general type of enemy units appearing per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The specific types of tanks, SPGs, and AT guns are not known until identified during the Spotting Phase of the Battle Round Sequence per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 2D (x2 for Light, x3 for Medium, and x4 for Heavy resistance).</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.63  Placement of Enemy Units&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place enemy units according to Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
+Table per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.64  Resolve Advancing Fire&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Resolve Advancing Fire, Artillery Support, and Air Strikes on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If die roll is less than 7, consult appropriate 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, or 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Action Table for each enemy unit per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ Additionally, roll for random events on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. Then go to 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Regardless of ambush status, continue with
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt; 
+to start the fight.</t>
+  </si>
+  <si>
+    <t>r4.61</t>
+  </si>
+  <si>
+    <t>r4.62</t>
+  </si>
+  <si>
+    <t>r4.63</t>
+  </si>
+  <si>
+    <t>r4.64</t>
+  </si>
+  <si>
+    <t>r4.65</t>
   </si>
 </sst>
 </file>
@@ -2062,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,7 +2299,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="71.45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>101</v>
       </c>
@@ -2322,781 +2403,829 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="61" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="64" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="84" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="86" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="87" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="88" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="90" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="99" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="100" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="101" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="102" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="103" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="105" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="106" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="108" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="110" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="111" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="112" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="116" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="118" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+    <row r="122" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="123" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="124" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="128" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="133" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-    </row>
-    <row r="224" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+    </row>
+    <row r="230" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:B327">
-    <sortCondition ref="A152:A327"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A158:B333">
+    <sortCondition ref="A158:A333"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76CD8AB3-551D-46F7-ABEB-5A6244E23654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D479F14-75EA-4985-A3D0-08921A6B2A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
   <si>
     <t>r20.1</t>
   </si>
@@ -564,19 +564,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r16.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ammo Ready Rack</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r16.0 Ammunition (Ammo)&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Ammo is loaded into your tank at the beginning of each scenerio as part of morning briefing 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Each model and variant of the Sherman tank has a limit on its normal load and ammo, both for its man gun and MGs as shown on it Tank Card 
-.  
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.0a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Details&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Ammo Types&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Loading Ammo</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r16.0a Ammo Details&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 -- Both the 75 and 76L fired AP and HE rounds. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
@@ -1211,13 +1198,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire Resolution</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r22.12 Advancing Fire Markers&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Place up to six Advance Fire markers anywhere on the Battle Board except in Sectors 1, 2, 3, and the long range sectors 6-8. You may place more than one in a zone. For every 3 friendly tank losses (roudned up), omit one Advance Fire marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Name='c44AdvanceFire'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r23.0 Artillery Support and Air Strikes&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Artillery Support &lt;LineBreak/&gt;
@@ -1771,6 +1751,253 @@
   </si>
   <si>
     <t>r4.65</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.12 Advancing Fire Markers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place up to six Advance Fire markers anywhere on the Battle Board except in Sectors 1, 2, 3, and the long range sectors 6-8. You may place more than one in a zone. For every 3 friendly tank losses (rounded up), omit one Advance Fire marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c44AdvanceFire'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r12.0</t>
+  </si>
+  <si>
+    <t>r12.1</t>
+  </si>
+  <si>
+    <t>r12.11</t>
+  </si>
+  <si>
+    <t>r12.12</t>
+  </si>
+  <si>
+    <t>r12.13</t>
+  </si>
+  <si>
+    <t>r12.14</t>
+  </si>
+  <si>
+    <t>r12.15</t>
+  </si>
+  <si>
+    <t>r12.16</t>
+  </si>
+  <si>
+    <t>r12.17</t>
+  </si>
+  <si>
+    <t>r12.18</t>
+  </si>
+  <si>
+    <t>r12.2</t>
+  </si>
+  <si>
+    <t>r12.3</t>
+  </si>
+  <si>
+    <t>r12.31</t>
+  </si>
+  <si>
+    <t>r12.32</t>
+  </si>
+  <si>
+    <t>r12.33</t>
+  </si>
+  <si>
+    <t>r12.34</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.0 Enemy Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units of German armed forces engaged by the 4th Armored Division are represented in play by individual vehicles and small weapons teams. They are brought into play when battle is triggered by a roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+The number and type of enemy units appearing is determined by consulting the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Activation' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Description&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Activation&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Placement</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.2 Activation&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When battle is triggered on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Resistance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table, roll for the appearance of enemy units on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Activation' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. The number of enemy units initially appearing depends on the level of resistance in the area:&lt;LineBreak/&gt;
+  2 = Light&lt;LineBreak/&gt;
+  3 = Medium&lt;LineBreak/&gt;
+  4 = Heavy
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each unit that will appear, roll once on the Activation Table under the column of the scenario type. This roll determines the type of unit that will be placed on the Battle Board.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.31 Sector&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The sector to place a new enemy unit is determined by a 1D roll as explained in 
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.3 Placement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Placing enemy units on the Battle Board consists of up to four steps to determine:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sector&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Range&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Vehicle Facing&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Target Terrain
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+There is no limit on the number of enemy units that may be placed in the same sector, at the same range, and in the same terrain.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.0 Ammunition (Ammo)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is loaded into your tank at the beginning of each scenerio as part of morning briefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each model and variant of the Sherman tank has a limit on its normal load and ammo, both for its man gun and MGs as shown on it Tank Card .  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.0a' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Details&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Ammo Types&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Loading Ammo</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.11 Tanks or Panzerkampfwagen (Pz)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Panzer (armored) + kampf (fighting) + wagen (vehicle) = armored fighting vehicle (AFV). Tanks have turrets and appear in four types: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ -- Pz IV: medium tank&lt;LineBreak/&gt;
+ -- Pz V: Pather medium tank&lt;LineBreak/&gt;
+ -- Pz VIe: Tiger heavy tank&lt;LineBreak/&gt;
+ -- Pz VIb: King Tiger heavy tank
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c79PzIV'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c80PzV'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c81PzVIe'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c82PzVIb'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.13 Truck&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Any medium truck of the period
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c88Truck' Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.14 Panzerspahwagen (PSW)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Armored scout car.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c89Psw232' Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.16 Light Weapons (LW)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Light weapons units represent a source of infantry weapons fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c91Lw' Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.17 Machine Gun (MG) Team&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Represents the fire of machine gun team.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c92MgTeam' Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.18 Antitank (AT)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Pazerabwherkanone (Pak) = tank defense cannon. These represent an AT gun and its crew. AT Guns appear in three types: 50L (PaK38), 75L (PaK40), and 88LL (PaK43).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='c93Pak38'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c94Pak40'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c95Pak43'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.12 Self Propelled Gun (SPG)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+SPGs have no turret and are designed as assault or anti-tnak guns. They appear in five types:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ -- STuG IIIG: Sturmgeschutz = assault - medium assault gun&lt;LineBreak/&gt;
+ -- Marder II: Marder = marten - medium assault gun&lt;LineBreak/&gt;
+ -- Marder III: medium assault gun&lt;LineBreak/&gt;
+ -- JgdPz IV: Jagdpanzer = armored hunter or tank destroyer - medium tank destroyer&lt;LineBreak/&gt;
+ -- JgdPz 38(t): Hetzer = troublemaker - medium tank destroyer
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+  &lt;InlineUIContainer&gt;&lt;Image Name='c83MarderII'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+  &lt;InlineUIContainer&gt;&lt;Image Name='c84MarderIII'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+  &lt;InlineUIContainer&gt;&lt;Image Name='c85STuGIIIg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+  &lt;InlineUIContainer&gt;&lt;Image Name='c86JgdPzIV'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+  &lt;InlineUIContainer&gt;&lt;Image Name='c87JgdPz38t'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.15Schutzenpanzerwagen (SPW)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Armored infantry vehicle, i.e., armored personnel carrier.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c90Spw251' Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.1 Description&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units appear in two major types: vehicles and infantry. 
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Vehicle types are:&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Tanks&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Self Propelled Guns (SPGs)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Trucks&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Panzerspahwagen (PSW)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.15' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Schutzenpanzerwagen (SPW)&lt;LineBreak/&gt;
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Infantry types are:&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.16' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Light Weapons (LW)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.17' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Muchaine Gun (MG) Team&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r12.18' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Antitank (AT) Gun
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank, SPG, and AT guns are printed in black on their front side and red on their back side. When these units first appear, place them red side up. They remain on their red side until they are identified by spotting per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Name='c76UnidentifiedAtg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c77UnidentifiedSpg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c78UnidentifiedTank'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.32 Range&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+To determine the range at which the enemy will be placed, roll 1D on Part I of the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. Range will depend on the unit type and the type of Movement Board area where the battle is taking place, as well as the die roll.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.33 Vehicle Facing&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D on Part II of the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine the facing of the enemy vehicles. For front, side, or rear facing; position the front, side or rear of the vehcile counter, respectively toward your Sherman tank counter.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r12.34 Target Terrain&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D on Part III of the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine the terrain occupied by the enemy unit. The table also indicates if the unit is hulled down or moving in the open. Mark units hall down, in woods, in a fortification, in a building, or moving in the open with the appropriate counter. Units in the open have no marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+       &lt;InlineUIContainer&gt;&lt;Image Name='c14HullDown'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+       &lt;InlineUIContainer&gt;&lt;Image Name='c97TerrainWoods'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+       &lt;InlineUIContainer&gt;&lt;Image Name='c98TerrainFort'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+       &lt;InlineUIContainer&gt;&lt;Image Name='c96TerrainBuilding'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+       &lt;InlineUIContainer&gt;&lt;Image Name='c13Moving'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r14.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r14.0 Friendly Action&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Friendly Action represents the firepower of the friendly forces accompanying your vehicle. Roll 2D on the Friendly Action Table for each enemy unit on the Battle Board. Friendly action will result in either no effect, destruction of the enemy unit, or the placement of smoke. Record the destruction of enemy units on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -2143,10 +2370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,7 +2459,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2256,7 +2483,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,367 +2491,367 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,7 +2859,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,581 +2878,717 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="82" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B115" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B113" s="3" t="s">
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="3" t="s">
+    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-    </row>
-    <row r="230" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="149" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+    </row>
+    <row r="247" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A158:B333">
-    <sortCondition ref="A158:A333"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A175:B350">
+    <sortCondition ref="A175:A350"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0D479F14-75EA-4985-A3D0-08921A6B2A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3B66FB-1320-42FA-9000-96D461AC08DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>r20.1</t>
   </si>
@@ -608,16 +609,6 @@
   </si>
   <si>
     <t>r4.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r3.0 Game Tables&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tables can be viewed by selecting the &lt;Bold&gt;Help | Show Tables...&lt;/Bold&gt; menu.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The game tables are used by rolling one or two ten-sided dice and reading the results generated by the table. 
-Throughout the game, the notation 1D  means roll one die and 2D means rolling two die. The notation 1D/2 means roll one die and dividing the number by half.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolled together, the colored die is the tens digit and the white die is the ones digit. A roll of '00' represents 100. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many tables include additioinal factors that modify the randomly generated number of the dice roll. For example, when rolling on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, 
-if the repairing crewman has a rating of 5, the roll modifier to repair is -5. </t>
   </si>
   <si>
     <t>r4.42</t>
@@ -1998,6 +1989,417 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Friendly Action represents the firepower of the friendly forces accompanying your vehicle. Roll 2D on the Friendly Action Table for each enemy unit on the Battle Board. Friendly action will result in either no effect, destruction of the enemy unit, or the placement of smoke. Record the destruction of enemy units on the After Action Report 
 &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r8.0</t>
+  </si>
+  <si>
+    <t>r8.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.0 Crew Actions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Commander (C)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Gunner (G)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Loader (L)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Driver (D)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Assistant Driver (A)&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Non-Specific Crew Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8.11 </t>
+  </si>
+  <si>
+    <t>r8.12</t>
+  </si>
+  <si>
+    <t>r8.2</t>
+  </si>
+  <si>
+    <t>r8.21</t>
+  </si>
+  <si>
+    <t>r8.22</t>
+  </si>
+  <si>
+    <t>r8.23</t>
+  </si>
+  <si>
+    <t>r8.24</t>
+  </si>
+  <si>
+    <t>r8.25</t>
+  </si>
+  <si>
+    <t>r8.3</t>
+  </si>
+  <si>
+    <t>r8.31</t>
+  </si>
+  <si>
+    <t>r8.32</t>
+  </si>
+  <si>
+    <t>r8.33</t>
+  </si>
+  <si>
+    <t>r8.34</t>
+  </si>
+  <si>
+    <t>r8.35</t>
+  </si>
+  <si>
+    <t>r8.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8.4 </t>
+  </si>
+  <si>
+    <t>r8.41</t>
+  </si>
+  <si>
+    <t>r8.42</t>
+  </si>
+  <si>
+    <t>r8.43</t>
+  </si>
+  <si>
+    <t>r8.44</t>
+  </si>
+  <si>
+    <t>r8.45</t>
+  </si>
+  <si>
+    <t>r8.46</t>
+  </si>
+  <si>
+    <t>r8.5</t>
+  </si>
+  <si>
+    <t>r8.51</t>
+  </si>
+  <si>
+    <t>r8.52</t>
+  </si>
+  <si>
+    <t>r8.53</t>
+  </si>
+  <si>
+    <t>r8.6</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.6 Non-Specific Crew Actions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Throw Smoke Grenades&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.62' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire AA MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.63' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair AA MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Replace Periscope&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.65' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Sub MG</t>
+  </si>
+  <si>
+    <t>r8.61</t>
+  </si>
+  <si>
+    <t>r8.62</t>
+  </si>
+  <si>
+    <t>r8.63</t>
+  </si>
+  <si>
+    <t>r8.64</t>
+  </si>
+  <si>
+    <t>r8.65</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.1 Commander (C)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Direct Movement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Direct Fire
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c07Commander'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.2 Gunner (G)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Main Gun&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Co-Axial MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rotate Turret&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rotate Turret/Fire Main Gun&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.25' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Main Gun
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c11Gunner'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.21 Fire Main Gun&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Subtract gunner&amp;apos;s rating from the To Hit roll for the main gun. Gunner may not spot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c50GFIreMainGun'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.3 Loader (L)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Main Gun&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Co-Axial MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Mortar&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.35' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Change Gun Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.36' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Restock Ready Rack
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c09Loader'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.31 Load&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If no marker is placed in the loader&amp;apos;s box, he will automatically reload the main gun if it is fired. Subtract the loader&amp;apos;s rating from the To Hit roll for the main gun. May spot normally unless the main gun is being fired. If the main gun is being fired, the loader may not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c54LLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.35 Change Gun Load&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Change the ammo round in the main gun to any round still available. May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c59LChangeGunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.36 Restock Ready Rack&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Replace rounds in the ready rack from those still available. May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c60LRestockReadyRack'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.4 Driver (D)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Stop&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Forward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Forward to Hull Down&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Reverse&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Reverse to Hull Down&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Pivot Tank
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c08Driver'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.41 Stop&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If no action marker is placed in the driver&amp;apos;s box, he automatically stops the tank. Remove any previously placed Moving marker from the tank. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c61DStop'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.42 Forward&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank moves forward. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c62DForward'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.43 Forward to Hull Down&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank moves forward looking for a hull down position. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c63DForwardToHullDown'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.44 Reverse&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank moves backward. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c64DReverse'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.45 Reverse to Hull Down&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank moves backward looking for a hull down position. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c65DReverseToHullDown'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.5 Assistant Driver (A)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Bow MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.52' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Bow MG&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Pass Ammo
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c10Assistant'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.51 Fire Bow MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Subtract the assistant&amp;apos;s rating from To Kill roll for the bow MG. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c67AFireBowMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.53 Pass Ammo&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Assistant Driver passes ammo to speed reload time. Modify the To Hit roll by -10 when determining rate of fire per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+This action cannot be taken when reloading from ready rack 
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. May not spot
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c69APassAmmo'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.64 Replace Periscope&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A crewman who has had his periscope knocked out replaces the damaged periscope.  May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c73ReplacePeriscope'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.22 Fire Co-Axial MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Subtract gunner&amp;apos;s rating from the To Kill roll for the co-axial MG. You may continue to spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c51GFireCoaxialMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.23 Rotate Turret&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Turn turret to face any sector. May spot only in the sector of the turret's front facing after rotation per per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                       &lt;InlineUIContainer&gt;&lt;Image Name='c52GRotateTurret'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.32 Repair Main Gun&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunctioning' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Table 
+to repair main gun. May not spot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c55LRepairMainGun'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r3.0 Game Tables&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Tables can be viewed by selecting the &lt;Bold&gt;Help | Show Tables...&lt;/Bold&gt; menu.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The game tables are used by rolling one or two ten-sided dice and reading the results generated by the table. 
+Throughout the game, the notation 1D  means roll one die and 2D means rolling two die. The notation 1D/2 means roll one die and dividing the number by half.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolled together, the colored die is the tens digit and the white die is the ones digit. A roll of '00' represents 100. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Many tables include additioinal factors that modify the randomly generated number of the dice roll. For example, when rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Table, 
+if the repairing crewman has a rating of 5, the roll modifier to repair is -5. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.25 Repair Main Gun&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Subtract the gunner&amp;apos;s rating from roll to repair the main gun on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair 
+Table. Can only be used if the loader is also attempting to repair the main gun per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+You may not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c57GRepairMainGun'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.33 Repair Co-Axial MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunctioning' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Table 
+to repair malfunctioning co-axial MG. May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c55LRepairMainGun'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.34 Fire Mortar&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Firing the 2 inch smoke mortar places a smoke marker in close zone to the turret&amp;apos;s front. Also automatically reloads the mortar if smoke bombs are still available. May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c58LFireMortar'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.65 Fire Sub MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Commander (or loader in tanks other than those with a &amp;quot;A&amp;quot; turret) fires a .50 calibre submachine gun. The gun is fired as either Advancing Fire into an empty zone or 
+as direct fire against an enemy unit. Subtract rating from the To Kill roll. Crewman must fire from an open hatch. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c74FireSubMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.62 Fire AA MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Commander (or loader in tanks with a split loader hatch and AA MG mount) subtracts rating from the To Kill roll for the AA MG. Crewman must have an open hatch. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c71FireAaMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.63 Repair AA MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Commander (or loader in tanks with a split loader hatch and AA MG mount) rolls on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Table . He may not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c72RepairAaMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.61 Throw Smoke Grenades&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Either the commander or gunner may throw smoke grenades from their open hatch. Grenades must be available as shown on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContaine. Place a smoke marker on the tank per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c70ThrowSmokeGrenade'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.52 Repair Bow MG&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Repair Table 
+to repair the malfunctioning bow MG. May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c68ARepairBowMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.46 Pivot Tank&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank may change facing to any sector. Pivoting tank loses hull down position. He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c66DPivotTank'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.24 Rotate Turret/Fire Main Gun&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Turn turret to face any sector and fire main gun with a penalty per 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, i.e., +10 per sector rotated. 
+May not spot.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c53GRotateTurretFireMainGun'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.11 Direct Movement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Direct the movement of the tank. This will reduce the chance of an accident per the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Movement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+However, the commander have no effect on any fire. You may continue to spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c48CDirectMove'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.12 Direct Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Direct the fire of the main gun or any one machine gun. Subtract the commander&amp;apos;s crew rating from the To Hit roll on the
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+for the main gun fire or the To Kill roll for the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. You may continue to spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c49CDirectFire'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -2370,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2459,7 +2861,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2483,7 +2885,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,7 +2901,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2507,351 +2909,351 @@
         <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,7 +3261,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,717 +3280,989 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>87</v>
+        <v>322</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>88</v>
+        <v>323</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>114</v>
+        <v>332</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="B130" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="2" t="s">
+    <row r="134" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="B134" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B135" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="B136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="B137" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="139" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="141" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="143" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="144" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B146" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B149" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B117" s="2" t="s">
+    <row r="165" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B170" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B173" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B139" s="3" t="s">
+    <row r="175" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B179" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B146" s="3" t="s">
+    <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="4"/>
-    </row>
-    <row r="247" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+    </row>
+    <row r="281" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A175:B350">
-    <sortCondition ref="A175:A350"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A209:B384">
+    <sortCondition ref="A209:A384"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A3B66FB-1320-42FA-9000-96D461AC08DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2D5F3FB1-F0AB-4B29-95CA-8E768A7DB1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
   <si>
     <t>r20.1</t>
   </si>
@@ -1195,27 +1194,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AirStrikes&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r22.2 Advancing Fire - Entering a New Area&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-You may fire your tank's MGs into zones containing no spotted units as a type of Advancing Fire. Order correct crew action (for example, Fire Bow MG) and place the Advancing Fire marker for the MG (Bow MG Advance Fire) into the zone you want to fire. Place the marker after any tank movement or facing changes. This type of fire can KO enemy units which move into the zone and reduce the danger of Panzerfaust attacks per the
-&lt;InlineUIContainer&gt;&lt;Button Content='Panzerfaust' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attack Tables.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- During the Crew Action Phase, roll 2D:  &lt;LineBreak/&gt;
-    1-30 =  1 ammo box expected&lt;LineBreak/&gt;
-    31-97 =  nothing&lt;LineBreak/&gt;
-    98-100 = MG malfunctions 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- Each enemy truck or infantry type that enters the zone may be immediately fired on by your MG according to the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-vs. Infantry Targets Table. Any kills are recorded as victory points on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
- &lt;LineBreak/&gt;&lt;LineBreak/&gt;
--- Remove these Advancing Fire markers specific for your MGs at the beginning of the Orders Phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the next round
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r23.2 Air Strike&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Air Strikes function very similarly to artillery support 
@@ -1597,16 +1575,6 @@
 The driver and loader automatically perform the actions Stop and Load, respectively, unless ordered otherwise.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c59LChangeGunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Name='c29AmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r5.11 Battle Area&lt;/Bold&gt;
@@ -2400,6 +2368,303 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                       &lt;InlineUIContainer&gt;&lt;Image Name='c49CDirectFire'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r9.0</t>
+  </si>
+  <si>
+    <t>r9.1</t>
+  </si>
+  <si>
+    <t>r9.2</t>
+  </si>
+  <si>
+    <t>r9.3</t>
+  </si>
+  <si>
+    <t>r9.31</t>
+  </si>
+  <si>
+    <t>r9.32</t>
+  </si>
+  <si>
+    <t>r9.33</t>
+  </si>
+  <si>
+    <t>r9.34</t>
+  </si>
+  <si>
+    <t>r9.4</t>
+  </si>
+  <si>
+    <t>r9.41</t>
+  </si>
+  <si>
+    <t>r9.42</t>
+  </si>
+  <si>
+    <t>r9.5</t>
+  </si>
+  <si>
+    <t>r9.51</t>
+  </si>
+  <si>
+    <t>r9.52</t>
+  </si>
+  <si>
+    <t>r9.53</t>
+  </si>
+  <si>
+    <t>r9.6</t>
+  </si>
+  <si>
+    <t>r9.35</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.2 Direct or Area Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Direct Fire represents aiming a shot at a specific target. Area Fire represents shooting into a general area. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All AP and HVAP shots must use Direct Fire or they have no effect. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+WP and HCBI shots must use Area Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+HE ammo can use either Direct or Area Fire.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.31 To Hit Table&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine whether the target fired on is hit by consulting the correct row on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The correct row will depend on the type of gun you have (75 or 76L), the type of target (infantry or vheicle), the type of ammo fired, and whether you are using Direct Fire or Area Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the top of the table are shown the basic To Hit numbers for each type of fire. You must roll the number shown or less on 2D (after modifications) to score a hit.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.3 Hitting the Target&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; To Hit Table&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; To Hit Modifiers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Target&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire Roll&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.35' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Target Acquisition&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
++B93     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.33 Marking Target&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a hit is core with AP or HE ammo, mark the target with an appropriate Hit marker. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the target is hit with a smoke round, place a Smoke marker in the zone.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                 &lt;InlineUIContainer&gt;&lt;Image Name='c100ApHit'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c101HeHit'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c102SmokeHit'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.4 Rate of Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Achieving Rate of Fire allows for your crew to immediately fire another shot from the main gun. When a To Hit roll is made firing the main gun, the number rolled also deteremines whether the gun has acheived Rate of Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the roll is low enough (30 or less for a 75mm gun and 20 or less for a 76L mm gun), you may immediately elect to fire again. You can continue to fire again until either the Rate of Fire roll is not acheived or the ammo runs out.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire Modifiers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Successive Rate of Fire</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.41 Rate of Fire Modifiers&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The 
+&lt;InlineUIContainer&gt;&lt;Button Content='Rate of Fire' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table details a number of modifiers that may affect the number needed to achieve the Rate of Fire. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+These modifiers affect only the Rate of Fire roll and have no effect on the To Hit dice roll.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.42 Successive Rate of Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Successive Rate of Fire shots must be fired at the original target even though you do not know the results of previous hits. You may not switch targets during a round.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.5 Killing the Target&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each hit against a target, consult one of the To Kill tables. The correct table is used to determine if the target is knocked out (KO&amp;apos;s).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.51' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; HE versus Infantry Targets&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.52' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AP vs Vehicles&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.53' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; HE versus Vehicles</t>
+  </si>
+  <si>
+    <t>r9.61</t>
+  </si>
+  <si>
+    <t>r9.62</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.0 Sherman Main Gun Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The American versions of the Sherman tank available for play are armed with one of two types of main gun: either a 75mm or 76mm gun. The &amp;quot;L&amp;quot; denotes improved long range capability. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The Main gun is directed to fire by placing either a Fire Main Gun or Ratate and Fire marker in the gunner&amp;apos;s box on the Tank Card. The gun cannot be fired if it is not loaded or is malfunctioning. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Resolution of a shot from the main gun requires five steps: 1.) Selecting eligible target 2.) Selecting Direct Fire or Area Fire 3.) Hitting the target 4.) For vehicle targets only, determining where the target was hit, and 5.) Determining if the target is destroyed. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+However, you do not see the results of any hits until you have finished firing.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Selecting a Target&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Direct or Area Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hitting the Target&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Killing the Target&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ammo Loads and Reloads</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.1 Selecting a Target&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Only those enemy units that have been spotted per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; may be fired on. 
+The main gun may only fire at a target in the sector to the turret&amp;apos;s front. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+By ordering the gunner to rotate and fire, the turret may be swung up to any sector and still fire but at a penalty per 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The gun may be fired at targets at any range. The effectiveness of fire drops at longer ranges. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The main gun may be fired at only one unit per battle round, regardless of how many Rate of Fire shots are taken. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Infantry targets are LW, MG, and AT guns. All other enemy units are vehicles.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.32 To Hit Modifiers&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the bottom of the table are shown various factors that may modify the number rolled upward or downward. Smoke and certain types of weather on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Weather' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table may half the basic To Hit number several times before any modifications.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.34 Rate of Fire Roll&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you achieve a Rate of Fire with your To Hit roll, you may immediately fire again per the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Rate of Fire' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+If your roll To Hit does not achieve a Rate of Fire, your firing is finished for this round.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.35 Target Acquisition&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+After your first shot at a target, place an &amp;quot;Acquired Target 1&amp;quot; marker on it. Place an &amp;quot;Acquired Target 2&amp;quot; marker on a target that already has one if you shoot a second time. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Acquired target modifiers to the To Hit dice rolls apply only to targets marked with the acquired markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Only one target at a time may be acquired by your tank. Acquired markers are removed if your tank moves or pivots unless your crew has a gyrostablizer per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r27.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Additionally, the marker is removed if your turret rotates away from the target&amp;apos;s zone or if you fire at a different target.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                           &lt;InlineUIContainer&gt;&lt;Image Name='c103Acquired1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c104Acquired2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.52 AP vs Vehicles&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each hit against a target, consult one of the corresponding tables: 
+&lt;InlineUIContainer&gt;&lt;Button Content='AP To Kill (75)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; or 
+&lt;InlineUIContainer&gt;&lt;Button Content='AP To Kill (76)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All tables show a number for each type of enemy vehicle target for three different facings (front, side, and rear), three different ranges (close, medium, and long), and in some cases for both turrent or hull hits.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Where different numbers are shown for turret and hull hits, roll 1D on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Hit Location Tank' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table to determine where the shell hits.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is less than or equal to the number shown on the table, the target is KO&amp;apos;ed.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.51 HE versus Infantry Targets&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Both Area and Direct Fire versus infantry targets by 75 or 76L guns is resolved on the same 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Kill Infantry' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the top of the table are listed the base numbers which must be rolled To Kill the target. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+At the buttom of the table are listed factors which may modify the number rolled.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.53 HE versus Vehicles&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each hit against a target, consult one of the corresponding tables: 
+&lt;InlineUIContainer&gt;&lt;Button Content='HE To Kill (75)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; or 
+&lt;InlineUIContainer&gt;&lt;Button Content='HE To Kill (76)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In general, HE is not an effective weapon against vehicles, but it can kill those with light armor and trucks. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All tables show a number for each type of enemy vehicle target for three different facings (front, side, and rear), three different ranges (close, medium, and long), and in some cases for both turrent or hull hits.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Where different numbers are shown for turret and hull hits, roll 1D on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Hit Location Tank' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table to determine where the shell hits.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.6 Ammo Loads and Reloads&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; First Ammo Load&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.62' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ammo Reload</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.61 First Ammo Load&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Prepare for Battle step of the Sequence of Play 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+, you have the opportunity to choose an ammo load for your main gun. When the battle round sequence begins, this is the type of ammo in your gun and what you will fire with your first shot. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you elect to leave your gun unloaded, you may not fire in the first battle round, but you may load the gun as you choose preparing for the second round. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you choose to use Advancing Fire when entering a new area, you must load your gun with HE. Mark the ammo load by placing the Gun Load marker in the correct ammo box on the Tank Card. Only those ammo types listed on the Tank Card can be loaded and fired from your gun. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.62 Ammo Reload&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.73.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+fo the Battle Round Sequence, you must mark what type of ammo you want reloaded if you are firing your main gun. If you acheive Rate of Fire 
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+and wish to continue firing, your additional shots will all be the type of ammo selected as your reload.  
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During this step, also mark whether you want to draw ammo from your ready rack. Doing so increases your chance of achieving Rate of Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ammo is marked off as used only after being fired. Loading ammo into the gun does not use it as it is possible to change gun loads. Place the Gun Reload marker (and Ready Rack Ammo Reload marker if desired) in the Gun Load section of the Tank Card.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you choose to use Advancing Fire 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ when entering a new area, you must load your gun with HE. Mark the ammo load by placing the Gun Load marker in the correct ammo box on the Tank Card. Only those ammo types listed on the Tank Card can be loaded and fired from your gun. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c29AmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r22.2 Advancing Fire - Entering a New Area&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+You may fire your tank's MGs into zones containing no spotted units as a type of Advancing Fire. Order correct crew action (for example, Fire Bow MG) and place the Advancing Fire marker for the MG (Bow MG Advance Fire) into the zone you want to fire. Place the marker after any tank movement or facing changes. This type of fire can KO enemy units which move into the zone and reduce the danger of Panzerfaust attacks per the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Panzerfaust' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attack Tables.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- During the Crew Action Phase, roll 2D:  &lt;LineBreak/&gt;
+    1-30 =  1 ammo box expected&lt;LineBreak/&gt;
+    31-97 =  nothing&lt;LineBreak/&gt;
+    98-100 = MG malfunctions 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Each enemy truck or infantry type that enters the zone may be immediately fired on by your MG according to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+vs. Infantry Targets Table. Any kills are recorded as victory points on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+ &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+-- Remove these Advancing Fire markers specific for your MGs at the beginning of the Orders Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the next round
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -2772,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +3126,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2901,7 +3166,7 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -2981,7 +3246,7 @@
         <v>144</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -3029,231 +3294,231 @@
         <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>245</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,987 +3547,1139 @@
     </row>
     <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>292</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>295</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>81</v>
+        <v>392</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="149" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="150" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B151" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="153" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="154" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+    <row r="156" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    <row r="157" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="158" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="160" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="161" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="162" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="163" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="166" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="169" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="171" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="172" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="173" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="175" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="176" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="178" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="179" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="180" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="181" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="182" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="183" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+    <row r="184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+    <row r="185" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+    <row r="186" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+    <row r="187" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+    <row r="188" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+    <row r="190" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="B190" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+    <row r="192" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B192" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B198" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" s="3" t="s">
+    <row r="201" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="4"/>
-    </row>
-    <row r="281" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+    </row>
+    <row r="300" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A209:B384">
-    <sortCondition ref="A209:A384"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:B403">
+    <sortCondition ref="A228:A403"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2D5F3FB1-F0AB-4B29-95CA-8E768A7DB1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2483724E-F741-4672-96B8-D6A1AC8AF80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
   <si>
     <t>r20.1</t>
   </si>
@@ -331,15 +331,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Sequence of Play
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Additional Rules can be viewed by selecting the &lt;Bold&gt;Help | Show Rules..."&lt;/Bold&gt; menu.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r2.12 Battle Board&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The battle board is an abstract display used to resolve engagements with enemy forces. Your tank is placed in the center of this display and the action of an engagement revolves 
-around it through the use of pieces representing enemy units and other informational markers. A detailed explanation is given in 
-&lt;InlineUIContainer&gt;&lt;Button Content='r5.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                 &lt;InlineUIContainer&gt;&lt;Image Name='MapBattle'  Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r19.11 Exploding Tank&lt;/Bold&gt; 
@@ -1371,13 +1362,6 @@
 -- WWII Victory Medal&lt;LineBreak/&gt;
 &lt;LineBreak/&gt;
 - Purple Hearts are awarded for each wound recieved in combat. The European Campaign Medal is automatically awarded for playing the game. The WWII Victory Medal is automatically awarded after May of 1945.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.91  Rating Improvements&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll for rating improvements for each surviving crew member. Roll 1D for each crew member. If the number rolled is higher than the crew member's current rating, his rating is improved by one. If the number is less than or equal to his current rating, there is no change. See 
-&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-for details about crew ratings.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r4.92  Total Victory Points&lt;/Bold&gt;
@@ -2665,6 +2649,272 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the next round
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                         &lt;InlineUIContainer&gt;&lt;Image Name='c42FireBowMg'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r13.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.0 Enemy Action &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r10.0</t>
+  </si>
+  <si>
+    <t>r11.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.0 Sherman Machine Guns (MGs)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Description&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Firing Machine Guns</t>
+  </si>
+  <si>
+    <t>r10.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.1 Description&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In addition to its main gun, the Sherman tank is armed with several machine guns (MGs). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .30 calibre bow MG is mounted in the front right hull and is fired by the assistant driver.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .30 calibre co-axial MG is mounted in the turret front along teh same axis as the main gun and is fired by the gunner.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .50 calibre anti-aircraft (AA) MG is fixed to a pintle mount (post) on top of the turret and is fired by the commander. In some configurations, it can be fired by the loader.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Several hand held submachine guns (sub MGs) are carried in the turret and may be fired from open hatches.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c51FireCoaxialMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r10.2</t>
+  </si>
+  <si>
+    <t>r10.21</t>
+  </si>
+  <si>
+    <t>r10.22</t>
+  </si>
+  <si>
+    <t>r10.23</t>
+  </si>
+  <si>
+    <t>r10.24</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.21 Crew Actions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+MGs are directed to fire by placing a Crew Action marker on the operating crew member&amp;apos;s box on the Tank Card. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if you want the co-axial MG to fire, place the Fire Co-Axial MG marker in the gunner&amp;apos;s box.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.23 MG Targets&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Machine guns are only effective against the following targets: LW, MG teams, trucks, and AT guns.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+They have no effect against other enemy units.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.2 Firing Machine Guns (MGs)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Description&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; MG Restrictions&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; MG Targets&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; MG Zones</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.22 MG Restrictions&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Only those enemy units that have been spotted may be fired on. The co-axial MG may only fire at a target in the sector to the turret&amp;apos;s front. The bow MG may only fire into the sector to the tank&amp;apos;s front. The AA MG or a sub MG may be fired into any sector, but the firing crewman must operate it from an open hatch. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Any weapon may be fired at any range although the effectiveness of the MG fire drops at longer range. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When your tank is hulled down, the bow MG may not fire. Only one enemy unit may be fired at by each MG per battle round unless the MG is performing Advancing Fire per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.24' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r11.1</t>
+  </si>
+  <si>
+    <t>r11.2</t>
+  </si>
+  <si>
+    <t>r11.3</t>
+  </si>
+  <si>
+    <t>r11.11</t>
+  </si>
+  <si>
+    <t>r11.12</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r2.12 Battle Board&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The battle board is an abstract display used to resolve engagements with enemy forces. Your tank is placed in the center of this display and the action of an engagement revolves 
+around it through the use of pieces representing enemy units and other informational markers. A detailed explanation is given in 
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;B126
+                 &lt;InlineUIContainer&gt;&lt;Image Name='MapBattle'  Height='400' Width='400'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.0 Sherman Movement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Movement by your tank on the Battle Board is represented by you ordering one of the following crew actions: Forward, Forward to Hull Down, Reverse, or Reverse to Hull Down. However, due to the abstraction of the Battle Board system of sectors and zones radiating out from the hub your tank occupies, your tank never moves anywhere. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Instead, what actually happens is that enemy units shift their positions on the Battle Board relative to your tank&amp;apos;s position. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, assume your tank is facing a sector containing an enemy tank at long range. If you order &amp;quot;Forward&amp;quot;, the enemy unit tank changes from long range to the medium range zone and your tank remains where it is located in the center. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The four tank movement crew actions are resolved by refering to the two part 
+&lt;InlineUIContainer&gt;&lt;Button Content='Movement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table and rolling 2D. 
+The Part I of this table determines the effect of movement on your tank. The Part II determines the effect, if any, on the position and facing of enemy units.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Effect on your Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Effect on Enemy Unit&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Leaving the Battle Area</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.11 Throwing a Track&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A tank with a thrown track may not move or pivot for the remainder of the battle. Your tank sits where it is until it is knocked out or until all enemy units withdraw or are eliminated.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the Battle Board is cleared of enemy units, the day of combat is finished for your tank. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The crew of a disabled tank may abandon the vehicle, but each man must roll once on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Wounds' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table while making his escape. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Go to Evening Debriefing 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c106ThrownTrack'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.12 Bogging Down&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A bogged down tank may not move or pivot until it freed itself. A bogged down tank attempts to free itself by ordering Reverse movement and rolling 2D on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Bogged Down' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Movement Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the result &amp;quot;Assistant Required&amp;quot; is rolled, the tank may not move or pivot or roll again on the table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When the battle ends, your tank is assumed to be freed with the help of friendly forces and play continues normally.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c105BoggedDown'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.24 MG Zones&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+MGs may also be fired into zones that contain no suitable MG targets. This is a type of Advancing Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark the area with the correct Advancing Fire marker for that MG and roll for the gun malfunction and ammo use. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If enemy units move into the zone during the Enemy Action Phase per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+roll normally to see iif the MG fire KO&amp;apos;s them. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Advancing Fire in a zone will also reduce the chance and effectiveness of a Panzerfaust attack originating from that zone per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r11.1 Effect on your Tank&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ordering movement can result in no effect or one of the three possible states:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Throwing a Track&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Bogging Down&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hulled Down&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine what occurs by rolling 2D on Part I of the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Movement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Find the number rolled under the movement action you ordered and read along the row of the number to the left to find the result. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The number rolled is modifed by the ratings of the driver and possible the commander, as well as weather conditions. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.91  Rating Improvements&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll for rating improvements for each surviving crew member. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D for each crew member. If the number rolled is higher than the crew member's current rating, his rating is improved by one. If the number is less than or equal to his current rating, there is no change. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r7.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+for details about crew ratings.</t>
+  </si>
+  <si>
+    <t>r11.31</t>
+  </si>
+  <si>
+    <t>r11.32</t>
+  </si>
+  <si>
+    <t>r11.33</t>
+  </si>
+  <si>
+    <t>r11.34</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.31 Retreat&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A retreat occurs when your tank faces either Sector 1, 2, or 3 and moves forward, or faces one of the other three sectors and moves backward. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An advance occurs when your tank faces either Sector 4-5, 6-8, or 9-10 and moves forward, or faces one of the other three sectors and moves backwards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r11.2 Effect on Enemy Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The unmodified number rolled on the white die for the roll on Part I determines the effect of movement on the positioning of enemy units.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Find the number rolled along the left side of the table and read across to the column under the movement action ordered. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Depending on whether you were moving forward or reverse, enemy units may move towards you, away from you, remain in place and change facing, or remain unchanged. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Movement of enemy units on the Battle Board take place according to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Move Diagram' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If an enemy vehicle is required to change facing, roll on the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table, Part II (Vehicle Facing), to see if the vehicle&amp;apos;s facing changes. It is possible the facing will not change. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.32 Enemy Moved Off Board&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you leave an engagement, place the enemy units that were still in play up to the moment of your leaving in the area on the Movement Board where the engagement took place. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you reenter that area again before reaching your exit area, another engagement is automatically triggered, and the remaining units are added to those units that are activated normally.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.33 Reentering Area&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you retreat from an engagement, your task force returns to the area which you last occupied. If you advance out of an engagement by moving forward, place your Task Force marker in any area adjacent to the one you left, except the area from which you entered it. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Leaving an engagement uses up the time that would have normally been expended to move into the new area.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.3 Leaving the Battle Board&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+It is possible for your tank and the accompanying friendly forces to leave the Battle Board before an engagement is finished. This event can be triggered by your tank moving either forward or backward. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Your task force is assumed to have left the Battle Board when movement by your tank causes all enemy units on the display to shift from from a long range zone off the board. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, assume the only enemy units in play are in the long range zone of Sector 6-8 (the sector your tank is facing) and you order reverse movement.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the effect of your movement is for the enemy units to move back off the board, your task force is considered to have instead retreated. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Retreat&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Moved Off Board&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Reentering Area&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing to New Area</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r11.34 Advancing to New Area&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you enter a new area not marked by a US Control marker, go back to step 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, Prepare for Battle, and complete 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Then skip to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire choice.</t>
   </si>
 </sst>
 </file>
@@ -3037,10 +3287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B300"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3126,7 +3376,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -3142,7 +3392,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -3150,7 +3400,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,367 +3408,367 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="B39" s="2" t="s">
-        <v>213</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3526,7 +3776,7 @@
         <v>28</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3534,7 +3784,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -3542,1144 +3792,1288 @@
         <v>30</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>262</v>
+        <v>406</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>263</v>
+        <v>409</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>264</v>
+        <v>411</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>266</v>
+        <v>413</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>267</v>
+        <v>414</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>268</v>
+        <v>415</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>272</v>
+        <v>424</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>274</v>
+        <v>422</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>280</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>292</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>276</v>
+        <v>433</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>295</v>
+        <v>435</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B186" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B170" s="2" t="s">
+    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="B207" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B210" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+    <row r="212" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B212" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+    <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B216" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B199" s="3" t="s">
+    <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
-    </row>
-    <row r="300" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+    </row>
+    <row r="318" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:B403">
-    <sortCondition ref="A228:A403"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A246:B421">
+    <sortCondition ref="A246:A421"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2483724E-F741-4672-96B8-D6A1AC8AF80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63BBEF1-A036-46C2-A1B4-0BFC3A204568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
   <si>
     <t>r20.1</t>
   </si>
@@ -2654,10 +2654,6 @@
     <t>r13.0</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r13.0 Enemy Action &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>r10.0</t>
   </si>
   <si>
@@ -2915,6 +2911,197 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; through 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.46' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Then skip to 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advancing Fire choice.</t>
+  </si>
+  <si>
+    <t>r15.0</t>
+  </si>
+  <si>
+    <t>r15.1</t>
+  </si>
+  <si>
+    <t>r15.2</t>
+  </si>
+  <si>
+    <t>r15.3</t>
+  </si>
+  <si>
+    <t>r15.4</t>
+  </si>
+  <si>
+    <t>r15.5</t>
+  </si>
+  <si>
+    <t>r15.6</t>
+  </si>
+  <si>
+    <t>r15.7</t>
+  </si>
+  <si>
+    <t>r15.8</t>
+  </si>
+  <si>
+    <t>r15.9</t>
+  </si>
+  <si>
+    <t>r15.10</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.1 Time Passes&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.0 Random Events&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 2D on the Random Events Table during the Random Events Phase of the Battle Round Sequence. Resolve the event immediately.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Time Passes&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Friendly Artillery&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Artillery&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Mines&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Panzerfaust Attack&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.6' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Harassing Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Friendly Advance&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.8' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Reinforcement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Advance&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.10' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Flanking Fire</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.2 Friendly Artillery&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.3 Enemy Artillery&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.4 Mines&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.5 Panzerfaust Attack&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.6 Harassing Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.7 Friendly Advance&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.8 Enemy Reinforcement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.9 Enemy Advance&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.10 Flanking Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r13.1</t>
+  </si>
+  <si>
+    <t>r13.11</t>
+  </si>
+  <si>
+    <t>r13.12</t>
+  </si>
+  <si>
+    <t>r13.13</t>
+  </si>
+  <si>
+    <t>r13.14</t>
+  </si>
+  <si>
+    <t>r13.3</t>
+  </si>
+  <si>
+    <t>r13.2</t>
+  </si>
+  <si>
+    <t>r13.4</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.3 Fire Versus Any Tank &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.4 Fire Versus Your Tank &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r13.15</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.0 Enemy Action &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the enemy action phase of the Battle Round Sequence, refer to the respective table:
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, or 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll for each unit on the Battle Board. Enemy units will either do nothing, move to another zone (or off the board), move to another zone, or fire their weapons.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Movement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Infantry&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.1 Movement &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units move n four direcitons: &lt;LineBreak/&gt;
+F = Forward&lt;LineBreak/&gt;
+B = Backward&lt;LineBreak/&gt;
+L = Left&lt;LineBreak/&gt;
+R = Right
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Forward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Backward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Right or Left&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Into US Control &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Moving Marker</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.11 Move Forward &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit moving forward remains in the same sector, but moves one zone close to the hexagonal hub.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If it is already at close range, it jumps to close range in the sector on the other side of the hub direclty opposite the sector it now occupies.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.12 Move Backward &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit moving backward remains in the same sector, but move sone zone away from the hub. A unit already at long range in Sectors 4-5, 6-8, or 9-10 is removed from play.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit alreayd at long range in Sectors 1, 2, or 3 is removed from the Battle Board and placed on the Movement Board in the area you moved out of to enter the current area. Remove the US Control marker from that area if present.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.13 Move Right or Left &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Units moving to the right or left remain at the same range but move one zone clockwise or counterclockwise respectivley.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.14 Move Into US Control &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If an enemy unit moves into a sector marked US Control, remove the US Control marker.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.15 Moving Marker &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark moving enemy units with a Moving marker. Remove any Spotted, Hidden, or terrain markers. Immediately reroll for new facing and/or terrain on the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c13Moving'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r13.2 Fire Versus Infantry &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy SPG, Tank, SPW, PSW, LW, and MG units may attempt to kill infantry squads of the forces friendly to you. Refere to the section of the </t>
   </si>
 </sst>
 </file>
@@ -3287,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3523,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3608,7 +3795,7 @@
         <v>191</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4221,138 +4408,138 @@
     </row>
     <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4483,597 +4670,757 @@
         <v>292</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>404</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="172" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B174" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="175" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="176" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="178" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="179" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="180" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="181" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+    <row r="185" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="187" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+    <row r="191" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+    <row r="192" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+    <row r="193" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="194" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="195" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="196" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="198" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="200" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="201" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+    <row r="203" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B203" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="204" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B204" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+    <row r="205" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B206" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="207" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+    <row r="210" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+    <row r="211" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+    <row r="212" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="213" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+    <row r="214" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+    <row r="215" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+    <row r="216" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+    <row r="218" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+    <row r="219" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+    <row r="220" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="221" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+    <row r="223" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+    <row r="224" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+    <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+    <row r="226" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B227" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="228" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+    <row r="229" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+    <row r="230" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+    <row r="231" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+    <row r="232" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+    <row r="233" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B233" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+    <row r="234" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+    <row r="235" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B235" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+    <row r="236" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B236" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+    <row r="237" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+    <row r="238" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B238" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="239" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B239" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+    <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B240" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="241" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B241" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="4"/>
-    </row>
-    <row r="318" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="4"/>
+    </row>
+    <row r="338" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A246:B421">
-    <sortCondition ref="A246:A421"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A266:B441">
+    <sortCondition ref="A266:A441"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63BBEF1-A036-46C2-A1B4-0BFC3A204568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C54573-70E8-4B88-9770-8835B6B5435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>r20.1</t>
   </si>
@@ -1663,22 +1663,6 @@
 Table per 
 &lt;InlineUIContainer&gt;&lt;Button Content='r22.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If die roll is less than 7, consult appropriate 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, or 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  Action Table for each enemy unit per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
- Additionally, roll for random events on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. Then go to 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Regardless of ambush status, continue with
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt; 
-to start the fight.</t>
   </si>
   <si>
     <t>r4.61</t>
@@ -2943,11 +2927,216 @@
     <t>r15.9</t>
   </si>
   <si>
-    <t>r15.10</t>
+    <t>r13.1</t>
+  </si>
+  <si>
+    <t>r13.11</t>
+  </si>
+  <si>
+    <t>r13.12</t>
+  </si>
+  <si>
+    <t>r13.13</t>
+  </si>
+  <si>
+    <t>r13.14</t>
+  </si>
+  <si>
+    <t>r13.3</t>
+  </si>
+  <si>
+    <t>r13.2</t>
+  </si>
+  <si>
+    <t>r13.4</t>
+  </si>
+  <si>
+    <t>r13.15</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.11 Move Forward &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit moving forward remains in the same sector, but moves one zone close to the hexagonal hub.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If it is already at close range, it jumps to close range in the sector on the other side of the hub direclty opposite the sector it now occupies.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.13 Move Right or Left &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Units moving to the right or left remain at the same range but move one zone clockwise or counterclockwise respectivley.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.14 Move Into US Control &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If an enemy unit moves into a sector marked US Control, remove the US Control marker.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.15 Moving Marker &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark moving enemy units with a Moving marker. Remove any Spotted, Hidden, or terrain markers. Immediately reroll for new facing and/or terrain on the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c13Moving'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.0 Enemy Action &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the enemy action phase of the Battle Round Sequence, refer to the respective table: 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, or 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll for each enemy unit on the Battle Board. Enemy units will either do nothing, move to another zone (or off the board), or fire their weapons.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Movement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Infantry&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.1 Movement &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units move in four direcitons: &lt;LineBreak/&gt;
+F = Forward&lt;LineBreak/&gt;
+B = Backward&lt;LineBreak/&gt;
+L = Left&lt;LineBreak/&gt;
+R = Right
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Forward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Backward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Right or Left&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Into US Control &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Moving Marker</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.12 Move Backward &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit moving backward remains in the same sector, but moves one zone away from the hub. A unit already at long range in Sectors 4-5, 6-8, or 9-10 is removed from play.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A unit already at long range in Sectors 1, 2, or 3 is removed from the Battle Board and placed on the Movement Board in the area you moved out of to enter the current area. Remove the US Control marker from that area if present.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.4 Fire Versus Your Tank &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The enemy unit is trying to KO your tank. First roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Hit' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to see if the enemy shot hits your tank.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If it misses, continue resolving the action of the remaining enemy units. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the shot hits, roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Kill' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to see if the shot penetrates your tank. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;If the shot does not penetrate, continue to resolve enemy action. If it does penetrate, your tank is knocked out.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r15.1 Time Passes&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Fifteen minutes of time has passed since the beginning of the battle. Mark off 15 minutes on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the passing of time moves the time past sunset, the battle continues as normal until resolved. Assume enough daylight remains to allow combat.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Once the battle is finished, the day ends.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.2 Friendly Artillery&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Friendly Artillery represents the fire of support guns. Resolve this fire by rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+against each enemy unit on the Battle Board.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Note the special modifiers for artillery versus armored vehicles.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.4 Mines&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mines represent the danger of passing over buried mines when moving into enemy territory. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If your tank is not moving, this event is ignored. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you are moving, refer to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Minefield' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.5 Panzerfaust Attack&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This event represents the random chance of an attack on your tank by a hand-held antitank rocket launcher. The German army of WW II was equipped with the Panzerchreck (a reusable launcher similar to the US bazooka) and the Panzerfaust ( a more commone disposable launcher).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+These weapons fired a shaped charge something like a lump of putty that ignited on impact and would burn through armor. They send a jet of molten metal and burning gas into the tank. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Refer to the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Panzerfaust' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attack Table 
+to determine whether your tank is the object of this type of attack. If so, the table indicates whether the attack is succcessful.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c107Panzerfaust'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.6 Harassing Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This event represents the random spraying of fire at your tank in the hopes of causing casualties to exposed crewmen. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+It was also possible for tis type of fire to cause collateral damage to your tank such as the damaging of periscopes, sights, adn the AA MG. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When this event is rolled, roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Collateral' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Damage Table.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.8 Enemy Reinforcement&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When this event occurs, immediately activate one additional enemy unit for an Advance scenario and two additional for Battle/Counterattack scenarios.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the Battle Board 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+for the position of each new unit.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.3 Fire Versus Any Tank &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy SPG, tank and AT gun units may attempt to kill Sherman tanks of the forces friendly to you. Refer to the section of the &amp;quot;To Kill Sherman Tank&amp;quot; rows on the respective table:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, or &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The range for the enemy fire is determined by the range of the zone the unit occupies.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 2D. If the number rolled is less than or equal to the number shown on the table, one friendly tank is KO&amp;apos;ed. Record the loss of the tank on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.3 Enemy Artillery&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy Arillery represents the fire of guns in support of the enem units on the Battle Board and can result in the loss of friendly infantry squads. Also, it can damage your tank and wound exposed crew members. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D : &lt;LineBreak/&gt;
+1-6 = 1 squad lost &lt;LineBreak/&gt;
+7-9 = 2 squads lost &lt;LineBreak/&gt;
+10  = 3 squads lost &lt;LineBreak/&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Also, roll on the &lt;InlineUIContainer&gt;&lt;Button Content='Collateral' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Damage Table.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.7 Friendly Advance&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This event represents the movement of friendly forces. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place one US Control marker in a sector of your choice that is empty of enemy units and adjacent to an already friendly sector.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ignore this event if no sector qualifies.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.9 Enemy Advance&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This event represents the movement of enemy forces and the withdrawal of friendly forces.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Remove one US Control marker from the a Battle Board sector adjacent to an enemy unit but do not move the enemy unit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If two sectors are eligible, roll 1D:  &lt;LineBreak/&gt;
+1-5 = left hand sector  &lt;LineBreak/&gt;
+6-10 = right hand sector.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Ignore this event if no sector qualifies.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r15.0 Random Events&lt;/Bold&gt; 
@@ -2963,145 +3152,115 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r15.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Friendly Advance&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r15.8' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Reinforcement&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r15.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Advance&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r15.10' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Flanking Fire</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r15.2 Friendly Artillery&lt;/Bold&gt; 
+&lt;InlineUIContainer&gt;&lt;Button Content='r15.A' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Flanking Fire</t>
+  </si>
+  <si>
+    <t>r15.A</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r15.A Flanking Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+This event represents aggressive movement and fire from friendly forces. Roll against each enemy unit on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table with a die roll modifier of -10.</t>
+  </si>
+  <si>
+    <t>r4.7</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.2 Fire Versus Infantry &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy SPG, Tank, SPW, PSW, LW, and MG units may attempt to kill infantry squads of the forces friendly to you. Refer to the section of the &amp;quot;To Kill Infantry Squad&amp;quot; rows on the respective table:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
++B31&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The range for the enemy fire is determined by the range of the zone the unit occupies.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 2D. If the number rolled is less than or equal to the number shown on the table, one US infantry squad is KO&amp;apos;ed. Record the loss of the squad on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If die roll is less than 7, consult appropriate table for each enemy unit:
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, or &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for enemy actions and 
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for ambushes in Counterattack scenario. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
+Additionally, roll for random events on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. Then go to 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Regardless of ambush status, continue with
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to start the fight.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.7  Battle Round Sequence&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Orders Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Actions Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Enemy Actions Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Friendly Action Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Random Events Phase</t>
+  </si>
+  <si>
+    <t>r4.71</t>
+  </si>
+  <si>
+    <t>r4.72</t>
+  </si>
+  <si>
+    <t>r4.73</t>
+  </si>
+  <si>
+    <t>r4.74</t>
+  </si>
+  <si>
+    <t>r4.75</t>
+  </si>
+  <si>
+    <t>r4.76</t>
+  </si>
+  <si>
+    <t>r4.77</t>
+  </si>
+  <si>
+    <t>r4.8</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.71  Smoke Depletion Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.3 Enemy Artillery&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.72  Spotting Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.4 Mines&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.73  Orders Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.5 Panzerfaust Attack&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.74  Crew Actions Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.6 Harassing Fire&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.75  Enemy Actions Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.7 Friendly Advance&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.76  Friendly Action Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.8 Enemy Reinforcement&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.77   Random Events Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r15.9 Enemy Advance&lt;/Bold&gt; 
+    <t>&lt;Bold&gt;r4.8  When Your Tanks Is Target&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r15.10 Flanking Fire&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>r13.1</t>
-  </si>
-  <si>
-    <t>r13.11</t>
-  </si>
-  <si>
-    <t>r13.12</t>
-  </si>
-  <si>
-    <t>r13.13</t>
-  </si>
-  <si>
-    <t>r13.14</t>
-  </si>
-  <si>
-    <t>r13.3</t>
-  </si>
-  <si>
-    <t>r13.2</t>
-  </si>
-  <si>
-    <t>r13.4</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.3 Fire Versus Any Tank &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.4 Fire Versus Your Tank &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>r13.15</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.0 Enemy Action &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-During the enemy action phase of the Battle Round Sequence, refer to the respective table:
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, or 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll for each unit on the Battle Board. Enemy units will either do nothing, move to another zone (or off the board), move to another zone, or fire their weapons.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Movement&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Infantry&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.1 Movement &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units move n four direcitons: &lt;LineBreak/&gt;
-F = Forward&lt;LineBreak/&gt;
-B = Backward&lt;LineBreak/&gt;
-L = Left&lt;LineBreak/&gt;
-R = Right
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Forward&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Backward&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Right or Left&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Into US Control &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Moving Marker</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.11 Move Forward &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A unit moving forward remains in the same sector, but moves one zone close to the hexagonal hub.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If it is already at close range, it jumps to close range in the sector on the other side of the hub direclty opposite the sector it now occupies.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.12 Move Backward &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A unit moving backward remains in the same sector, but move sone zone away from the hub. A unit already at long range in Sectors 4-5, 6-8, or 9-10 is removed from play.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-A unit alreayd at long range in Sectors 1, 2, or 3 is removed from the Battle Board and placed on the Movement Board in the area you moved out of to enter the current area. Remove the US Control marker from that area if present.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.13 Move Right or Left &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Units moving to the right or left remain at the same range but move one zone clockwise or counterclockwise respectivley.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.14 Move Into US Control &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If an enemy unit moves into a sector marked US Control, remove the US Control marker.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r13.15 Moving Marker &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mark moving enemy units with a Moving marker. Remove any Spotted, Hidden, or terrain markers. Immediately reroll for new facing and/or terrain on the Battle Board 
-&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                      &lt;InlineUIContainer&gt;&lt;Image Name='c13Moving'  Height='50' Width='50'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r13.2 Fire Versus Infantry &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy SPG, Tank, SPW, PSW, LW, and MG units may attempt to kill infantry squads of the forces friendly to you. Refere to the section of the </t>
   </si>
 </sst>
 </file>
@@ -3474,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -3563,7 +3722,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -3744,7 +3903,7 @@
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>249</v>
@@ -3752,7 +3911,7 @@
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>250</v>
@@ -3760,7 +3919,7 @@
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>251</v>
@@ -3768,1659 +3927,1731 @@
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>232</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B73" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="B74" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B120" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" s="2" t="s">
+    <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B116" s="2" t="s">
+    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="B126" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B117" s="2" t="s">
+    </row>
+    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="B127" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>265</v>
+        <v>430</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>283</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>266</v>
+        <v>431</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B142" s="2" t="s">
+    <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B148" s="2" t="s">
+    <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B149" s="2" t="s">
+      <c r="B168" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>83</v>
+        <v>445</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>85</v>
+        <v>446</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>92</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+    <row r="192" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B193" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+    <row r="194" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B215" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+    <row r="216" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+    <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B217" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+    <row r="218" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+    <row r="219" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+    <row r="220" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B220" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+    <row r="221" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B221" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+    <row r="222" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+    <row r="223" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+    <row r="224" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+    <row r="225" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+    <row r="226" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+    <row r="227" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+    <row r="228" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    <row r="229" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+    <row r="230" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B230" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+    <row r="231" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B231" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+    <row r="232" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B242" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="243" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B243" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+    <row r="244" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="245" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B245" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+    <row r="246" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B246" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B247" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+    <row r="248" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+    <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B249" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+    <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="4"/>
-    </row>
-    <row r="338" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+    </row>
+    <row r="347" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A266:B441">
-    <sortCondition ref="A266:A441"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A275:B450">
+    <sortCondition ref="A275:A450"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C54573-70E8-4B88-9770-8835B6B5435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A3FAF72-A758-412F-9314-F50890F9272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
   <si>
     <t>r20.1</t>
   </si>
@@ -456,17 +456,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r19.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Replacing Crew Casualties&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r19.1 Inside the Tank&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Crewman with no hatch or with a closed hatch are inside the tank and can only be hurt by gunfire or a Panzerfaust attack which penetrates the tank's armor. 
-When an enemy attack successfully rolls To Kill your tank, it has been knocked out and your must check crew casualties.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Exploding Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Non-Exploding Tank&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Bail Out&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r19.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Rescue&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r7.1 Ratings for New Men&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Determine the rating for a new crew member by rolling 1D/2 rounded up. For example, a roll of five results in a rating of 3.  
@@ -754,44 +743,7 @@
     <t>r17.41</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r17.4 Unidentified Units&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy trucks, PSW, SPW, LW, and MG units are always identified. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When a PSW/SPW is activiated, roll immediately on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table to see which appears.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Tanks&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>r17.42</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
-resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-As a tank commander, you know either a tank, SPG, or AT gun is present; but you do not know which type of each unit is there until you identify it during the Spotting Phase. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-All unidentified units are:&lt;LineBreak/&gt;
--- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
--- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
--- AT guns -&gt; Pak 43 (88LL)
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When one of these is successfully identified, consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
- Table to determine what type of unit is actually present.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r17.21 Sector Restrictions&lt;/Bold&gt; 
@@ -816,13 +768,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Spotting Restrictions &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Hidden Units &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Units</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.12 Spotting Results&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the roll is equal to half or less than half of the crewman's rating (rounded down), he has also identified the unit. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table to detemine the specifc type of previously unidentified enemy tanks, SPs, and AT guns.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r17.14 Automatic Spotting Failure&lt;/Bold&gt; 
@@ -2280,17 +2225,6 @@
                                       &lt;InlineUIContainer&gt;&lt;Image Name='c72RepairAaMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r8.61 Throw Smoke Grenades&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Either the commander or gunner may throw smoke grenades from their open hatch. Grenades must be available as shown on the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContaine. Place a smoke marker on the tank per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-He may spot per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                      &lt;InlineUIContainer&gt;&lt;Image Name='c70ThrowSmokeGrenade'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r8.52 Repair Bow MG&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Roll on the 
@@ -2417,14 +2351,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r9.33' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Marking Target&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r9.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire Roll&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r9.35' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Target Acquisition&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-+B93     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r9.33 Marking Target&lt;/Bold&gt; 
@@ -3231,18 +3157,6 @@
     <t>r4.8</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.71  Smoke Depletion Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.72  Spotting Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.73  Orders Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.74  Crew Actions Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
@@ -3261,6 +3175,311 @@
   <si>
     <t>&lt;Bold&gt;r4.8  When Your Tanks Is Target&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>r18.0</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.73  Orders Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1. Hatch Segment: Open or close hatches by placing or removing Open Hatch marks on the Tank Card.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2. Orders Segment: Mark crew battle actions by placing Crew Actions markers in teh crew boxes of the Tank Card per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Place only one marker per crewman.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3. Ammo Reload Segment: Mark ammo reload if firing main gun by placing the Gun Reload marker in the box on the Tank Card for the ammo type you wish to reload per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Also mark the ammo is to be drawn from the ready rack by placing the Ready Rack Ammo Reload marker with the Gun Reload marker. Continue with &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r18.1</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.1  Placing Smoke&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Grenades&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Bombs&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; WP Rounds&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; HCBI Rounds&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.15' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Friendy Action&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.16' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Counter Limit
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='c108Smoke1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c109Smoke2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c110Smoke3'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r18.11</t>
+  </si>
+  <si>
+    <t>r18.12</t>
+  </si>
+  <si>
+    <t>r18.13</t>
+  </si>
+  <si>
+    <t>r18.14</t>
+  </si>
+  <si>
+    <t>r18.15</t>
+  </si>
+  <si>
+    <t>r18.16</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.11  Smoke Grenades&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke Grenades place a Smoke marker on your tank. Once grenade is thrown by a crewman performing the Throw Smoke Grenade action per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+ Mark off one smoke grenade on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r19.1 Inside the Tank&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Crewman with no hatch or with a closed hatch are inside the tank and can only be hurt by gunfire or a Panzerfaust attack which penetrates the tank's armor. 
+When an enemy attack successfully rolls To Kill your tank, it has been knocked out and your must check crew casualties.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Exploding Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Non-Exploding Tank&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Bail Out&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Rescue</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.12  Smoke Bombs&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke bombs are fired from tanks having a 2in smoke mortar by the loader performing a Fire Mortar action per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.34' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place a smoke Smoke marker in the close range zone directly to the front of the turret. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off one smoke bomb on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When the loader fires the smoke mortar, he automatically reloads it with another smoke bomb as long as bombs remain.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.13  WP Rounds&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+WP rounds are fired from the main gun as Area Fire on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If a round does not hit, no smoke is placed. If the rounds hits, place one Smoke marker in the target zone.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off one WP round on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.14  HBCI Rounds&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+HCBI rounds are fixed from the main gun in the same manner as WP rounds. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+However, if the round hits, place two Smoke markers in the target zone. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off one WP round on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.15  Friendly Action&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Friendly Action on the &lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+may place a Smoke marker when rolling against enemy AT guns, SPGs, and tanks. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place a Smoke marker in the zone the target unit occupies</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.16  Smoke Counter Limit&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The amount of smoke in play at any one time is limited by the number of Smoke markers in the counter mix. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If all Smoke markers are in play, more smoke cannot be placed.</t>
+  </si>
+  <si>
+    <t>r18.2</t>
+  </si>
+  <si>
+    <t>r18.21</t>
+  </si>
+  <si>
+    <t>r18.22</t>
+  </si>
+  <si>
+    <t>r18.23</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.23  Smoke In Rain&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke depletes twice as fast during rain weather.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.0 Smoke&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke can be placed on the Battle Board as a tactical tool to obstruct the fire of enemy units. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke can be created from smoke grenades, smoke bombs, fired from a 2in smoke mortar, and from WP or HCBI rounds fired from the main gun.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Not all Sherman tanks have a smoke mortar, and only tanks with a 75mm gun may fire WP and HCBI rounds. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke may also be placed by 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table. Enemy units may never place smoke.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Placing Smoke&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Depleting Smoke&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Effects
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='c108Smoke1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c109Smoke2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c110Smoke3'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r8.61 Throw Smoke Grenades&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Either the commander or gunner may throw smoke grenades from their open hatch. Grenades must be available as shown on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Place a smoke marker on the tank per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+He may spot per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c70ThrowSmokeGrenade'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.21  Smoke Depletion Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke markers are printed in black on their front and gray on the back. When first placed, the black side is shown. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Smoke Depletion Phase per 
+&lt;InlineUIContainer&gt;&lt;Image Name='r4.71'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; 
+of the Battle Round Sequence, one smoke marker is depleted in each zone containing Smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Deplete smoke by either flipping one marker in each area to its gray side or by removing one marker already on its gray side.</t>
+  </si>
+  <si>
+    <t>r18.3</t>
+  </si>
+  <si>
+    <t>r18.31</t>
+  </si>
+  <si>
+    <t>r18.32</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.3 Smoke Effects&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; On Fire Attacks&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; On Spotting</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.32 On Spotting&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Add +1 to the die roll when attempting to spot for each Smoke marker in the target&amp;apos;s zone, in intervening zones, and on your tank. Refer to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for the spotting rules</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.31 On Fire Attacks&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All fire into, out of, and through a zone containing smoke has a reduced chance of hitting its target. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Each Smoke marker encountered reduces the base number needed 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table by one half (round down). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, if employing Direct Fire at medium range infantry target with a 76L gun (base to hit number of 45), and there are two Smoke markers in the target&amp;apos;s zone and one in the close range zone, the to hit number is reduced to 05. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+( [0.5 x 0.5 x 0.5 = 1/8] ) x 45 = 5.6 rounded down to 5</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.2  Depleting Smoke&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Multiplier Markers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke In Rain
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='c111Smoke1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c112Smoke2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c113Smoke3'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r18.22  Smoke Multiplier Markers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Included in the mix of markers are several multiple Smoke markers, representing 2 or 3 Smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+These markers can be used to make change or replace several Smoke markers in one zone. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these markers already on it back side is depleted, make change with smaller smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, to deplete a x2 Smoke marker already on its back side, replace it with a single smoke marker on its front side. It takes four depletions to remove a x2 Smoke marker. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.71  Smoke Depletion Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Deplete smoke in each zone by flipping one full strength Smoke marker to its back side or by removing a Smoke marker already on its back side. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for rules on smoke. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.72  Spotting Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Determine what your crew can see by consulting the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Spotting' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+for each crew unit. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark those enemy units spotted or hidden with the Spotted and Hidden markers per rule 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Determine the specific unit type for any unit identified per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.73' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.12 Spotting Results&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the roll is equal to half or less than half of the crewman's rating (rounded down), he has also identified the unit. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to detemine the specifc type of previously unidentified enemy tanks, SPs, and AT guns.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.4 Unidentified Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy trucks, PSW, SPW, LW, and MG units are always identified. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When a PSW/SPW is activiated, roll immediately on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to see which appears.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Unidentified Tanks&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+As a tank commander, you know either a tank, SPG, or AT gun is present; but you do not know which type of each unit is there until you identify it during the Spotting Phase. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All unidentified units are:&lt;LineBreak/&gt;
+-- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
+-- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
+-- AT guns -&gt; Pak 43 (88LL)
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these is successfully identified, consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+ Table to determine what type of unit is actually present.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
+resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
   </si>
 </sst>
 </file>
@@ -3633,19 +3852,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="216.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="216.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -3653,7 +3872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="91.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -3661,7 +3880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -3669,7 +3888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -3677,15 +3896,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -3701,7 +3920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -3709,7 +3928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -3717,15 +3936,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -3733,479 +3952,479 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="B66" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="B67" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>30</v>
       </c>
@@ -4213,1445 +4432,1565 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B76" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="B78" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="B110" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+      <c r="B111" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B112" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B107" s="2" t="s">
+    <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B109" s="2" t="s">
+    <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B113" s="2" t="s">
+    <row r="124" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B114" s="2" t="s">
+    <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A150" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A153" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A155" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A156" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A161" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A170" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A172" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A173" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A175" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A178" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A180" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A182" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A183" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A185" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A186" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A189" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A190" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A198" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A200" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A201" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A204" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A215" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A217" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A225" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A230" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="91.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="104.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="255" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="B255" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="B256" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B242" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+    <row r="259" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B244" s="3" t="s">
+    </row>
+    <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B245" s="3" t="s">
+    <row r="265" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="B265" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="4"/>
-    </row>
-    <row r="347" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="4"/>
+    </row>
+    <row r="362" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A275:B450">
-    <sortCondition ref="A275:A450"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A290:B465">
+    <sortCondition ref="A290:A465"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A3FAF72-A758-412F-9314-F50890F9272E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B14F6544-AA34-4AD6-9F92-B6537AF3BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -391,14 +391,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r20.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Expected Enemy Resistance. </t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on teh calender, and go on to the next day.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.4 Counterattack Scenario&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 A Counterattack scenario represents the Division on defense against an enemy counterattack. 
@@ -2579,21 +2571,6 @@
     <t>r10.1</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r10.1 Description&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In addition to its main gun, the Sherman tank is armed with several machine guns (MGs). 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The .30 calibre bow MG is mounted in the front right hull and is fired by the assistant driver.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The .30 calibre co-axial MG is mounted in the turret front along teh same axis as the main gun and is fired by the gunner.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-The .50 calibre anti-aircraft (AA) MG is fixed to a pintle mount (post) on top of the turret and is fired by the commander. In some configurations, it can be fired by the loader.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Several hand held submachine guns (sub MGs) are carried in the turret and may be fired from open hatches.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                      &lt;InlineUIContainer&gt;&lt;Image Name='c51FireCoaxialMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r10.2</t>
   </si>
   <si>
@@ -3180,17 +3157,6 @@
     <t>r18.0</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.73  Orders Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1. Hatch Segment: Open or close hatches by placing or removing Open Hatch marks on the Tank Card.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-2. Orders Segment: Mark crew battle actions by placing Crew Actions markers in teh crew boxes of the Tank Card per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r8.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Place only one marker per crewman.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-3. Ammo Reload Segment: Mark ammo reload if firing main gun by placing the Gun Reload marker in the box on the Tank Card for the ammo type you wish to reload per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Also mark the ammo is to be drawn from the ready rack by placing the Ready Rack Ammo Reload marker with the Gun Reload marker. Continue with &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r18.1</t>
   </si>
   <si>
@@ -3344,17 +3310,6 @@
                                       &lt;InlineUIContainer&gt;&lt;Image Name='c70ThrowSmokeGrenade'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r18.21  Smoke Depletion Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Smoke markers are printed in black on their front and gray on the back. When first placed, the black side is shown. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-During the Smoke Depletion Phase per 
-&lt;InlineUIContainer&gt;&lt;Image Name='r4.71'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; 
-of the Battle Round Sequence, one smoke marker is depleted in each zone containing Smoke markers. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Deplete smoke by either flipping one marker in each area to its gray side or by removing one marker already on its gray side.</t>
-  </si>
-  <si>
     <t>r18.3</t>
   </si>
   <si>
@@ -3457,6 +3412,26 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
+resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.21  Smoke Depletion Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke markers are printed in black on their front and gray on the back. When first placed, the black side is shown. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Smoke Depletion Phase per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the Battle Round Sequence, one smoke marker is depleted in each zone containing Smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Deplete smoke by either flipping one marker in each area to its gray side or by removing one marker already on its gray side.</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
@@ -3466,20 +3441,45 @@
 All unidentified units are:&lt;LineBreak/&gt;
 -- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
 -- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
--- AT guns -&gt; Pak 43 (88LL)
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When one of these is successfully identified, consult the 
+-- AT guns -&gt; Pak 43 (88LL) 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these is successfully identified, consult the
 &lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
- Table to determine what type of unit is actually present.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
-resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
+Table to determine what type of unit is actually present.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r10.1 Description&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In addition to its main gun, the Sherman tank is armed with several machine guns (MGs). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .30 calibre bow MG is mounted in the front right hull and is fired by the assistant driver.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .30 calibre co-axial MG is mounted in the turret front along the same axis as the main gun and is fired by the gunner.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The .50 calibre anti-aircraft (AA) MG is fixed to a pintle mount (post) on top of the turret and is fired by the commander. In some configurations, it can be fired by the loader.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Several hand held submachine guns (sub MGs) are carried in the turret and may be fired from open hatches.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                      &lt;InlineUIContainer&gt;&lt;Image Name='c51FireCoaxialMg'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.12 Probability of Combat&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D. If the number rolled is less than or equal to the number shown on the scenario code, you go to action this day and begin the Sequence of Play 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is higher than the code number, you miss combat this day. Mark the day off as completed on the calender, and go on to the next day.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.73  Orders Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1. Hatch Segment: Open or close hatches by placing or removing Open Hatch marks on the Tank Card.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2. Orders Segment: Mark crew battle actions by placing Crew Actions markers in the crew boxes of the Tank Card per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r8.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Place only one marker per crewman.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3. Ammo Reload Segment: Mark ammo reload if firing main gun by placing the Gun Reload marker in the box on the Tank Card for the ammo type you wish to reload per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Also, mark the ammo is to be drawn from the ready rack by placing the Ready Rack Ammo Reload marker with the Gun Reload marker. Continue with &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -3854,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,7 +3901,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3941,7 +3941,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -3957,7 +3957,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -3965,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -3973,439 +3973,439 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>491</v>
+        <v>529</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4413,7 +4413,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4421,7 +4421,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -4429,1183 +4429,1183 @@
         <v>30</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5613,7 +5613,7 @@
         <v>31</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -5621,7 +5621,7 @@
         <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5677,7 +5677,7 @@
         <v>41</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5693,7 +5693,7 @@
         <v>43</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>44</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5714,10 +5714,10 @@
     </row>
     <row r="232" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -5741,7 +5741,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>66</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -5773,7 +5773,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -5781,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -5789,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="216" x14ac:dyDescent="0.3">
@@ -5797,7 +5797,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5818,170 +5818,170 @@
     </row>
     <row r="245" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B14F6544-AA34-4AD6-9F92-B6537AF3BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BFA92B-AD84-43C1-81CA-32392AC0D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
   <si>
     <t>r20.1</t>
   </si>
@@ -1120,19 +1120,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Artillery Support &lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; AirStrikes&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r23.2 Air Strike&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Air Strikes function very similarly to artillery support 
-&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with a few exceptions. 
-They use more time (30 minutes). They are less likely to arrive (1D = 1-4). They are more effective against armor targets. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Also, air strikes may not be called for during overcast or falling snow weather. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-While the 30 minutes spent calling for air strike is passing, you may perform one additional 15 minute operation (such as call for arilltery support or check an additional area for resistance).
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Name='c40AirStrike'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Bold&gt;r4.54.5  Enter Adjacent Area&lt;/Bold&gt;
@@ -3480,6 +3467,186 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 3. Ammo Reload Segment: Mark ammo reload if firing main gun by placing the Gun Reload marker in the box on the Tank Card for the ammo type you wish to reload per 
 &lt;InlineUIContainer&gt;&lt;Button Content='r5.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Also, mark the ammo is to be drawn from the ready rack by placing the Ready Rack Ammo Reload marker with the Gun Reload marker. Continue with &lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>r27.0</t>
+  </si>
+  <si>
+    <t>r27.1</t>
+  </si>
+  <si>
+    <t>r27.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r27.1 Crew Ratings &lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D separately for each crewman, even those joining the crew during the refit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the number rolled is higher than the crewman&amp;apos;s current rating, his rating is increased by one. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Only one attempt is made per man for the entire refit period.</t>
+  </si>
+  <si>
+    <t>r27.21</t>
+  </si>
+  <si>
+    <t>r27.22</t>
+  </si>
+  <si>
+    <t>r27.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r27.23 Stabilizer Use&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In order to use the stabilizer, your crew must be trained in its use. If not trained, you may not fire the main gun during rounds when the tank is moved or pivoted. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Trained crews may fire the main gun when the tank is moving or pivoting, although with the pentalty shown on the To Hit Tables. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Gyrostabilizer training takes place during Refitting periods. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r27.0 Retrofitting&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the periods on the Combat Calendar marked Refitting, the Division is building itself back up to strength, replacing tanks, and retraining new crews. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During a refit period, you have the option of replacing your current tank per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r24.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the refit takes at least 7 days, you may attempt to improve your crew ratings per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r27.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+and train your crew to use the gyrostablilizer per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r27.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r27.22 Trained Crew&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Once trained, your crew stays so unless your gunner is lost. Other crew casulaties have no effect. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Loss of your gunner loses your training. No replaement gunners have this training.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r27.21 Training Crew&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During a refit of at least 7 days, you may have your crew trained in the use of the gyrostabalizier if the combined rating of the crew is 30 or higher. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; that the crew is gyroStabilizer trained.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r27.2 Gyrostabilizer&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A gyrostabilizer was attached to the main gun of the Sherman tank is to keep the gun stabilized, or steady, in the vertical axis (up-down). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When turned on, it would keep the gun in a level position while the tank moved.  In theory, this allowed the gunner to keep the gun aimed at a target when moving by adjusting only the turret&amp;apos;s rotation. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In practice, most crews found the Stabilizer dangerous (the gun would move up and down on its own) and difficult to use. However, others thought the Stabilizer was a great asset if properly used.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Training Crew&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Trained Crew&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r25.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Stabilizer Use</t>
+  </si>
+  <si>
+    <t>r24.0</t>
+  </si>
+  <si>
+    <t>r24.1</t>
+  </si>
+  <si>
+    <t>r24.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.2 Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Air Strikes function very similarly to artillery support 
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; with a few exceptions. 
+They use more time (30 minutes). They are less likely to arrive (1D = 1-4). They are more effective against armor targets. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Also, air strikes may not be called for during overcast or falling snow weather. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While the 30 minutes spent calling for air strike is passing, you may perform one additional 15 minute operation (such as call for atillery support or check an additional area for resistance).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c40AirStrike'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r24.2 Tank Replacement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+To replace your tank, consult the Tank 
+&lt;InlineUIContainer&gt;&lt;Button Content='Replacement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+Roll 2D under the column for the current month and read across the row from the number rolled to the list of tank models down the table&amp;apos;s left side to find the model your tank replacement.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Record your tank model on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Note that crews whose combined ratings total 35 or more do not have to roll for their new tank model but may instead choose the tank they receive.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r24.0 Tank Replacement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+PATTON&amp;apos;s BEST makes it possible for you to command any of 17 different variations of the M4 (Sherman) Medium tank used by the US Army forces in the fighting in northern Europe (and one important variant used by the Commonwealth forces only, i.e., the Firefly). 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In many cases the difference between models is slight, but giving you the chance to operate each may lead to a better understanding of why changes were made. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+The tank models available consist of four chasis: (M4, M4A1, M4A3, and M4A3E2), six different turrets, and usually two different guns (75 and 76L).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For each of the 17 Sherman variations, there is a separate Tank Card. The tank card for Tank #1 is printed on the game board, and the others are printed on different cards.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r24.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank Replacement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r24.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank Replacement Table</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r24.1 Tank Replacement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Players beginning a campaign game are issued an M4 tank with a type A turret with a 75 gun (Tank #1).
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tanks may be replaced udner two circumstances: after you have had a tank shot out from under you (knoched out) in combat or during a refit period on the Campaign 
+&lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+There is no historical basis for replacing tanks during refits, and players may keep their old model as long as they can. Destroyed tanks must be replaced per the Tank 
+&lt;InlineUIContainer&gt;&lt;Button Content='Replacement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.</t>
+  </si>
+  <si>
+    <t>r29.0</t>
+  </si>
+  <si>
+    <t>r29.1</t>
+  </si>
+  <si>
+    <t>r29.2</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r29.0 Fuel (Optional)&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All Sherman tank models carry a maxium of 35 units of fuel, where each unit equals 5 gallons (175 gallons total). During the Time Check step 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; of the sequence of play when you determine the amount of time and ammo already expended for the day, 
+the number rolled also deteremines the number of fuel units already used.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Subtract the number rolled from 35 to determine the number of fuel units remaining. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Thereafter, fuel is consumed for action on both the Movement and Battle Boards, and is subtracted from the remaining total with each use. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r29.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Movement Board Fuel Use&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r29.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Board Fuel Use</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r29.1 Movement Board Fuel Use&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Moving from one area to another on the Movement Board consumes 2 fuel units. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Successfully completing an ammo resupply operations refills the tank with fuel.  Put the fuel supply back to 25 units. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If your tank is out of fuel, assume the entire task force is out or low, and no movement on the Movement Board is possible until a successful ammo (and fuel) resupply occurs per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r29.2 Battle Board Fuel Use&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+While on the Battle Board, fuel is consumed during movement. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When the driver performs the actions Forward, Forward to Hull Down, Reversion, and Reverse to Hull Down, the number rolled on the color die determines if fuel is consumed.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the colored die is 1-3, mark off 1 unit of fuel. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+A tank with no fuel may not perform the above movement actions, nor may the tank pivot.</t>
   </si>
 </sst>
 </file>
@@ -3852,10 +4019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B362"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B277" sqref="B277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3901,7 +4068,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -3941,7 +4108,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -3981,7 +4148,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -4061,7 +4228,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
@@ -4109,303 +4276,303 @@
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4434,866 +4601,866 @@
     </row>
     <row r="72" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -5301,7 +5468,7 @@
         <v>78</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -5381,7 +5548,7 @@
         <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -5469,7 +5636,7 @@
         <v>125</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
@@ -5477,7 +5644,7 @@
         <v>127</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -5485,127 +5652,127 @@
         <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5621,7 +5788,7 @@
         <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5741,7 +5908,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -5877,7 +6044,7 @@
         <v>164</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -5893,7 +6060,7 @@
         <v>161</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -5925,72 +6092,168 @@
         <v>170</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B263" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B261" s="3" t="s">
+    <row r="266" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" s="4"/>
-    </row>
-    <row r="362" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="4"/>
+    </row>
+    <row r="365" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A290:B465">
-    <sortCondition ref="A290:A465"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A293:B468">
+    <sortCondition ref="A293:A468"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BFA92B-AD84-43C1-81CA-32392AC0D948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F55FC27E-1176-42E6-86AB-AC3AEE612A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -827,14 +827,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.54.4  Attempt Resupply&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if resupply occurs. If successful, you may relead your tank with ammo. Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.5  Movement Sequence&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The Movement Sequence is performed on the Movement Board using the following steps:
@@ -1043,27 +1035,6 @@
 Mark the area with the Exit Area marker.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c34ExitArea'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Artillery Support arrives 
-&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-If successful, place an Artillery Support marker on the area. Three Artillery Support markers are allowed and can be placed in the same area. Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Call to hit an area adjacent to your task force. Consult the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-to see if Air Strike arrives
- &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  If successful, place an Air Strike marker on the area. Two Air Strike markers are allowed and can be placed in the same area. Additionally, while waiting for air strike, a 15 minute operation can be chosen to happen in parallel. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Continue with 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
     <t>r23.11</t>
@@ -3647,6 +3618,37 @@
 If the colored die is 1-3, mark off 1 unit of fuel. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 A tank with no fuel may not perform the above movement actions, nor may the tank pivot.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.3  Call for Air Strike&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Air Strike arrives per
+ &lt;InlineUIContainer&gt;&lt;Button Content='r23.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  Roll 1D with roll less than 5. If successful, place an Air Strike marker on the area. Two Air Strike markers are allowed and can be placed in the same area. Additionally, while waiting for air strike, a 15 minute operation can be chosen to happen in parallel. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.54.2  Call for Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Call to hit an area adjacent to your task force. Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to see if Artillery Support arrives per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.  Roll 1D with a roll less than 8. 
+If successful, place an Artillery Support marker on the area. Three Artillery Support markers are allowed and can be placed in the same area. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.54.4  Attempt Resupply&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to see if resupply occurs (Roll 1D less than 8). If successful, you may reload your tank with ammo per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+and fuel per &lt;InlineUIContainer&gt;&lt;Button Content='r29.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -4021,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B277" sqref="B277"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4068,7 +4070,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -4108,7 +4110,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -4132,7 +4134,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
@@ -4148,7 +4150,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -4156,7 +4158,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -4204,7 +4206,7 @@
         <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -4212,7 +4214,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -4220,7 +4222,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -4228,7 +4230,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
@@ -4236,7 +4238,7 @@
         <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -4252,7 +4254,7 @@
         <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -4260,15 +4262,15 @@
         <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>145</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
@@ -4276,303 +4278,303 @@
         <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -4580,7 +4582,7 @@
         <v>28</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4601,866 +4603,866 @@
     </row>
     <row r="72" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -5468,7 +5470,7 @@
         <v>78</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -5500,7 +5502,7 @@
         <v>83</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -5548,7 +5550,7 @@
         <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -5636,7 +5638,7 @@
         <v>125</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
@@ -5644,7 +5646,7 @@
         <v>127</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -5652,127 +5654,127 @@
         <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5788,7 +5790,7 @@
         <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5844,7 +5846,7 @@
         <v>41</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.3">
@@ -5860,7 +5862,7 @@
         <v>43</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -5868,7 +5870,7 @@
         <v>44</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5884,7 +5886,7 @@
         <v>72</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -5908,7 +5910,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -5988,7 +5990,7 @@
         <v>73</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -5996,7 +5998,7 @@
         <v>75</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -6004,7 +6006,7 @@
         <v>76</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -6012,239 +6014,239 @@
         <v>77</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F55FC27E-1176-42E6-86AB-AC3AEE612A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{487752E2-7F77-4357-A03E-8EF3E2DFEEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -3039,24 +3039,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If die roll is less than 7, consult appropriate table for each enemy unit:
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table, or &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Action Table.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
-See 
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for enemy actions and 
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for ambushes in Counterattack scenario. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt; 
-Additionally, roll for random events on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. Then go to 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Regardless of ambush status, continue with
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to start the fight.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.7  Battle Round Sequence&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
@@ -3649,6 +3631,26 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
 and fuel per &lt;InlineUIContainer&gt;&lt;Button Content='r29.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Continue with 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If roll is greater than 6, no ambush occurs.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If die roll is less than 7, ambush occurs. consult appropriate table for each enemy unit on the appropriate Action Table: 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for enemy actions and 
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for ambushes in Counterattack scenario. 
+Additionally, roll for random events on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Regardless of ambush status, continue with 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to start the fight.</t>
   </si>
 </sst>
 </file>
@@ -4023,17 +4025,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="216.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="216.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="91.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -4049,7 +4051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>50</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
@@ -4169,7 +4171,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>97</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>102</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>134</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>135</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>136</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>137</v>
       </c>
@@ -4233,7 +4235,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>138</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>139</v>
       </c>
@@ -4249,31 +4251,31 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>237</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>243</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>244</v>
       </c>
@@ -4305,7 +4307,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>245</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>246</v>
       </c>
@@ -4321,87 +4323,87 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="B40" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>180</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>181</v>
       </c>
@@ -4417,7 +4419,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>182</v>
       </c>
@@ -4425,7 +4427,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>183</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>184</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>185</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>213</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>215</v>
       </c>
@@ -4465,7 +4467,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>216</v>
       </c>
@@ -4473,7 +4475,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>217</v>
       </c>
@@ -4481,7 +4483,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>218</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>219</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>220</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>223</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>224</v>
       </c>
@@ -4521,15 +4523,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>226</v>
       </c>
@@ -4537,7 +4539,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>228</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>205</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>207</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>208</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>209</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>28</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
@@ -4593,7 +4595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>30</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>284</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>285</v>
       </c>
@@ -4617,7 +4619,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>287</v>
       </c>
@@ -4625,7 +4627,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>288</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>289</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>290</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>291</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>292</v>
       </c>
@@ -4665,7 +4667,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>293</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>294</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>295</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>296</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>297</v>
       </c>
@@ -4705,7 +4707,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>298</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>299</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>300</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>301</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>302</v>
       </c>
@@ -4745,7 +4747,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>303</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>304</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>305</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>306</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>307</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>308</v>
       </c>
@@ -4793,7 +4795,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>309</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>310</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>311</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>312</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>313</v>
       </c>
@@ -4833,15 +4835,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>316</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>317</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>318</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>319</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>352</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>353</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>354</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>355</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>356</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>357</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>358</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>359</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>368</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>360</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>361</v>
       </c>
@@ -4961,7 +4963,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>362</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>363</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>364</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>365</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>366</v>
       </c>
@@ -5001,7 +5003,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>367</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>377</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>378</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>392</v>
       </c>
@@ -5033,15 +5035,15 @@
         <v>394</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>395</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>396</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>397</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>398</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>399</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>400</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>393</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>405</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>408</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>409</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>406</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>407</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>417</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>418</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>419</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>420</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>249</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>250</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>251</v>
       </c>
@@ -5185,7 +5187,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>252</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>253</v>
       </c>
@@ -5201,7 +5203,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>254</v>
       </c>
@@ -5209,7 +5211,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>255</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>256</v>
       </c>
@@ -5225,7 +5227,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>257</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>258</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>259</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>260</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>261</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>262</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>263</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>264</v>
       </c>
@@ -5289,7 +5291,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>391</v>
       </c>
@@ -5297,7 +5299,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>437</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>438</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>439</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>440</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>441</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>445</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>443</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>442</v>
       </c>
@@ -5361,7 +5363,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>444</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>282</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>427</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>428</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>429</v>
       </c>
@@ -5401,7 +5403,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>430</v>
       </c>
@@ -5409,7 +5411,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>431</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>432</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>433</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>434</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>435</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>436</v>
       </c>
@@ -5457,7 +5459,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>465</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>78</v>
       </c>
@@ -5473,7 +5475,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>79</v>
       </c>
@@ -5481,7 +5483,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>80</v>
       </c>
@@ -5489,7 +5491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>81</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>83</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>84</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>85</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>103</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>104</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>105</v>
       </c>
@@ -5545,15 +5547,15 @@
         <v>117</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>107</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>108</v>
       </c>
@@ -5569,7 +5571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>109</v>
       </c>
@@ -5577,7 +5579,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>110</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>111</v>
       </c>
@@ -5593,7 +5595,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>112</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>113</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>114</v>
       </c>
@@ -5617,7 +5619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>115</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>124</v>
       </c>
@@ -5633,151 +5635,151 @@
         <v>126</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="B212" s="2" t="s">
+    <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
+    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+      <c r="B215" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B217" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>31</v>
       </c>
@@ -5785,15 +5787,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>33</v>
       </c>
@@ -5801,7 +5803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>34</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>35</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>36</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>37</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>40</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>41</v>
       </c>
@@ -5849,7 +5851,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>39</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>43</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>44</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>45</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>72</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>0</v>
       </c>
@@ -5897,7 +5899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>1</v>
       </c>
@@ -5905,15 +5907,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="91.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>12</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>2</v>
       </c>
@@ -5929,7 +5931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="75.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>3</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>5</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>6</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>7</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>8</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="104.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>9</v>
       </c>
@@ -5985,7 +5987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>73</v>
       </c>
@@ -5993,7 +5995,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>75</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>76</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>77</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>158</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>159</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>162</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>163</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>164</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>160</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>167</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>168</v>
       </c>
@@ -6081,7 +6083,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>172</v>
       </c>
@@ -6089,39 +6091,39 @@
         <v>173</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>188</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>189</v>
       </c>
@@ -6137,7 +6139,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>190</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>191</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>195</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>196</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>197</v>
       </c>
@@ -6177,82 +6179,82 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B270" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B273" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
+    <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
+      <c r="B274" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
+    <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B277" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B286" s="4"/>
     </row>
-    <row r="365" ht="154.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A293:B468">
     <sortCondition ref="A293:A468"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487752E2-7F77-4357-A03E-8EF3E2DFEEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80D5D6A0-9E2B-4C91-89C3-27D3B898D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -119,13 +119,6 @@
     <t>r4.2</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.44 Counterattack - Clear Battle Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If battle (or even your Ambush) clears the board of enemy units, return to Time Check to determine how many hours pass before a battle becomes possible again. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.45 Counterattack - Retreat from Battle Board&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If you retreat from the Battle Board, mark off 15 minutes and record the loss of one area. 
@@ -462,23 +455,6 @@
     <t>r21.0</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.43 CounterAttack - Battle&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Delete steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-If no Ambush occurs, go to the Battle Round Sequence 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If an Ambush does occur, do not conduct Enemy Actions, but instead perform the following steps:
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For your tank, go to Battle Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; -&gt; 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
-Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Friendly Action Phase &lt;LineBreak/&gt;
-Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Random Events Phase&lt;LineBreak/&gt;
-Go to Battle Round Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If you clear the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; &lt;LineBreak/&gt;
-If you retreat from the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>r21.1</t>
   </si>
   <si>
@@ -968,16 +944,6 @@
   </si>
   <si>
     <t>r22.2</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
-there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;Combat Calendar&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advance Scenario&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Scenario&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; CounterAttack Scenario&lt;LineBreak/&gt;</t>
   </si>
   <si>
     <t>r22.11</t>
@@ -3633,6 +3599,43 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r20.44 Counterattack - Clear Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If battle (or even your Ambush) clears the board of enemy units, return to Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+to determine how many hours pass before a battle becomes possible again. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
+there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Combat Calendar&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Advance Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Battle Scenario&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Counterattack Scenario&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.43 CounterAttack - Battle&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When performing the Battle portion of a Counterattack sceanrio, delete steps &lt;InlineUIContainer&gt;&lt;Button Content='r4.61' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.64' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;When rolling for Ambush per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.65' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+if no Ambush occurs, go to the Battle Round Sequence 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If an Ambush does occur, do not conduct Enemy Actions, but instead perform the following steps:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For your tank, perform Battle Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; -&gt; 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Friendly Action Phase &lt;LineBreak/&gt;
+Perform step &lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;: Random Events Phase&lt;LineBreak/&gt;
+Go to Battle Round Sequence &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If you clear the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.44' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; &lt;LineBreak/&gt;
+If you retreat from the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If roll is greater than 6, no ambush occurs.
@@ -3644,10 +3647,11 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 See 
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for enemy actions and 
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for ambushes in Counterattack scenario. 
-Additionally, roll for random events on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for enemy actions. Additionally,  roll for random events on the 
 &lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If this is a Counterattack scenario, skip the enemy actions and follow 
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for how ambushes are affected.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Regardless of ambush status, continue with 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to start the fight.</t>
@@ -4037,18 +4041,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="146.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
@@ -4064,7 +4068,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4072,7 +4076,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4080,23 +4084,23 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="107.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4104,15 +4108,15 @@
         <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4120,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4128,7 +4132,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -4136,7 +4140,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4144,188 +4148,188 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>553</v>
@@ -4333,1562 +4337,1562 @@
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>161</v>
+        <v>551</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5896,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -5912,7 +5916,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5920,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -5944,7 +5948,7 @@
         <v>4</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,7 +5956,7 @@
         <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5960,15 +5964,15 @@
         <v>6</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>74</v>
+        <v>552</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5976,7 +5980,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>24</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -5984,271 +5988,271 @@
         <v>9</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80D5D6A0-9E2B-4C91-89C3-27D3B898D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FEEF4B-405B-4BF7-A2E3-FA07833E0C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -4029,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{80D5D6A0-9E2B-4C91-89C3-27D3B898D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C894194-A9AD-48E5-84DD-B6C7A679AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -1490,12 +1490,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.65' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Ambush Check</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.61  Placement of Advancing Fire&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Place Advancing Fire markes per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r22.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.62  Activation of Enemy Units&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Consult the 
@@ -2821,21 +2815,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r13.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Fire Versus Your Tank</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r13.1 Movement &lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units move in four direcitons: &lt;LineBreak/&gt;
-F = Forward&lt;LineBreak/&gt;
-B = Backward&lt;LineBreak/&gt;
-L = Left&lt;LineBreak/&gt;
-R = Right
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Forward&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Backward&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Right or Left&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Into US Control &lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Moving Marker</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r13.12 Move Backward &lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 A unit moving backward remains in the same sector, but moves one zone away from the hub. A unit already at long range in Sectors 4-5, 6-8, or 9-10 is removed from play.
@@ -3044,10 +3023,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.75  Enemy Actions Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.76  Friendly Action Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
@@ -3599,14 +3574,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.54' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r20.44 Counterattack - Clear Battle Board&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If battle (or even your Ambush) clears the board of enemy units, return to Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
-to determine how many hours pass before a battle becomes possible again. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r20.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r20.0 Campaign&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;The campaign recreates actions of the 4th Armored Division from late July, 1944 through April, 1945. Each day the 4th Armored saw action,
 there is a chance your tank will fight; when the Division is refitting, you will be resting. Each day begins with a check of the Combat &lt;InlineUIContainer&gt;&lt;Button Content='Calendar' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
@@ -3636,6 +3603,12 @@
 If you retreat from the Battle Board, go to &lt;InlineUIContainer&gt;&lt;Button Content='r20.45' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
+    <t>&lt;Bold&gt;r4.61  Placement of Advancing Fire&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Place Advancing Fire markers per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r22.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
     <t>&lt;Bold&gt;r4.65  Ambush Check&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Roll 1D for possible Ambush and subtract one for rain, falling snow, or fog. If roll is greater than 6, no ambush occurs.
@@ -3651,10 +3624,55 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 If this is a Counterattack scenario, skip the enemy actions and follow 
-&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for how ambushes are affected.
+&lt;InlineUIContainer&gt;&lt;Button Content='r20.43' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for how ambushes are implemented.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Regardless of ambush status, continue with 
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.7' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; to start the fight.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r13.1 Movement &lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units move in four directions: &lt;LineBreak/&gt;
+F = Forward&lt;LineBreak/&gt;
+B = Backward&lt;LineBreak/&gt;
+L = Left&lt;LineBreak/&gt;
+R = Right
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Forward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.12' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Backward&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.13' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Right or Left&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Move Into US Control &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Moving Marker</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.75  Enemy Actions Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Roll on the respective table for each enemy unit on the Battle Board:
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Advance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Battle' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  &lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Counterattack' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) &lt;InlineUIContainer&gt;&lt;Button Content='r13.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Roll for each moving enemy unit on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Placement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table (vehicle units only) for new facing and/or terrain. Place Moving marker on units that move.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) &lt;InlineUIContainer&gt;&lt;Button Content='r13.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+&lt;InlineUIContainer&gt;&lt;Button Content='r13.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; For attacks not directed at your tank, roll on the 
+respective Enemy Combat Fire Table. Record friendly casualties on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3.) For attacks directed at your tank, go to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.8' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+4.) Continue with Friendly Action Phase per &lt;InlineUIContainer&gt;&lt;Button Content='r4.76' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r20.44 Counterattack - Clear Battle Board&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If battle (or even your Ambush) clears the board of enemy units, return to Time Check &lt;InlineUIContainer&gt;&lt;Button Content='r4.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+to determine how many hours pass before a battle becomes possible again. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
 </sst>
 </file>
@@ -4029,8 +4047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4116,7 +4134,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4260,7 +4278,7 @@
         <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4268,7 +4286,7 @@
         <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4276,7 +4294,7 @@
         <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4297,114 +4315,114 @@
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -4420,7 +4438,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4532,7 +4550,7 @@
         <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4609,866 +4627,866 @@
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>448</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5476,7 +5494,7 @@
         <v>76</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5556,7 +5574,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5644,7 +5662,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5652,7 +5670,7 @@
         <v>125</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -5660,127 +5678,127 @@
         <v>126</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5796,7 +5814,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5892,7 +5910,7 @@
         <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5916,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5972,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5980,7 +5998,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6052,7 +6070,7 @@
         <v>160</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -6068,7 +6086,7 @@
         <v>158</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6100,31 +6118,31 @@
         <v>166</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6185,74 +6203,74 @@
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C894194-A9AD-48E5-84DD-B6C7A679AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1735C50-5097-4D93-B210-0C8F708A1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -4047,7 +4047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1735C50-5097-4D93-B210-0C8F708A1F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7CA541-09C1-47F0-A8C3-B988132B34EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -3225,28 +3225,6 @@
 ( [0.5 x 0.5 x 0.5 = 1/8] ) x 45 = 5.6 rounded down to 5</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r18.2  Depleting Smoke&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r18.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r18.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Multiplier Markers&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r18.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke In Rain
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-             &lt;InlineUIContainer&gt;&lt;Image Name='c111Smoke1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Name='c112Smoke2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
-     &lt;InlineUIContainer&gt;&lt;Image Name='c113Smoke3'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Bold&gt;r18.22  Smoke Multiplier Markers&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Included in the mix of markers are several multiple Smoke markers, representing 2 or 3 Smoke markers. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-These markers can be used to make change or replace several Smoke markers in one zone. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When one of these markers already on it back side is depleted, make change with smaller smoke markers. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-For example, to deplete a x2 Smoke marker already on its back side, replace it with a single smoke marker on its front side. It takes four depletions to remove a x2 Smoke marker. </t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.71  Smoke Depletion Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Deplete smoke in each zone by flipping one full strength Smoke marker to its back side or by removing a Smoke marker already on its back side. See 
@@ -3300,17 +3278,6 @@
 resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r18.21  Smoke Depletion Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Smoke markers are printed in black on their front and gray on the back. When first placed, the black side is shown. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-During the Smoke Depletion Phase per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-of the Battle Round Sequence, one smoke marker is depleted in each zone containing Smoke markers. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Deplete smoke by either flipping one marker in each area to its gray side or by removing one marker already on its gray side.</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
@@ -3673,6 +3640,40 @@
 to determine how many hours pass before a battle becomes possible again. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Mark off the hours that pass, and go to Prepare for Battle &lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.22  Smoke Multiplier Markers&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Included in the mix of markers are several multiple Smoke markers, representing 2 or 3 Smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+These markers can be used to make change or replace several Smoke markers in one zone. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these markers already on it back side is depleted, make change with smaller smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+For example, to deplete a x2 Smoke marker already on its back side, replace it with a single smoke marker on its front side. It takes four depletions to remove a x2 Smoke marker. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                        &lt;InlineUIContainer&gt;&lt;Image Name='c112Smoke2'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+     &lt;InlineUIContainer&gt;&lt;Image Name='c113Smoke3'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.21  Smoke Depletion Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Smoke markers are printed in black on their front and gray on the back. When first placed, the black side is shown. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+During the Smoke Depletion Phase per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+of the Battle Round Sequence, one smoke marker is depleted in each zone containing Smoke markers. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Deplete smoke by either flipping one marker in each area to its gray side or by removing one marker already on its gray side.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='c111Smoke1'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r18.2  Depleting Smoke&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Multiplier Markers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke In Rain</t>
   </si>
 </sst>
 </file>
@@ -4047,8 +4048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,7 +4279,7 @@
         <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4286,7 +4287,7 @@
         <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4294,7 +4295,7 @@
         <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4318,7 +4319,7 @@
         <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4350,7 +4351,7 @@
         <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4366,7 +4367,7 @@
         <v>465</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4374,7 +4375,7 @@
         <v>466</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4382,7 +4383,7 @@
         <v>467</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4398,7 +4399,7 @@
         <v>469</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4550,7 +4551,7 @@
         <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5062,7 +5063,7 @@
         <v>391</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5326,7 +5327,7 @@
         <v>433</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5574,7 +5575,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5662,7 +5663,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5670,7 +5671,7 @@
         <v>125</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -5678,7 +5679,7 @@
         <v>126</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -5745,28 +5746,28 @@
         <v>492</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>493</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>494</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>495</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5910,7 +5911,7 @@
         <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5934,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5990,7 +5991,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5998,7 +5999,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6118,31 +6119,31 @@
         <v>166</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6203,74 +6204,74 @@
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7CA541-09C1-47F0-A8C3-B988132B34EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71E7128A-5C8D-48E8-A288-2CA612B8DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3232,14 +3232,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.72' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also markhere what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.72  Spotting Phase&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Determine what your crew can see by consulting the 
@@ -3674,6 +3666,16 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r18.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Depletion Phase&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r18.22' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke Multiplier Markers&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r18.23' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Smoke In Rain</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r5.23 Gun Loads&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+In the gun load section, place the Gun Load marker in the box of the ammo round loaded in the gun. Also mark here what round type you want to reload after firing (ammo reload marker), and whether you will draw reloads from the ready rack (ready rack ammo reload marker) per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; .
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+           &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c29AmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
+      &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -4048,8 +4050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4279,7 +4281,7 @@
         <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4287,7 +4289,7 @@
         <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4295,7 +4297,7 @@
         <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4319,7 +4321,7 @@
         <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4351,7 +4353,7 @@
         <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4375,7 +4377,7 @@
         <v>466</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4383,7 +4385,7 @@
         <v>467</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4399,7 +4401,7 @@
         <v>469</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4546,12 +4548,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5063,7 +5065,7 @@
         <v>391</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5327,7 +5329,7 @@
         <v>433</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5575,7 +5577,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5663,7 +5665,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -5671,7 +5673,7 @@
         <v>125</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -5679,7 +5681,7 @@
         <v>126</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
@@ -5751,7 +5753,7 @@
         <v>493</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5759,7 +5761,7 @@
         <v>494</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5767,7 +5769,7 @@
         <v>495</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5911,7 +5913,7 @@
         <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5935,7 +5937,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5991,7 +5993,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5999,7 +6001,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6119,31 +6121,31 @@
         <v>166</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6204,74 +6206,74 @@
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B274" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71E7128A-5C8D-48E8-A288-2CA612B8DA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FA2007-67E9-43AC-9BC2-ECD6D6F797E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -698,16 +698,6 @@
     <t>r17.4</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Bold&gt;r17.3 Hidden Units&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Hidden enemy units cannot be spotted, cannot be fired on, and cannot fire at you. This chagnes when your tank moves or the hidden unit moves during the Eney Action Phase 
-&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If either event occurs, remove the Hidden marker. You may attempt to spot this unit during the next Spotting Phase.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
-  </si>
-  <si>
     <t>r17.41</t>
   </si>
   <si>
@@ -3263,31 +3253,6 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r17.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Crew Action Restrictions &lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
-resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified to spot unidentified units until they are identified.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-As a tank commander, you know either a tank, SPG, or AT gun is present; but you do not know which type of each unit is there until you identify it during the Spotting Phase. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-All unidentified units are:&lt;LineBreak/&gt;
--- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
--- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
--- AT guns -&gt; Pak 43 (88LL) 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-When one of these is successfully identified, consult the
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Table to determine what type of unit is actually present.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r10.1 Description&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 In addition to its main gun, the Sherman tank is armed with several machine guns (MGs). 
@@ -3676,6 +3641,47 @@
            &lt;InlineUIContainer&gt;&lt;Image Name='c17GunLoad'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c29AmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;
       &lt;InlineUIContainer&gt;&lt;Image Name='c30ReadyRackAmmoReload'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.42 Unidentified Example&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+An unidentified tank is placed at medium range to your tanks's front. During the Spotting Phase, your gunner rolls sufficiently low to identify the vehicle. You immediately roll a 5 on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  
+resulting in the identification of the tank as a Pz IV. Replace the red Pz VIe counter with a black Pz IV counter.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Unidentified units are treated as the unit pictured for all purposes until identified. It is critical to identify counters as quickly as possible. Continue attempting to spot unidentified units until they are identified.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Hidden units are addressed by 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r17.41 Unidentified Tanks&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When an enemy tank, SPG, or AT gun unit is activated and first placed on the Battle Board, they are placed with their red side up. This indicates they are unidentified. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+As a tank commander, you know either a tank, SPG, or AT gun is present; but you do not know which type of each unit is there until you identify it during the Spotting Phase. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All unidentified units are:&lt;LineBreak/&gt;
+-- Tanks -&gt; Pz VIe&lt;LineBreak/&gt;
+-- SP Vehicles -&gt; STuG IIIg&lt;LineBreak/&gt;
+-- AT guns -&gt; Pak 43 (88LL) 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+When one of these is successfully identified, consult the
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy Appearance' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Table to determine what type of unit is actually present.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Hidden units are addressed by 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r17.3 Hidden Units&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Hidden enemy units cannot be spotted, cannot be fired on, and cannot fire at you. This changes when your tank moves or the hidden unit moves during the Eney Action Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r17.21' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If either event occurs, remove the Hidden marker. You may attempt to spot this unit during the next Spotting Phase.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                     &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
   </si>
 </sst>
 </file>
@@ -4050,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B64" sqref="B63:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4137,7 +4143,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4161,7 +4167,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4177,7 +4183,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4185,7 +4191,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4217,7 +4223,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4230,378 +4236,378 @@
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,7 +4615,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,866 +4636,866 @@
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5497,7 +5503,7 @@
         <v>76</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5529,7 +5535,7 @@
         <v>81</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5553,7 +5559,7 @@
         <v>101</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -5561,7 +5567,7 @@
         <v>102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5577,7 +5583,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5593,7 +5599,7 @@
         <v>106</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5617,7 +5623,7 @@
         <v>109</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -5657,7 +5663,7 @@
         <v>122</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>124</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5665,143 +5671,143 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="B203" s="2" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,7 +5823,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5873,7 +5879,7 @@
         <v>40</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -5889,7 +5895,7 @@
         <v>42</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5897,7 +5903,7 @@
         <v>43</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5919,7 @@
         <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5937,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5993,7 +5999,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,7 +6007,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6017,7 +6023,7 @@
         <v>72</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -6025,7 +6031,7 @@
         <v>73</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -6033,7 +6039,7 @@
         <v>74</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -6041,239 +6047,239 @@
         <v>75</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B275" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B276" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B277" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FA2007-67E9-43AC-9BC2-ECD6D6F797E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE0C082-B12C-4E50-ADB6-759B5E7433B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -996,32 +996,6 @@
     <t>r23.11</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r23.1 Artillery Support Resolution&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Artillery support takes effect in a newly entered area immediately after any appearing enemy units are placed on the Battle Board. Resolve Arillery Support by rolling on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table against each enemy unit.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Enemy units destroyed by artillery support are immediately removed, and their victory points ar recorded under friendly forces of the After Action Report 
-&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll again against each surviving enemy unit for each additional support marker.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r23.1 Artillery Support&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Artillery support can be called for during the Movement Sequence 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-This operation takes 15 minutes. Mark off the time and rol 1D as shown on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-Use Table to see if the support arrives. It arrives on 1-7 roll. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If successful, place an Artillery Support marker in the area where the artillery landed. If at any time during this day you enter the marked area (before reaching the exit area), the artillery support will attack all enemy units appearing. 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Additional artillery support may be called for, but no more than three support markers may be on the Movement Board at one time. You may voluntarily pick up an Artillery Support marker if you decide to attempt to place it elsewhere.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r22.0 Advancing Fire&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Advancing Fire represents blind HE and MG fire at places likely to be concealing unknown enemy units. It may take place both when you tank first enters a new map area and during Battle Rounds.
@@ -3682,6 +3656,37 @@
 If either event occurs, remove the Hidden marker. You may attempt to spot this unit during the next Spotting Phase.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                      &lt;InlineUIContainer&gt;&lt;Image Name='c31Hidden'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt; </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.1 Artillery Support Resolution&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support takes effect in a newly entered area immediately after any appearing enemy units are placed on the Battle Board. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Resolve Arillery Support by rolling on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table against each enemy unit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Enemy units destroyed by artillery support are immediately removed, and their victory points ar recorded under friendly forces of the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Roll again against each surviving enemy unit for each additional support marker.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r23.1 Artillery Support&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Artillery support can be called for during the Movement Sequence 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.5' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+This operation takes 15 minutes. Mark off the time and roll 1D as shown on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Time' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+Use Table to see if the support arrives. It arrives on 1-7 roll. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If successful, place an Artillery Support marker in the area where the artillery landed. If at any time during this day you enter the marked area (before reaching the exit area), the artillery support will attack all enemy units appearing. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Additional artillery support may be called for, but no more than three support markers may be on the Movement Board at one time. You may voluntarily pick up an Artillery Support marker if you decide to attempt to place it elsewhere. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Resolution is performed per  
+&lt;InlineUIContainer&gt;&lt;Button Content='r23.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
 </sst>
 </file>
@@ -4056,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4143,7 +4148,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4183,7 +4188,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4263,7 +4268,7 @@
         <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
@@ -4287,7 +4292,7 @@
         <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4295,7 +4300,7 @@
         <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4303,7 +4308,7 @@
         <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4311,303 +4316,303 @@
         <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4636,866 +4641,866 @@
     </row>
     <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5503,7 +5508,7 @@
         <v>76</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5583,7 +5588,7 @@
         <v>104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -5663,7 +5668,7 @@
         <v>122</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5671,7 +5676,7 @@
         <v>123</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="255" x14ac:dyDescent="0.25">
@@ -5679,7 +5684,7 @@
         <v>124</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -5687,127 +5692,127 @@
         <v>125</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,7 +5828,7 @@
         <v>31</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -5919,7 +5924,7 @@
         <v>71</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -5943,7 +5948,7 @@
         <v>11</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -5999,7 +6004,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6007,7 +6012,7 @@
         <v>8</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6060,7 @@
         <v>155</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -6063,7 +6068,7 @@
         <v>156</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6079,7 +6084,7 @@
         <v>159</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
@@ -6095,7 +6100,7 @@
         <v>157</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -6103,23 +6108,23 @@
         <v>163</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>169</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -6127,159 +6132,159 @@
         <v>165</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B261" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FE0C082-B12C-4E50-ADB6-759B5E7433B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66547465-A8B7-4578-BF32-9110156293E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t>r20.1</t>
   </si>
@@ -2987,18 +2987,6 @@
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.76  Friendly Action Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.77   Random Events Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r4.8  When Your Tanks Is Target&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>r18.0</t>
   </si>
   <si>
@@ -3687,6 +3675,108 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r23.11' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
                                         &lt;InlineUIContainer&gt;&lt;Image Name='c39ArtillerySupport'  Height='80' Width='80'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.76  Friendly Action Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Friendly Action' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+once against each enemy unit on the Battle Board. Remove any knocked out units and record victory points on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. Place any Smoke markers generated due to dice roll.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) After all Friendly Action is resolved, go to the Random Events Phase 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.77' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.77   Random Events Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) Roll once on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Random Events' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table based on the appropriate scenario.
+ And resolve the event.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) If the Battle Board is now empty of enemy units, the battle for the area is over. Mark the area on the Movement Board with a US Control makrer. Record Victory Points on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for capture territory. Return to the Prepare for Battle Step, i.e., 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3.) If the battle does not end, return to the Smoke Depletion Phase, i.e., 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.71' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r4.81</t>
+  </si>
+  <si>
+    <t>r4.82</t>
+  </si>
+  <si>
+    <t>r4.81.4</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.81  Attacks from Enemy Tanks, SPG, and AT Guns&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Hit' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine if your tank is hit. If the shot misses, continue resolving Enemy Actions per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If it hits, go to step 2.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Hit Location' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine where your tank is hit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Kill' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine if the shell penetrates your tank. If no penetration, continue resolving Enemy Actions per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+If shell penetrates, go to step &lt;InlineUIContainer&gt;&lt;Button Content='r4.81.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.8  When Your Tanks Is Target&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.81' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attacks from Enemy Tanks, SPG, and AT Guns&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.82' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attacks from LW, MG, PSW, and SPW Units&lt;LineBreak/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.81.4  Your Tank is Knocked Out&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+a.) Roll for explosion on the Tank 
+&lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. 
+If the tank exploses, the entire crew is killed. Go to Evening Debriefing
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.95' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+b.) Roll for crew casualties on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Wounds' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+c.) Surviving crewman roll for escape on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Bail Out' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+d.) Roll for crew rescues on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Wounds' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table. See 
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.14' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+e.) Roll on the  
+&lt;InlineUIContainer&gt;&lt;Button Content='Brew Up' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table to 
+see if the tank burns. If it burns, all crewmen still inside are killed. If it does not burn, all crewmen are automatically rescued with no chance of wounds.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+f.) Record crew casualties and how the tank was destroyed in the notes ection of the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+g.) The engagement ends with destruction of your tank. Go to the Evening Debriefing phase per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.9' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.82  Attacks from LW, MG, PSW, and SPW Units&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) If there is no effect, go back to 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; and continue resolving Enemy Actions.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) If your tank is hit, note any damage on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+Roll for possible hit crewmen on the 
+After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='Wounds' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r19.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Continue resolving Enemy Actions.</t>
   </si>
 </sst>
 </file>
@@ -4059,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B254" sqref="B254"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4292,7 +4382,7 @@
         <v>137</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4300,7 +4390,7 @@
         <v>138</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4308,7 +4398,7 @@
         <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
@@ -4332,7 +4422,7 @@
         <v>236</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4364,7 +4454,7 @@
         <v>240</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -4380,7 +4470,7 @@
         <v>462</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4388,7 +4478,7 @@
         <v>463</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -4396,7 +4486,7 @@
         <v>464</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4412,1888 +4502,1912 @@
         <v>466</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>468</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="63" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="64" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="69" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="70" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="71" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="72" spans="1:2" ht="136.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="73" spans="1:2" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="74" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="75" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="78" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="79" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="83" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="84" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="85" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="86" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="87" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="88" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="89" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="90" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="91" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="92" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>320</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="101" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="102" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="103" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="104" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="B104" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="107" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="108" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="109" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="110" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="111" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="113" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="115" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="117" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="118" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="119" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="121" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="122" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+    <row r="129" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="B129" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="132" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="133" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="134" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+    <row r="135" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    <row r="141" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="142" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="143" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="144" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="145" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="146" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="147" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="148" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="154" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="155" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="156" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B156" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="158" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B158" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="160" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="161" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="162" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+      <c r="B162" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B163" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="164" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="165" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="166" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="167" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+    <row r="168" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="169" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B169" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="170" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+    <row r="171" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="177" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="178" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="179" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="180" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="181" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="183" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="184" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="189" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="190" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="191" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+      <c r="B193" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B194" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+    <row r="195" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+    <row r="197" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+    <row r="199" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B200" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+    <row r="201" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+    <row r="202" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+    <row r="203" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+      <c r="B203" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+      <c r="B204" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+      <c r="B205" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+      <c r="B206" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+      <c r="B209" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B210" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+      <c r="B211" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+      <c r="B212" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B213" s="2" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+    <row r="214" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B209" s="2" t="s">
+    <row r="215" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B210" s="2" t="s">
+      <c r="B215" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>497</v>
-      </c>
       <c r="B216" s="2" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+    </row>
+    <row r="222" spans="1:2" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    <row r="223" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+      <c r="B223" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+    <row r="225" spans="1:2" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+    <row r="226" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+    <row r="227" spans="1:2" ht="119.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+    <row r="228" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+    <row r="229" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B229" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="230" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B230" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+    <row r="231" spans="1:2" ht="181.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+    <row r="232" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+    <row r="233" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+    <row r="234" spans="1:2" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+    <row r="235" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+      <c r="B235" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="91.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+    <row r="241" spans="1:2" ht="75.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+    <row r="242" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+    <row r="243" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+    <row r="244" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
+    <row r="245" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
+      <c r="B245" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+      <c r="B246" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="104.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+    <row r="248" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+    <row r="249" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B249" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+    <row r="250" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B250" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+    <row r="251" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B251" s="3" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B256" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+    <row r="257" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B257" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="258" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B258" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+    <row r="259" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B256" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="B259" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="B260" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B261" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B263" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B259" s="3" t="s">
+    <row r="264" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B260" s="3" t="s">
+      <c r="B279" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B271" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="B280" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B277" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="4"/>
-    </row>
-    <row r="365" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="4"/>
+    </row>
+    <row r="368" ht="154.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A293:B468">
-    <sortCondition ref="A293:A468"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A296:B471">
+    <sortCondition ref="A296:A471"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Rules.xlsx
+++ b/DesignDocs/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\PattonsBest\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66547465-A8B7-4578-BF32-9110156293E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702B8CB3-66AE-4173-A9D9-4BC1A2382666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
   <si>
     <t>r20.1</t>
   </si>
@@ -523,15 +524,6 @@
 -- Extra main gun and MG ammo could be stuffed into the tank if desired, but at the cost of increased crew discomfort and danger. See 
 &lt;InlineUIContainer&gt;&lt;Button Content='Brew Up' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;  and Tank 
 &lt;InlineUIContainer&gt;&lt;Button Content='Explosion' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tables.</t>
-  </si>
-  <si>
-    <t>&lt;Bold&gt;r16.23 Ammo Ready Rack&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-On the Tank Card, mark the number and types of rounds loaded into your ready rack with the Rounds Left markers. Reloading from the ready rack during battle increases the chance of achieving 
-&lt;InlineUIContainer&gt;&lt;Button Content='Rate of Fire' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
-additional attacks. Each Sherman variant has a ready rack that cannot be exceeded.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-             &lt;InlineUIContainer&gt;&lt;Image Name='ReadyRack'  Height='270' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
     <t>&lt;Bold&gt;r16.22  Extra Ammo &lt;/Bold&gt; 
@@ -2238,16 +2230,6 @@
      &lt;InlineUIContainer&gt;&lt;Image Name='c102SmokeHit'  Height='100' Width='100'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r9.4 Rate of Fire&lt;/Bold&gt; 
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-Achieving Rate of Fire allows for your crew to immediately fire another shot from the main gun. When a To Hit roll is made firing the main gun, the number rolled also deteremines whether the gun has acheived Rate of Fire.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-If the roll is low enough (30 or less for a 75mm gun and 20 or less for a 76L mm gun), you may immediately elect to fire again. You can continue to fire again until either the Rate of Fire roll is not acheived or the ammo runs out.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r9.31' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire Modifiers&lt;LineBreak/&gt;
-&lt;InlineUIContainer&gt;&lt;Button Content='r9.32' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Successive Rate of Fire</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r9.41 Rate of Fire Modifiers&lt;/Bold&gt; 
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 The 
@@ -2983,10 +2965,6 @@
     <t>r4.8</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.74  Crew Actions Phase&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;</t>
-  </si>
-  <si>
     <t>r18.0</t>
   </si>
   <si>
@@ -3712,24 +3690,6 @@
     <t>r4.81.4</t>
   </si>
   <si>
-    <t>&lt;Bold&gt;r4.81  Attacks from Enemy Tanks, SPG, and AT Guns&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-1.) Roll on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Hit' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
-to determine if your tank is hit. If the shot misses, continue resolving Enemy Actions per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If it hits, go to step 2.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-2.) Roll on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Hit Location' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
-to determine where your tank is hit.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;
-3.) Roll on the 
-&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Kill' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
-to determine if the shell penetrates your tank. If no penetration, continue resolving Enemy Actions per 
-&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
-If shell penetrates, go to step &lt;InlineUIContainer&gt;&lt;Button Content='r4.81.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r4.8  When Your Tanks Is Target&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 &lt;InlineUIContainer&gt;&lt;Button Content='r4.81' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Attacks from Enemy Tanks, SPG, and AT Guns&lt;LineBreak/&gt;
@@ -3777,6 +3737,127 @@
 &lt;InlineUIContainer&gt;&lt;Button Content='r19.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;
 Continue resolving Enemy Actions.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.81  Attacks from Enemy Tanks, SPG, and AT Guns&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+1.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Hit' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine if your tank is hit. If the shot misses, continue resolving Enemy Actions per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. If it hits, go to step 2.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+2.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Hit Location Tank' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine where your tank is hit.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+3.) Roll on the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Enemy AP To Kill' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+to determine if the shell penetrates your tank. If no penetration, continue resolving Enemy Actions per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+If shell penetrates, go to step &lt;InlineUIContainer&gt;&lt;Button Content='r4.81.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>r4.74.1</t>
+  </si>
+  <si>
+    <t>r4.74.2</t>
+  </si>
+  <si>
+    <t>r4.74.3</t>
+  </si>
+  <si>
+    <t>r4.74.4</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.74.1  Crew Actions Phase - Tank Movement&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Resolve on 
+&lt;InlineUIContainer&gt;&lt;Button Content='Movement' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r11.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Tank movement may require the shifting of enemy units on the Battle Board.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.74  Crew Actions Phase&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank Movement&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank Main Gun Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Tank MG Fire&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.74.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Miscellaenous Actions&lt;LineBreak/&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+After all crew actions are resolved, go to the Enemy Action Phase, step 
+&lt;InlineUIContainer&gt;&lt;Button Content='r4.75' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r9.4 Rate of Fire&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+Achieving Rate of Fire allows for your crew to immediately fire another shot from the main gun. When a To Hit roll is made firing the main gun, the number rolled also deteremines whether the gun has acheived Rate of Fire.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+If the roll is low enough (30 or less for a 75mm gun and 20 or less for a 76L mm gun), you may immediately elect to fire again. You can continue to fire again until either the Rate of Fire roll is not acheived or the ammo runs out.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.41' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Rate of Fire Modifiers&lt;LineBreak/&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.42' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Successive Rate of Fire</t>
+  </si>
+  <si>
+    <t>r16.3</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.3 Machine Gun (MG) Ammo (OPTIONAL)&lt;/Bold&gt; 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+All rules dealing with MG ammunition should be considered optional and be followed only by choice. For most players, the additional problems posed by the consideration of MG ammo are not worth the record keeping involved. Continue to check for MG malfunctions, but otherwise assume there is sufficient MG ammo on hand for all firing.</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r16.23 Ammo Ready Rack&lt;/Bold&gt; B5
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+On the Tank Card, mark the number and types of rounds loaded into your ready rack with the Rounds Left markers. Reloading from the ready rack during battle increases the chance of achieving 
+&lt;InlineUIContainer&gt;&lt;Button Content='Rate of Fire' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; 
+additional attacks. Each Sherman variant has a ready rack that cannot be exceeded.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+             &lt;InlineUIContainer&gt;&lt;Image Name='ReadyRack'  Height='270' Width='350'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.74.3  Crew Actions Phase - Tank MG Fire&lt;/Bold&gt;
+&lt;InlineUIContainer&gt;&lt;Button Content='r10.2' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+a.) Mark any Advancing Fire and consult the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Sherman MG' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table 
+for ammo use and gun malfunctions.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+b.) Conduct fire against spotted targets on the  same table. Mark off ammo used per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r16.3' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+c.) Remove knocked out enemy units from the board and record the victory points for their destruction on the After Action Report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Bold&gt;r4.74.4  Crew Actions Phase - Miscellaenous Actions&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+a.) Replace periscopes: Mark off a periscope replacement on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; for each replacement. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+b.) Attempt to repair guns that have malfunctioned by consulting the 
+&lt;InlineUIContainer&gt;&lt;Button Content='Gun Malfunction' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+c.) Fire 2" smoke mortar. Place Smoke marker in target zone and mark off one smoke bomb from the After Action Report per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. &lt;LineBreak/&gt;&lt;LineBreak/&gt;
+d.) Throw smoke grenade. Place smoke marker on your tank and mark off one smoke grenade from the After Action Report per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r18.1' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;. </t>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r4.74.2  Crew Actions Phase - Tank Main Gun Fire&lt;/Bold&gt;  
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.0' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+a.) Mark off ammo on the After Action Report 
+&lt;InlineUIContainer&gt;&lt;Button Content='AAR' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;.&lt;LineBreak/&gt;
+b.) Consult the correct 
+&lt;InlineUIContainer&gt;&lt;Button Content='To Hit Target' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt; Table for gun to determine if target is hit. Mark a hit by placing either an HE or AP hit marker on the target.&lt;LineBreak/&gt;
+c.) If the Rate of Fire is possible per 
+&lt;InlineUIContainer&gt;&lt;Button Content='r9.4' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;, 
+gun may be fired again and again. Mark off ammo for each shot and mark any hits.
+&lt;LineBreak/&gt;
+d.) After all possible shots are fired, roll for each hit roll on the correct To Kill Table:&lt;LineBreak/&gt;
+   -- &lt;InlineUIContainer&gt;&lt;Button Content='AP To Kill (75)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+   -- &lt;InlineUIContainer&gt;&lt;Button Content='AP To Kill (76L)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+   -- &lt;InlineUIContainer&gt;&lt;Button Content='AP To Kill (76LL)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+   -- &lt;InlineUIContainer&gt;&lt;Button Content='HE To Kill (75)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+   -- &lt;InlineUIContainer&gt;&lt;Button Content='HE To Kill (76)' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;&lt;LineBreak/&gt;
+e.) Remove knocked out enemy units from the board and record the victory points for their destruction on the After Action Report.</t>
   </si>
 </sst>
 </file>
@@ -4149,10 +4230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,7 +4279,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4238,7 +4319,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -4262,7 +4343,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="90.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,2144 +4351,2184 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B47" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B48" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B49" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>181</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="2" t="s